--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="6" documentId="11_F25DC773A252ABEACE02EC619BD849EA5BDE5894" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{6D98F4D1-9259-4E24-8DA4-B8B2E113A07F}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABEACE02EC619BD849EA5BDE5894" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{BC60421C-C6EA-415F-8569-10E81AD20178}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="150">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -115,9 +115,6 @@
     <t xml:space="preserve">        Web Application Architecture Description</t>
   </si>
   <si>
-    <t xml:space="preserve">        Web Service Architecture Description</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Component Diagram</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">        Component interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        User Interface Design</t>
   </si>
   <si>
     <t xml:space="preserve">            Web Application Design</t>
@@ -560,6 +554,26 @@
   </si>
   <si>
     <t xml:space="preserve">            Server Test Cases</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Face Analysis</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Connect to web</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Server Architecture Description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Preview Heatmap in Time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        User Interface Design</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -741,6 +755,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -751,9 +768,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1037,10 +1051,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="B154" sqref="B154"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1057,16 +1071,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1076,7 +1090,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1092,7 +1106,7 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1106,7 +1120,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1120,7 +1134,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="14"/>
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1134,13 +1148,13 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="14"/>
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1148,26 +1162,26 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="14"/>
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="14"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1176,7 +1190,7 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1190,9 +1204,9 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="15"/>
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -1202,7 +1216,7 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="15"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1214,7 +1228,7 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1226,7 +1240,7 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1240,7 +1254,7 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1252,7 +1266,7 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1264,12 +1278,12 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="16"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1278,7 +1292,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="16"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1290,7 +1304,7 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="7" t="s">
         <v>22</v>
       </c>
@@ -1302,9 +1316,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="16"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1314,9 +1328,9 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="16"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1326,7 +1340,7 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="7" t="s">
         <v>23</v>
       </c>
@@ -1338,9 +1352,9 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1350,9 +1364,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="16"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1362,7 +1376,7 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="16"/>
+      <c r="A24" s="17"/>
       <c r="B24" s="7" t="s">
         <v>24</v>
       </c>
@@ -1374,9 +1388,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="16"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1386,9 +1400,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="16"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1398,9 +1412,9 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="16"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1410,9 +1424,9 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1422,9 +1436,9 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1434,9 +1448,9 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="16"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1446,9 +1460,9 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="16"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1458,9 +1472,9 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="16"/>
+      <c r="A32" s="17"/>
       <c r="B32" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1470,9 +1484,9 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="16"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1482,9 +1496,9 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="16"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1494,9 +1508,9 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="16"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1506,9 +1520,9 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="16"/>
+      <c r="A36" s="17"/>
       <c r="B36" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1518,9 +1532,9 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="16"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1530,9 +1544,9 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="16"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1542,9 +1556,9 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="16"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1554,9 +1568,9 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="16"/>
+      <c r="A40" s="17"/>
       <c r="B40" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1566,9 +1580,9 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="16"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1578,9 +1592,9 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="16"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1590,9 +1604,9 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="16"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1602,9 +1616,9 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="16"/>
+      <c r="A44" s="17"/>
       <c r="B44" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1614,9 +1628,9 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="16"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1626,9 +1640,9 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="16"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1638,9 +1652,9 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="16"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -1650,9 +1664,9 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="16"/>
+      <c r="A48" s="17"/>
       <c r="B48" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1662,9 +1676,9 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="16"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1674,9 +1688,9 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="16"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1686,9 +1700,9 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="16"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1698,9 +1712,9 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="16"/>
+      <c r="A52" s="17"/>
       <c r="B52" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1710,9 +1724,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="16"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1722,7 +1736,7 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="16"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="4"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1732,7 +1746,7 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="16"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="4"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1742,7 +1756,7 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="16"/>
+      <c r="A56" s="17"/>
       <c r="B56" s="4"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -1752,7 +1766,7 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="16"/>
+      <c r="A57" s="17"/>
       <c r="B57" s="4" t="s">
         <v>25</v>
       </c>
@@ -1764,11 +1778,13 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="16"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="5"/>
+      <c r="C58" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -1776,7 +1792,7 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="17" t="s">
+      <c r="A59" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1785,12 +1801,14 @@
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="17"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="7" t="s">
         <v>29</v>
       </c>
@@ -1802,23 +1820,27 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="17"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="17"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C62" s="5"/>
+        <v>147</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
       <c r="F62" s="5"/>
@@ -1826,9 +1848,9 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="17"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -1838,9 +1860,9 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="17"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -1850,33 +1872,37 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="17"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="17"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="17"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -1886,9 +1912,9 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="17"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1898,9 +1924,9 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="17"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -1910,9 +1936,9 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="17"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -1922,9 +1948,9 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="17"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -1934,9 +1960,9 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="17"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -1946,9 +1972,9 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="17"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -1958,9 +1984,9 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="17"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -1970,9 +1996,9 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A75" s="17"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -1982,9 +2008,9 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" s="17"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -1994,9 +2020,9 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" s="17"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2006,9 +2032,9 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A78" s="17"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2018,9 +2044,9 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" s="17"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -2030,9 +2056,9 @@
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" s="17"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -2042,9 +2068,9 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="17"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -2054,9 +2080,9 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" s="17"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -2066,9 +2092,9 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="17"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -2078,9 +2104,9 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" s="17"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -2090,9 +2116,9 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" s="17"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -2102,9 +2128,9 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A86" s="17"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -2114,9 +2140,9 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A87" s="17"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -2126,9 +2152,9 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A88" s="17"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -2138,9 +2164,9 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="17"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -2150,9 +2176,9 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A90" s="17"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -2162,9 +2188,9 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A91" s="17"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -2174,9 +2200,9 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A92" s="17"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -2186,9 +2212,9 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A93" s="17"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -2198,9 +2224,9 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A94" s="17"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -2210,9 +2236,9 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A95" s="17"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -2222,9 +2248,9 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A96" s="17"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -2234,9 +2260,9 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A97" s="17"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -2246,9 +2272,9 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A98" s="17"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -2258,9 +2284,9 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A99" s="17"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -2270,11 +2296,13 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A100" s="17"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C100" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -2282,35 +2310,41 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A101" s="17"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A102" s="17"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
-      <c r="E102" s="5"/>
+      <c r="E102" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A103" s="17"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C103" s="5"/>
+        <v>107</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
       <c r="F103" s="5"/>
@@ -2318,11 +2352,13 @@
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A104" s="17"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C104" s="5"/>
+        <v>108</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
@@ -2330,11 +2366,13 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A105" s="17"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" s="5"/>
+        <v>148</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
       <c r="F105" s="5"/>
@@ -2342,9 +2380,13 @@
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A106" s="17"/>
-      <c r="B106" s="4"/>
-      <c r="C106" s="5"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
       <c r="F106" s="5"/>
@@ -2352,33 +2394,37 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A107" s="17"/>
-      <c r="B107" s="7" t="s">
-        <v>38</v>
+      <c r="A107" s="13"/>
+      <c r="B107" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C107" s="5"/>
-      <c r="D107" s="5"/>
+      <c r="D107" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A108" s="17"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="4" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
-      <c r="E108" s="5"/>
+      <c r="E108" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A109" s="17"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
@@ -2388,9 +2434,9 @@
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A110" s="17"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -2400,9 +2446,9 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A111" s="17"/>
-      <c r="B111" s="4" t="s">
-        <v>22</v>
+      <c r="A111" s="13"/>
+      <c r="B111" s="7" t="s">
+        <v>149</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -2412,9 +2458,9 @@
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A112" s="17"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="4" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -2424,9 +2470,9 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A113" s="17"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="4" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -2436,9 +2482,9 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A114" s="17"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -2448,9 +2494,9 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A115" s="17"/>
-      <c r="B115" s="7" t="s">
-        <v>42</v>
+      <c r="A115" s="13"/>
+      <c r="B115" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -2460,9 +2506,9 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A116" s="17"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="4" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -2472,9 +2518,9 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A117" s="17"/>
-      <c r="B117" s="4" t="s">
-        <v>44</v>
+      <c r="A117" s="13"/>
+      <c r="B117" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -2484,11 +2530,13 @@
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A118" s="17"/>
-      <c r="B118" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C118" s="5"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -2496,13 +2544,13 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A119" s="17" t="s">
-        <v>46</v>
-      </c>
+      <c r="A119" s="13"/>
       <c r="B119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
@@ -2510,9 +2558,9 @@
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A120" s="17"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
@@ -2522,9 +2570,11 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A121" s="17"/>
+      <c r="A121" s="13" t="s">
+        <v>44</v>
+      </c>
       <c r="B121" s="4" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -2534,9 +2584,9 @@
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A122" s="17"/>
-      <c r="B122" s="4" t="s">
-        <v>44</v>
+      <c r="A122" s="13"/>
+      <c r="B122" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -2546,21 +2596,23 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A123" s="17"/>
-      <c r="B123" s="7" t="s">
-        <v>49</v>
+      <c r="A123" s="13"/>
+      <c r="B123" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A124" s="17"/>
+      <c r="A124" s="13"/>
       <c r="B124" s="4" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
@@ -2570,9 +2622,9 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A125" s="17"/>
-      <c r="B125" s="4" t="s">
-        <v>51</v>
+      <c r="A125" s="13"/>
+      <c r="B125" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -2582,9 +2634,9 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A126" s="17"/>
-      <c r="B126" s="7" t="s">
-        <v>52</v>
+      <c r="A126" s="13"/>
+      <c r="B126" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -2594,9 +2646,9 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A127" s="17"/>
+      <c r="A127" s="13"/>
       <c r="B127" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -2606,9 +2658,9 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A128" s="17"/>
+      <c r="A128" s="13"/>
       <c r="B128" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -2618,9 +2670,9 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A129" s="17"/>
-      <c r="B129" s="7" t="s">
-        <v>143</v>
+      <c r="A129" s="13"/>
+      <c r="B129" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -2630,9 +2682,9 @@
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A130" s="8"/>
+      <c r="A130" s="13"/>
       <c r="B130" s="7" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -2642,9 +2694,9 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A131" s="8"/>
-      <c r="B131" s="4" t="s">
-        <v>131</v>
+      <c r="A131" s="13"/>
+      <c r="B131" s="7" t="s">
+        <v>141</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -2655,8 +2707,8 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A132" s="8"/>
-      <c r="B132" s="4" t="s">
-        <v>132</v>
+      <c r="B132" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -2668,7 +2720,7 @@
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="8"/>
       <c r="B133" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -2680,7 +2732,7 @@
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="8"/>
       <c r="B134" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -2692,7 +2744,7 @@
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A135" s="8"/>
       <c r="B135" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -2704,7 +2756,7 @@
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="8"/>
       <c r="B136" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -2716,7 +2768,7 @@
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="8"/>
       <c r="B137" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -2728,7 +2780,7 @@
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="8"/>
       <c r="B138" s="4" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -2739,8 +2791,8 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="8"/>
-      <c r="B139" s="7" t="s">
-        <v>104</v>
+      <c r="B139" s="4" t="s">
+        <v>135</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -2752,7 +2804,7 @@
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="8"/>
       <c r="B140" s="4" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -2763,8 +2815,8 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="8"/>
-      <c r="B141" s="4" t="s">
-        <v>113</v>
+      <c r="B141" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -2776,7 +2828,7 @@
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="8"/>
       <c r="B142" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -2788,7 +2840,7 @@
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="8"/>
       <c r="B143" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -2800,7 +2852,7 @@
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="8"/>
       <c r="B144" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -2812,7 +2864,7 @@
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="8"/>
       <c r="B145" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -2824,7 +2876,7 @@
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="8"/>
       <c r="B146" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -2836,7 +2888,7 @@
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="8"/>
       <c r="B147" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -2848,7 +2900,7 @@
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="8"/>
       <c r="B148" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -2860,7 +2912,7 @@
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="8"/>
       <c r="B149" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -2872,7 +2924,7 @@
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="8"/>
       <c r="B150" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -2884,7 +2936,7 @@
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="8"/>
       <c r="B151" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -2896,7 +2948,7 @@
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="8"/>
       <c r="B152" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -2908,7 +2960,7 @@
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="8"/>
       <c r="B153" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -2920,7 +2972,7 @@
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="8"/>
       <c r="B154" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -2932,7 +2984,7 @@
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="8"/>
       <c r="B155" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -2944,7 +2996,7 @@
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="8"/>
       <c r="B156" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -2956,7 +3008,7 @@
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="8"/>
       <c r="B157" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -2968,7 +3020,7 @@
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="8"/>
       <c r="B158" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -2980,7 +3032,7 @@
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="8"/>
       <c r="B159" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -2991,8 +3043,8 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="8"/>
-      <c r="B160" s="7" t="s">
-        <v>146</v>
+      <c r="B160" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -3002,11 +3054,9 @@
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A161" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="B161" s="7" t="s">
-        <v>56</v>
+      <c r="A161" s="8"/>
+      <c r="B161" s="4" t="s">
+        <v>128</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -3016,9 +3066,9 @@
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A162" s="17"/>
-      <c r="B162" s="4" t="s">
-        <v>57</v>
+      <c r="A162" s="8"/>
+      <c r="B162" s="7" t="s">
+        <v>144</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -3028,9 +3078,11 @@
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A163" s="17"/>
-      <c r="B163" s="4" t="s">
-        <v>58</v>
+      <c r="A163" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -3040,11 +3092,13 @@
       <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A164" s="17"/>
+      <c r="A164" s="13"/>
       <c r="B164" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C164" s="5"/>
+        <v>55</v>
+      </c>
+      <c r="C164" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
@@ -3052,9 +3106,9 @@
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A165" s="17"/>
-      <c r="B165" s="7" t="s">
-        <v>60</v>
+      <c r="A165" s="13"/>
+      <c r="B165" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -3064,21 +3118,23 @@
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A166" s="17"/>
-      <c r="B166" s="7" t="s">
-        <v>37</v>
+      <c r="A166" s="13"/>
+      <c r="B166" s="4" t="s">
+        <v>57</v>
       </c>
       <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A167" s="17"/>
-      <c r="B167" s="4" t="s">
-        <v>74</v>
+      <c r="A167" s="13"/>
+      <c r="B167" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -3088,9 +3144,9 @@
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A168" s="17"/>
-      <c r="B168" s="4" t="s">
-        <v>24</v>
+      <c r="A168" s="13"/>
+      <c r="B168" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -3099,62 +3155,86 @@
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A172" s="9" t="s">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A169" s="13"/>
+      <c r="B169" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C169" s="5"/>
+      <c r="D169" s="5"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A170" s="13"/>
+      <c r="B170" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C170" s="5"/>
+      <c r="D170" s="5"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A174" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A175" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A173" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B173" s="10">
+      <c r="B175" s="10">
         <v>1</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A174" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B174" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A175" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B175" s="12">
-        <v>3</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A176" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B176" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
       <c r="A177" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B177" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A178" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B178" s="12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A179" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B179" s="12">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A161:A168"/>
+    <mergeCell ref="A163:A170"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A58"/>
-    <mergeCell ref="A59:A118"/>
-    <mergeCell ref="A119:A129"/>
+    <mergeCell ref="A59:A120"/>
+    <mergeCell ref="A121:A131"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="40" documentId="11_F25DC773A252ABEACE02EC619BD849EA5BDE5894" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{BC60421C-C6EA-415F-8569-10E81AD20178}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580BF4F-9F86-44BA-A9BF-7FD31F5F6188}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,10 +557,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Server&gt; Face Analysis</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Server&gt; Connect to web</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -574,6 +570,10 @@
   </si>
   <si>
     <t xml:space="preserve">        User Interface Design</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Face Detection</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1053,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1836,7 +1836,7 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="13"/>
       <c r="B62" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>70</v>
@@ -2368,7 +2368,7 @@
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="13"/>
       <c r="B105" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C105" s="5" t="s">
         <v>70</v>
@@ -2396,7 +2396,7 @@
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="13"/>
       <c r="B107" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
@@ -2410,7 +2410,7 @@
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="13"/>
       <c r="B108" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -2448,7 +2448,7 @@
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="13"/>
       <c r="B111" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0580BF4F-9F86-44BA-A9BF-7FD31F5F6188}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D23039-FD41-4BA6-8033-BF661CCAFF9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="156">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Algorithms</t>
-  </si>
-  <si>
-    <t>Report 5 - Software Implementation and Test Document</t>
   </si>
   <si>
     <t xml:space="preserve">    Database Relationship Diagram</t>
@@ -270,10 +267,6 @@
     <t xml:space="preserve">            User</t>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Company (UC_03)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Company (UC_04)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -282,14 +275,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Company (UC_06)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Accounts In Company (UC_07)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Account (UC_08)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -298,14 +283,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Account (UC_10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Store (UC_11)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Store (UC_12)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -314,14 +291,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Store (UC_14)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Area (UC_15)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Area (UC_16)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -330,14 +299,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Area (UC_18)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Camera (UC_19)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Camera (UC_20)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -346,10 +307,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera (UC_22)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;User&gt; View Store (UC_25)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -362,10 +319,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;User&gt; View Streaming (UC_28)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;User&gt; See Object Detection (UC_29)</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -378,10 +331,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;User&gt; View Heatmap (UC_32)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">            User</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -417,10 +366,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Company</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Company</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -429,26 +374,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Company</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Accounts In Company</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Edit Account</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Account</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Store</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Store</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -457,14 +386,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Store</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Area</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Area</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -473,14 +394,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Area</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; View Camera</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Camera</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -489,10 +402,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;User&gt; View Store</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -505,10 +414,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;User&gt; View Streaming</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;User&gt; See Object Detection</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -521,26 +426,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;User&gt; View Heatmap</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Admin Login (UC_01)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Admin Logout (UC_02)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; User Login (UC_23)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; User Logout (UC_24)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">            Web Application Test Cases</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -573,7 +458,147 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Server&gt; Face Detection</t>
+    <t xml:space="preserve">                &lt;Server&gt; Detect Face</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Unauthorized User</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Unauthorized User&gt; Login (UC_01)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Authorized User</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Logout (UC_02)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password (UC_02)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile (UC_02)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile (UC_02)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Company (UC_06)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Account (UC_10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Store (UC_14)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Area (UC_18)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Camera (UC_22)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera (UC_28)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap (UC_32)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time (UC_32)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Face Detection (UC_32)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            RTSP Server</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;RTSP Server&gt; Get Steaming By RTSP (UC_25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;RTSP Server&gt; Detect People (UC_25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;RTSP Server&gt; Count People (UC_25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;RTSP Server&gt; Draw Heatmap (UC_25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;RTSP Server&gt; Detect Face (UC_25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;RTSP Server&gt; Draw Heatmap in Time (UC_25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;RTSP Server&gt; Save video (UC_25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;RTSP Server&gt; Upload Cloud (UC_25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Face Detection</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Company</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Account</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Store</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Camera</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Report 5 - Software Implementation and Test Document</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -675,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -722,6 +747,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -744,9 +778,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -768,6 +799,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1051,10 +1085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H179"/>
+  <dimension ref="A1:H187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1071,16 +1105,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1090,7 +1124,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1106,7 +1140,7 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1120,7 +1154,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1134,7 +1168,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1148,13 +1182,13 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1162,26 +1196,26 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1190,13 +1224,15 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1204,11 +1240,13 @@
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -1216,11 +1254,13 @@
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -1228,11 +1268,13 @@
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1240,13 +1282,15 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
@@ -1254,11 +1298,13 @@
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
@@ -1266,11 +1312,13 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1278,12 +1326,12 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
@@ -1292,7 +1340,7 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1304,9 +1352,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1316,9 +1364,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -1328,9 +1376,9 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
-      <c r="B20" s="4" t="s">
-        <v>139</v>
+      <c r="A20" s="16"/>
+      <c r="B20" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1340,9 +1388,9 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
-      <c r="B21" s="7" t="s">
-        <v>23</v>
+      <c r="A21" s="16"/>
+      <c r="B21" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -1352,9 +1400,9 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1364,9 +1412,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -1376,9 +1424,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
-      <c r="B24" s="7" t="s">
-        <v>24</v>
+      <c r="A24" s="16"/>
+      <c r="B24" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -1388,9 +1436,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="17"/>
-      <c r="B25" s="4" t="s">
-        <v>73</v>
+      <c r="A25" s="16"/>
+      <c r="B25" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
@@ -1400,9 +1448,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1412,9 +1460,9 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1424,9 +1472,9 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1436,9 +1484,9 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1448,9 +1496,9 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
@@ -1460,9 +1508,9 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
@@ -1472,9 +1520,9 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
@@ -1484,9 +1532,9 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
@@ -1496,9 +1544,9 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
-        <v>82</v>
+        <v>130</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1508,9 +1556,9 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1520,9 +1568,9 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1532,9 +1580,9 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
-        <v>85</v>
+        <v>131</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1544,9 +1592,9 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1556,9 +1604,9 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1568,9 +1616,9 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1580,9 +1628,9 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="17"/>
-      <c r="B41" s="4" t="s">
-        <v>89</v>
+      <c r="A41" s="16"/>
+      <c r="B41" s="7" t="s">
+        <v>88</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1592,9 +1640,9 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="17"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1604,9 +1652,9 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1616,9 +1664,9 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="17"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1628,9 +1676,9 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="17"/>
-      <c r="B45" s="7" t="s">
-        <v>101</v>
+      <c r="A45" s="16"/>
+      <c r="B45" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1640,9 +1688,9 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="17"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="4" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1652,9 +1700,9 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="4" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -1664,9 +1712,9 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="17"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1676,9 +1724,9 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="4" t="s">
-        <v>96</v>
+        <v>134</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1688,9 +1736,9 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="17"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1700,9 +1748,9 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1712,9 +1760,9 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="17"/>
-      <c r="B52" s="4" t="s">
-        <v>99</v>
+      <c r="A52" s="16"/>
+      <c r="B52" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1724,9 +1772,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="17"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1736,8 +1784,10 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="17"/>
-      <c r="B54" s="4"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1746,8 +1796,10 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="17"/>
-      <c r="B55" s="4"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="4" t="s">
+        <v>140</v>
+      </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1756,8 +1808,10 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="17"/>
-      <c r="B56" s="4"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="4" t="s">
+        <v>141</v>
+      </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1766,9 +1820,9 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="17"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="4" t="s">
-        <v>25</v>
+        <v>142</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -1778,13 +1832,11 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
@@ -1792,25 +1844,21 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="13" t="s">
-        <v>27</v>
-      </c>
+      <c r="A59" s="16"/>
       <c r="B59" s="4" t="s">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="F59" s="5"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="13"/>
-      <c r="B60" s="7" t="s">
-        <v>29</v>
+      <c r="A60" s="16"/>
+      <c r="B60" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -1820,26 +1868,26 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="13"/>
+      <c r="A61" s="16"/>
       <c r="B61" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="5"/>
+      <c r="F61" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="13"/>
+      <c r="A62" s="16"/>
       <c r="B62" s="4" t="s">
-        <v>146</v>
+        <v>26</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1848,21 +1896,25 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="13"/>
+      <c r="A63" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="B63" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="5"/>
+      <c r="F63" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="13"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -1872,13 +1924,13 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="13"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -1886,23 +1938,23 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="13"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="13"/>
-      <c r="B67" s="7" t="s">
-        <v>35</v>
+      <c r="A67" s="12"/>
+      <c r="B67" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -1912,9 +1964,9 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="13"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="7" t="s">
-        <v>142</v>
+        <v>32</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1924,33 +1976,37 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="13"/>
-      <c r="B69" s="7" t="s">
-        <v>72</v>
+      <c r="A69" s="12"/>
+      <c r="B69" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="13"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="4" t="s">
-        <v>129</v>
+        <v>34</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="5"/>
+      <c r="D70" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="13"/>
-      <c r="B71" s="4" t="s">
-        <v>130</v>
+      <c r="A71" s="12"/>
+      <c r="B71" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -1960,9 +2016,9 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="13"/>
-      <c r="B72" s="4" t="s">
-        <v>131</v>
+      <c r="A72" s="12"/>
+      <c r="B72" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -1972,9 +2028,9 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="13"/>
-      <c r="B73" s="4" t="s">
-        <v>132</v>
+      <c r="A73" s="12"/>
+      <c r="B73" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -1984,9 +2040,9 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="13"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="4" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
@@ -1996,9 +2052,9 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A75" s="13"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="4" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
@@ -2008,9 +2064,9 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" s="13"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="4" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2020,9 +2076,9 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" s="13"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -2032,9 +2088,9 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A78" s="13"/>
-      <c r="B78" s="7" t="s">
-        <v>102</v>
+      <c r="A78" s="12"/>
+      <c r="B78" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -2044,7 +2100,7 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" s="13"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="4" t="s">
         <v>110</v>
       </c>
@@ -2056,7 +2112,7 @@
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" s="13"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="4" t="s">
         <v>111</v>
       </c>
@@ -2068,9 +2124,9 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="13"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="4" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -2080,9 +2136,9 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" s="13"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="4" t="s">
-        <v>113</v>
+        <v>148</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -2092,9 +2148,9 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="13"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="4" t="s">
-        <v>114</v>
+        <v>149</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -2104,9 +2160,9 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" s="13"/>
-      <c r="B84" s="4" t="s">
-        <v>103</v>
+      <c r="A84" s="12"/>
+      <c r="B84" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -2116,9 +2172,9 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" s="13"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -2128,9 +2184,9 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A86" s="13"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="4" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -2140,9 +2196,9 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A87" s="13"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="4" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -2152,9 +2208,9 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A88" s="13"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="4" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
@@ -2164,9 +2220,9 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="13"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="4" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -2176,9 +2232,9 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A90" s="13"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="4" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -2188,9 +2244,9 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A91" s="13"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="4" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -2200,9 +2256,9 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A92" s="13"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="4" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
@@ -2212,9 +2268,9 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A93" s="13"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="4" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
@@ -2224,9 +2280,9 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A94" s="13"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="4" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -2236,9 +2292,9 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A95" s="13"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="4" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -2248,9 +2304,9 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A96" s="13"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="4" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
@@ -2260,9 +2316,9 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A97" s="13"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="4" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
@@ -2272,9 +2328,9 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A98" s="13"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="4" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -2284,9 +2340,9 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A99" s="13"/>
-      <c r="B99" s="7" t="s">
-        <v>143</v>
+      <c r="A99" s="12"/>
+      <c r="B99" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -2296,13 +2352,11 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A100" s="13"/>
-      <c r="B100" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="A100" s="12"/>
+      <c r="B100" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
       <c r="F100" s="5"/>
@@ -2310,54 +2364,54 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A101" s="13"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C101" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="F101" s="5"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A102" s="13"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C102" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D102" s="5"/>
-      <c r="E102" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="E102" s="5"/>
       <c r="F102" s="5"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A103" s="13"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="C103" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
+      <c r="E103" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F103" s="5"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A104" s="13"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="4" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -2366,12 +2420,12 @@
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A105" s="13"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -2380,12 +2434,12 @@
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A106" s="13"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="4" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -2394,49 +2448,51 @@
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A107" s="13"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C107" s="5"/>
-      <c r="D107" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D107" s="5"/>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A108" s="13"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C108" s="5"/>
+        <v>116</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D108" s="5"/>
-      <c r="E108" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A109" s="13"/>
-      <c r="B109" s="7" t="s">
-        <v>37</v>
+      <c r="A109" s="12"/>
+      <c r="B109" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
-      <c r="E109" s="5"/>
+      <c r="E109" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A110" s="13"/>
-      <c r="B110" s="4" t="s">
-        <v>38</v>
+      <c r="A110" s="12"/>
+      <c r="B110" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
@@ -2446,9 +2502,9 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A111" s="13"/>
-      <c r="B111" s="7" t="s">
-        <v>148</v>
+      <c r="A111" s="12"/>
+      <c r="B111" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -2458,9 +2514,9 @@
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A112" s="13"/>
-      <c r="B112" s="4" t="s">
-        <v>39</v>
+      <c r="A112" s="12"/>
+      <c r="B112" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -2470,9 +2526,9 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A113" s="13"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -2482,9 +2538,9 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A114" s="13"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
@@ -2494,9 +2550,9 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A115" s="13"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="4" t="s">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -2506,9 +2562,9 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A116" s="13"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="4" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -2518,9 +2574,9 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A117" s="13"/>
-      <c r="B117" s="7" t="s">
-        <v>40</v>
+      <c r="A117" s="12"/>
+      <c r="B117" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -2530,13 +2586,11 @@
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A118" s="13"/>
-      <c r="B118" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C118" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="A118" s="12"/>
+      <c r="B118" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
@@ -2544,12 +2598,12 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A119" s="13"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -2558,11 +2612,13 @@
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A120" s="13"/>
-      <c r="B120" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C120" s="5"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
@@ -2570,11 +2626,9 @@
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A121" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>7</v>
+      <c r="A121" s="12"/>
+      <c r="B121" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
@@ -2583,10 +2637,12 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A122" s="13"/>
-      <c r="B122" s="7" t="s">
-        <v>45</v>
+    <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A122" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
@@ -2596,35 +2652,35 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A123" s="13"/>
-      <c r="B123" s="4" t="s">
-        <v>46</v>
+      <c r="A123" s="17"/>
+      <c r="B123" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="D123" s="5"/>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A124" s="13"/>
+      <c r="A124" s="17"/>
       <c r="B124" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C124" s="5"/>
-      <c r="D124" s="5"/>
+      <c r="D124" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A125" s="13"/>
-      <c r="B125" s="7" t="s">
-        <v>47</v>
+      <c r="A125" s="17"/>
+      <c r="B125" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
@@ -2634,9 +2690,9 @@
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A126" s="13"/>
-      <c r="B126" s="4" t="s">
-        <v>48</v>
+      <c r="A126" s="17"/>
+      <c r="B126" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -2646,9 +2702,9 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A127" s="13"/>
+      <c r="A127" s="17"/>
       <c r="B127" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
@@ -2658,9 +2714,9 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A128" s="13"/>
-      <c r="B128" s="7" t="s">
-        <v>50</v>
+      <c r="A128" s="17"/>
+      <c r="B128" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -2670,9 +2726,9 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A129" s="13"/>
-      <c r="B129" s="4" t="s">
-        <v>51</v>
+      <c r="A129" s="17"/>
+      <c r="B129" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -2682,9 +2738,9 @@
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A130" s="13"/>
-      <c r="B130" s="7" t="s">
-        <v>52</v>
+      <c r="A130" s="17"/>
+      <c r="B130" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -2694,9 +2750,9 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A131" s="13"/>
+      <c r="A131" s="17"/>
       <c r="B131" s="7" t="s">
-        <v>141</v>
+        <v>51</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -2706,9 +2762,9 @@
       <c r="H131" s="6"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A132" s="8"/>
+      <c r="A132" s="17"/>
       <c r="B132" s="7" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -2718,9 +2774,9 @@
       <c r="H132" s="6"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A133" s="8"/>
-      <c r="B133" s="4" t="s">
-        <v>129</v>
+      <c r="A133" s="17"/>
+      <c r="B133" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -2730,9 +2786,9 @@
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A134" s="8"/>
+      <c r="A134" s="17"/>
       <c r="B134" s="4" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -2742,9 +2798,9 @@
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A135" s="8"/>
+      <c r="A135" s="17"/>
       <c r="B135" s="4" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -2754,9 +2810,9 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A136" s="8"/>
+      <c r="A136" s="17"/>
       <c r="B136" s="4" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -2766,9 +2822,9 @@
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A137" s="8"/>
+      <c r="A137" s="17"/>
       <c r="B137" s="4" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -2778,9 +2834,9 @@
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A138" s="8"/>
+      <c r="A138" s="17"/>
       <c r="B138" s="4" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -2790,9 +2846,9 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A139" s="8"/>
+      <c r="A139" s="17"/>
       <c r="B139" s="4" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -2802,9 +2858,9 @@
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A140" s="8"/>
+      <c r="A140" s="17"/>
       <c r="B140" s="4" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -2814,9 +2870,9 @@
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A141" s="8"/>
-      <c r="B141" s="7" t="s">
-        <v>102</v>
+      <c r="A141" s="17"/>
+      <c r="B141" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -2826,9 +2882,9 @@
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A142" s="8"/>
+      <c r="A142" s="17"/>
       <c r="B142" s="4" t="s">
-        <v>110</v>
+        <v>148</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -2838,9 +2894,9 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A143" s="8"/>
+      <c r="A143" s="17"/>
       <c r="B143" s="4" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -2850,9 +2906,9 @@
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A144" s="8"/>
-      <c r="B144" s="4" t="s">
-        <v>112</v>
+      <c r="A144" s="17"/>
+      <c r="B144" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -2862,9 +2918,9 @@
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A145" s="8"/>
+      <c r="A145" s="17"/>
       <c r="B145" s="4" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -2874,9 +2930,9 @@
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A146" s="8"/>
+      <c r="A146" s="17"/>
       <c r="B146" s="4" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -2886,9 +2942,9 @@
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A147" s="8"/>
+      <c r="A147" s="17"/>
       <c r="B147" s="4" t="s">
-        <v>103</v>
+        <v>150</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -2898,9 +2954,9 @@
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A148" s="8"/>
+      <c r="A148" s="17"/>
       <c r="B148" s="4" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -2910,9 +2966,9 @@
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A149" s="8"/>
+      <c r="A149" s="17"/>
       <c r="B149" s="4" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -2922,9 +2978,9 @@
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A150" s="8"/>
+      <c r="A150" s="17"/>
       <c r="B150" s="4" t="s">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -2934,9 +2990,9 @@
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A151" s="8"/>
+      <c r="A151" s="17"/>
       <c r="B151" s="4" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -2946,9 +3002,9 @@
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A152" s="8"/>
+      <c r="A152" s="17"/>
       <c r="B152" s="4" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -2958,9 +3014,9 @@
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A153" s="8"/>
+      <c r="A153" s="17"/>
       <c r="B153" s="4" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -2970,9 +3026,9 @@
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A154" s="8"/>
+      <c r="A154" s="17"/>
       <c r="B154" s="4" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -2982,9 +3038,9 @@
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A155" s="8"/>
+      <c r="A155" s="17"/>
       <c r="B155" s="4" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -2994,9 +3050,9 @@
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A156" s="8"/>
+      <c r="A156" s="17"/>
       <c r="B156" s="4" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -3006,9 +3062,9 @@
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A157" s="8"/>
+      <c r="A157" s="17"/>
       <c r="B157" s="4" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -3018,9 +3074,9 @@
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A158" s="8"/>
+      <c r="A158" s="17"/>
       <c r="B158" s="4" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -3030,9 +3086,9 @@
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A159" s="8"/>
+      <c r="A159" s="17"/>
       <c r="B159" s="4" t="s">
-        <v>126</v>
+        <v>154</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -3042,9 +3098,9 @@
       <c r="H159" s="6"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A160" s="8"/>
-      <c r="B160" s="4" t="s">
-        <v>127</v>
+      <c r="A160" s="17"/>
+      <c r="B160" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -3054,9 +3110,9 @@
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A161" s="8"/>
+      <c r="A161" s="17"/>
       <c r="B161" s="4" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -3066,9 +3122,9 @@
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A162" s="8"/>
-      <c r="B162" s="7" t="s">
-        <v>144</v>
+      <c r="A162" s="17"/>
+      <c r="B162" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -3078,11 +3134,9 @@
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A163" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="B163" s="7" t="s">
-        <v>54</v>
+      <c r="A163" s="17"/>
+      <c r="B163" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -3092,13 +3146,11 @@
       <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A164" s="13"/>
+      <c r="A164" s="17"/>
       <c r="B164" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C164" s="5" t="s">
-        <v>70</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
@@ -3106,9 +3158,9 @@
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A165" s="13"/>
+      <c r="A165" s="17"/>
       <c r="B165" s="4" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -3118,23 +3170,21 @@
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A166" s="13"/>
+      <c r="A166" s="17"/>
       <c r="B166" s="4" t="s">
-        <v>57</v>
+        <v>118</v>
       </c>
       <c r="C166" s="5"/>
-      <c r="D166" s="5" t="s">
-        <v>70</v>
-      </c>
+      <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A167" s="13"/>
-      <c r="B167" s="7" t="s">
-        <v>58</v>
+      <c r="A167" s="17"/>
+      <c r="B167" s="4" t="s">
+        <v>96</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -3144,9 +3194,9 @@
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A168" s="13"/>
-      <c r="B168" s="7" t="s">
-        <v>36</v>
+      <c r="A168" s="17"/>
+      <c r="B168" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -3156,9 +3206,9 @@
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A169" s="13"/>
+      <c r="A169" s="17"/>
       <c r="B169" s="4" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -3168,9 +3218,9 @@
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A170" s="13"/>
-      <c r="B170" s="4" t="s">
-        <v>24</v>
+      <c r="A170" s="17"/>
+      <c r="B170" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -3179,62 +3229,164 @@
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A171" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C171" s="5"/>
+      <c r="D171" s="5"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="6"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A172" s="12"/>
+      <c r="B172" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D172" s="5"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="6"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A173" s="12"/>
+      <c r="B173" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C173" s="5"/>
+      <c r="D173" s="5"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="6"/>
+      <c r="H173" s="6"/>
+    </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A174" s="9" t="s">
+      <c r="A174" s="12"/>
+      <c r="B174" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="6"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A175" s="12"/>
+      <c r="B175" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C175" s="5"/>
+      <c r="D175" s="5"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="6"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A176" s="12"/>
+      <c r="B176" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C176" s="5"/>
+      <c r="D176" s="5"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="6"/>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A177" s="12"/>
+      <c r="B177" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5"/>
+      <c r="E177" s="5"/>
+      <c r="F177" s="5"/>
+      <c r="G177" s="6"/>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A178" s="12"/>
+      <c r="B178" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C178" s="5"/>
+      <c r="D178" s="5"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A182" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B182" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B174" s="10" t="s">
+    </row>
+    <row r="183" spans="1:8" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A183" s="10" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A175" s="11" t="s">
+      <c r="B183" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A184" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B175" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A176" s="11" t="s">
+      <c r="B184" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A185" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B176" s="12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A177" s="11" t="s">
+      <c r="B185" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A186" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B177" s="12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A178" s="11" t="s">
+      <c r="B186" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A187" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B178" s="12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A179" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B179" s="12">
+      <c r="B187" s="11">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A163:A170"/>
+    <mergeCell ref="A171:A178"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A58"/>
-    <mergeCell ref="A59:A120"/>
-    <mergeCell ref="A121:A131"/>
+    <mergeCell ref="A13:A62"/>
+    <mergeCell ref="A63:A121"/>
+    <mergeCell ref="A122:A170"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9D23039-FD41-4BA6-8033-BF661CCAFF9D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7204C21-96AB-4B6B-8600-13922AA9442D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="157">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -601,16 +601,19 @@
     <t>Report 5 - Software Implementation and Test Document</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Company</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -623,7 +626,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -1085,19 +1088,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H187"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A155" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="D124" sqref="D124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="105.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="108">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15.6">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -1139,7 +1142,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15.6">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1153,7 +1156,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15.6">
       <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -1167,7 +1170,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="15.6">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1181,7 +1184,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="15.6">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -1195,7 +1198,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="15.6">
       <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1209,7 +1212,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="15.6">
       <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -1223,7 +1226,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.6">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1239,7 +1242,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.6">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>70</v>
@@ -1253,7 +1256,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.6">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -1267,7 +1270,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="15.6">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -1281,7 +1284,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="15.6">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -1297,7 +1300,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="15.6">
       <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -1311,7 +1314,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="15.6">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -1325,7 +1328,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="15.6">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
@@ -1339,7 +1342,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="15.6">
       <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
@@ -1351,7 +1354,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="15.6">
       <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
         <v>121</v>
@@ -1363,7 +1366,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="15.6">
       <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
         <v>122</v>
@@ -1375,7 +1378,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="15.6">
       <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
         <v>123</v>
@@ -1387,7 +1390,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="15.6">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
         <v>124</v>
@@ -1399,7 +1402,7 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="15.6">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
         <v>125</v>
@@ -1411,7 +1414,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="15.6">
       <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
         <v>126</v>
@@ -1423,7 +1426,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="15.6">
       <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
         <v>127</v>
@@ -1435,7 +1438,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="15.6">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
@@ -1447,7 +1450,7 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="15.6">
       <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
         <v>72</v>
@@ -1459,7 +1462,7 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="15.6">
       <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
         <v>73</v>
@@ -1471,7 +1474,7 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="15.6">
       <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
         <v>128</v>
@@ -1483,7 +1486,7 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="15.6">
       <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
         <v>74</v>
@@ -1495,7 +1498,7 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="15.6">
       <c r="A30" s="16"/>
       <c r="B30" s="4" t="s">
         <v>75</v>
@@ -1507,7 +1510,7 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="15.6">
       <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
         <v>129</v>
@@ -1519,7 +1522,7 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="15.6">
       <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
         <v>76</v>
@@ -1531,7 +1534,7 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="15.6">
       <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
         <v>77</v>
@@ -1543,7 +1546,7 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="15.6">
       <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
         <v>130</v>
@@ -1555,7 +1558,7 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="15.6">
       <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
         <v>78</v>
@@ -1567,7 +1570,7 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="15.6">
       <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
         <v>79</v>
@@ -1579,7 +1582,7 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="15.6">
       <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
         <v>131</v>
@@ -1591,7 +1594,7 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="15.6">
       <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
         <v>80</v>
@@ -1603,7 +1606,7 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="15.6">
       <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
         <v>81</v>
@@ -1615,7 +1618,7 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="15.6">
       <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
         <v>132</v>
@@ -1627,7 +1630,7 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="15.6">
       <c r="A41" s="16"/>
       <c r="B41" s="7" t="s">
         <v>88</v>
@@ -1639,7 +1642,7 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="15.6">
       <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
         <v>82</v>
@@ -1651,7 +1654,7 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="15.6">
       <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
         <v>83</v>
@@ -1663,7 +1666,7 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="15.6">
       <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
         <v>84</v>
@@ -1675,7 +1678,7 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="15.6">
       <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
         <v>133</v>
@@ -1687,7 +1690,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="15.6">
       <c r="A46" s="16"/>
       <c r="B46" s="4" t="s">
         <v>85</v>
@@ -1699,7 +1702,7 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="15.6">
       <c r="A47" s="16"/>
       <c r="B47" s="4" t="s">
         <v>86</v>
@@ -1711,7 +1714,7 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="15.6">
       <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
         <v>87</v>
@@ -1723,7 +1726,7 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="15.6">
       <c r="A49" s="16"/>
       <c r="B49" s="4" t="s">
         <v>134</v>
@@ -1735,7 +1738,7 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="15.6">
       <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
         <v>135</v>
@@ -1747,7 +1750,7 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="15.6">
       <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
         <v>136</v>
@@ -1759,7 +1762,7 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="15.6">
       <c r="A52" s="16"/>
       <c r="B52" s="7" t="s">
         <v>137</v>
@@ -1771,7 +1774,7 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="15.6">
       <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
         <v>138</v>
@@ -1783,7 +1786,7 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="15.6">
       <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
         <v>139</v>
@@ -1795,7 +1798,7 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="15.6">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
         <v>140</v>
@@ -1807,7 +1810,7 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="15.6">
       <c r="A56" s="16"/>
       <c r="B56" s="4" t="s">
         <v>141</v>
@@ -1819,7 +1822,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="15.6">
       <c r="A57" s="16"/>
       <c r="B57" s="4" t="s">
         <v>142</v>
@@ -1831,7 +1834,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="15.6">
       <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
         <v>143</v>
@@ -1843,7 +1846,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="15.6">
       <c r="A59" s="16"/>
       <c r="B59" s="4" t="s">
         <v>144</v>
@@ -1855,7 +1858,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="15.6">
       <c r="A60" s="16"/>
       <c r="B60" s="4" t="s">
         <v>145</v>
@@ -1867,7 +1870,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="15.6">
       <c r="A61" s="16"/>
       <c r="B61" s="4" t="s">
         <v>25</v>
@@ -1881,7 +1884,7 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="15.6">
       <c r="A62" s="16"/>
       <c r="B62" s="4" t="s">
         <v>26</v>
@@ -1895,7 +1898,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="15.6">
       <c r="A63" s="12" t="s">
         <v>27</v>
       </c>
@@ -1911,7 +1914,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="15.6">
       <c r="A64" s="12"/>
       <c r="B64" s="7" t="s">
         <v>29</v>
@@ -1923,7 +1926,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="15.6">
       <c r="A65" s="12"/>
       <c r="B65" s="4" t="s">
         <v>30</v>
@@ -1937,7 +1940,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="15.6">
       <c r="A66" s="12"/>
       <c r="B66" s="4" t="s">
         <v>117</v>
@@ -1951,19 +1954,21 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="15.6">
       <c r="A67" s="12"/>
       <c r="B67" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="15.6">
       <c r="A68" s="12"/>
       <c r="B68" s="7" t="s">
         <v>32</v>
@@ -1975,7 +1980,7 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="15.6">
       <c r="A69" s="12"/>
       <c r="B69" s="4" t="s">
         <v>33</v>
@@ -1989,7 +1994,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="15.6">
       <c r="A70" s="12"/>
       <c r="B70" s="4" t="s">
         <v>34</v>
@@ -2003,7 +2008,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="15.6">
       <c r="A71" s="12"/>
       <c r="B71" s="7" t="s">
         <v>35</v>
@@ -2015,7 +2020,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="15.6">
       <c r="A72" s="12"/>
       <c r="B72" s="7" t="s">
         <v>113</v>
@@ -2027,7 +2032,7 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="15.6">
       <c r="A73" s="12"/>
       <c r="B73" s="7" t="s">
         <v>71</v>
@@ -2039,7 +2044,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="15.6">
       <c r="A74" s="12"/>
       <c r="B74" s="4" t="s">
         <v>106</v>
@@ -2051,7 +2056,7 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="15.6">
       <c r="A75" s="12"/>
       <c r="B75" s="4" t="s">
         <v>107</v>
@@ -2063,7 +2068,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="15.6">
       <c r="A76" s="12"/>
       <c r="B76" s="4" t="s">
         <v>108</v>
@@ -2075,7 +2080,7 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="15.6">
       <c r="A77" s="12"/>
       <c r="B77" s="4" t="s">
         <v>146</v>
@@ -2087,7 +2092,7 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="15.6">
       <c r="A78" s="12"/>
       <c r="B78" s="4" t="s">
         <v>109</v>
@@ -2099,7 +2104,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="15.6">
       <c r="A79" s="12"/>
       <c r="B79" s="4" t="s">
         <v>110</v>
@@ -2111,7 +2116,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="15.6">
       <c r="A80" s="12"/>
       <c r="B80" s="4" t="s">
         <v>111</v>
@@ -2123,7 +2128,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="15.6">
       <c r="A81" s="12"/>
       <c r="B81" s="4" t="s">
         <v>147</v>
@@ -2135,7 +2140,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="15.6">
       <c r="A82" s="12"/>
       <c r="B82" s="4" t="s">
         <v>148</v>
@@ -2147,7 +2152,7 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15.6">
       <c r="A83" s="12"/>
       <c r="B83" s="4" t="s">
         <v>149</v>
@@ -2159,7 +2164,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="15.6">
       <c r="A84" s="12"/>
       <c r="B84" s="7" t="s">
         <v>89</v>
@@ -2171,10 +2176,10 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="15.6">
       <c r="A85" s="12"/>
       <c r="B85" s="4" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -2183,7 +2188,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="15.6">
       <c r="A86" s="12"/>
       <c r="B86" s="4" t="s">
         <v>98</v>
@@ -2195,7 +2200,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="15.6">
       <c r="A87" s="12"/>
       <c r="B87" s="4" t="s">
         <v>150</v>
@@ -2207,7 +2212,7 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="15.6">
       <c r="A88" s="12"/>
       <c r="B88" s="4" t="s">
         <v>90</v>
@@ -2219,7 +2224,7 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="15.6">
       <c r="A89" s="12"/>
       <c r="B89" s="4" t="s">
         <v>99</v>
@@ -2231,7 +2236,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="15.6">
       <c r="A90" s="12"/>
       <c r="B90" s="4" t="s">
         <v>151</v>
@@ -2243,7 +2248,7 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="15.6">
       <c r="A91" s="12"/>
       <c r="B91" s="4" t="s">
         <v>100</v>
@@ -2255,7 +2260,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="15.6">
       <c r="A92" s="12"/>
       <c r="B92" s="4" t="s">
         <v>101</v>
@@ -2267,7 +2272,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="15.6">
       <c r="A93" s="12"/>
       <c r="B93" s="4" t="s">
         <v>152</v>
@@ -2279,7 +2284,7 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="15.6">
       <c r="A94" s="12"/>
       <c r="B94" s="4" t="s">
         <v>102</v>
@@ -2291,7 +2296,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="15.6">
       <c r="A95" s="12"/>
       <c r="B95" s="4" t="s">
         <v>103</v>
@@ -2303,7 +2308,7 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="15.6">
       <c r="A96" s="12"/>
       <c r="B96" s="4" t="s">
         <v>153</v>
@@ -2315,7 +2320,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="15.6">
       <c r="A97" s="12"/>
       <c r="B97" s="4" t="s">
         <v>104</v>
@@ -2327,7 +2332,7 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="15.6">
       <c r="A98" s="12"/>
       <c r="B98" s="4" t="s">
         <v>105</v>
@@ -2339,7 +2344,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="15.6">
       <c r="A99" s="12"/>
       <c r="B99" s="4" t="s">
         <v>154</v>
@@ -2351,7 +2356,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="15.6">
       <c r="A100" s="12"/>
       <c r="B100" s="7" t="s">
         <v>114</v>
@@ -2363,7 +2368,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="15.6">
       <c r="A101" s="12"/>
       <c r="B101" s="4" t="s">
         <v>91</v>
@@ -2377,7 +2382,7 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="15.6">
       <c r="A102" s="12"/>
       <c r="B102" s="4" t="s">
         <v>92</v>
@@ -2391,7 +2396,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="15.6">
       <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
         <v>93</v>
@@ -2405,7 +2410,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="15.6">
       <c r="A104" s="12"/>
       <c r="B104" s="4" t="s">
         <v>94</v>
@@ -2419,7 +2424,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="15.6">
       <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
         <v>95</v>
@@ -2433,7 +2438,7 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="15.6">
       <c r="A106" s="12"/>
       <c r="B106" s="4" t="s">
         <v>118</v>
@@ -2447,7 +2452,7 @@
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="15.6">
       <c r="A107" s="12"/>
       <c r="B107" s="4" t="s">
         <v>96</v>
@@ -2461,7 +2466,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="15.6">
       <c r="A108" s="12"/>
       <c r="B108" s="4" t="s">
         <v>116</v>
@@ -2475,7 +2480,7 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="15.6">
       <c r="A109" s="12"/>
       <c r="B109" s="4" t="s">
         <v>120</v>
@@ -2489,7 +2494,7 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="15.6">
       <c r="A110" s="12"/>
       <c r="B110" s="7" t="s">
         <v>37</v>
@@ -2501,7 +2506,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="15.6">
       <c r="A111" s="12"/>
       <c r="B111" s="4" t="s">
         <v>38</v>
@@ -2513,7 +2518,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="15.6">
       <c r="A112" s="12"/>
       <c r="B112" s="7" t="s">
         <v>119</v>
@@ -2525,7 +2530,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="15.6">
       <c r="A113" s="12"/>
       <c r="B113" s="4" t="s">
         <v>39</v>
@@ -2537,7 +2542,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="15.6">
       <c r="A114" s="12"/>
       <c r="B114" s="4" t="s">
         <v>22</v>
@@ -2549,7 +2554,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="15.6">
       <c r="A115" s="12"/>
       <c r="B115" s="4" t="s">
         <v>23</v>
@@ -2561,7 +2566,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="15.6">
       <c r="A116" s="12"/>
       <c r="B116" s="4" t="s">
         <v>71</v>
@@ -2573,7 +2578,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="15.6">
       <c r="A117" s="12"/>
       <c r="B117" s="4" t="s">
         <v>24</v>
@@ -2585,7 +2590,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="15.6">
       <c r="A118" s="12"/>
       <c r="B118" s="7" t="s">
         <v>40</v>
@@ -2597,7 +2602,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="15.6">
       <c r="A119" s="12"/>
       <c r="B119" s="4" t="s">
         <v>41</v>
@@ -2611,7 +2616,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="15.6">
       <c r="A120" s="12"/>
       <c r="B120" s="4" t="s">
         <v>42</v>
@@ -2625,7 +2630,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="15.6">
       <c r="A121" s="12"/>
       <c r="B121" s="7" t="s">
         <v>43</v>
@@ -2637,7 +2642,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="18" customHeight="1">
       <c r="A122" s="17" t="s">
         <v>155</v>
       </c>
@@ -2651,7 +2656,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="15.6">
       <c r="A123" s="17"/>
       <c r="B123" s="7" t="s">
         <v>44</v>
@@ -2663,7 +2668,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="15.6">
       <c r="A124" s="17"/>
       <c r="B124" s="4" t="s">
         <v>45</v>
@@ -2677,7 +2682,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="15.6">
       <c r="A125" s="17"/>
       <c r="B125" s="4" t="s">
         <v>42</v>
@@ -2689,7 +2694,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" ht="15.6">
       <c r="A126" s="17"/>
       <c r="B126" s="7" t="s">
         <v>46</v>
@@ -2701,7 +2706,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" ht="15.6">
       <c r="A127" s="17"/>
       <c r="B127" s="4" t="s">
         <v>47</v>
@@ -2713,7 +2718,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" ht="15.6">
       <c r="A128" s="17"/>
       <c r="B128" s="4" t="s">
         <v>48</v>
@@ -2725,7 +2730,7 @@
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" ht="15.6">
       <c r="A129" s="17"/>
       <c r="B129" s="7" t="s">
         <v>49</v>
@@ -2737,7 +2742,7 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" ht="15.6">
       <c r="A130" s="17"/>
       <c r="B130" s="4" t="s">
         <v>50</v>
@@ -2749,7 +2754,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" ht="15.6">
       <c r="A131" s="17"/>
       <c r="B131" s="7" t="s">
         <v>51</v>
@@ -2761,7 +2766,7 @@
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" ht="15.6">
       <c r="A132" s="17"/>
       <c r="B132" s="7" t="s">
         <v>112</v>
@@ -2773,10 +2778,10 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="15.6">
       <c r="A133" s="17"/>
       <c r="B133" s="7" t="s">
-        <v>71</v>
+        <v>121</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -2785,10 +2790,10 @@
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" ht="15.6">
       <c r="A134" s="17"/>
       <c r="B134" s="4" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -2797,10 +2802,10 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" ht="15.6">
       <c r="A135" s="17"/>
-      <c r="B135" s="4" t="s">
-        <v>107</v>
+      <c r="B135" s="7" t="s">
+        <v>123</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -2809,10 +2814,10 @@
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" ht="15.6">
       <c r="A136" s="17"/>
       <c r="B136" s="4" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -2821,10 +2826,10 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" ht="15.6">
       <c r="A137" s="17"/>
       <c r="B137" s="4" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -2833,10 +2838,10 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" ht="15.6">
       <c r="A138" s="17"/>
       <c r="B138" s="4" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -2845,10 +2850,10 @@
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" ht="15.6">
       <c r="A139" s="17"/>
       <c r="B139" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -2857,10 +2862,10 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" ht="15.6">
       <c r="A140" s="17"/>
-      <c r="B140" s="4" t="s">
-        <v>111</v>
+      <c r="B140" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -2869,10 +2874,10 @@
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" ht="15.6">
       <c r="A141" s="17"/>
       <c r="B141" s="4" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -2881,10 +2886,10 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" ht="15.6">
       <c r="A142" s="17"/>
       <c r="B142" s="4" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
@@ -2893,10 +2898,10 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" ht="15.6">
       <c r="A143" s="17"/>
       <c r="B143" s="4" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -2905,10 +2910,10 @@
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" ht="15.6">
       <c r="A144" s="17"/>
-      <c r="B144" s="7" t="s">
-        <v>89</v>
+      <c r="B144" s="4" t="s">
+        <v>146</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -2917,10 +2922,10 @@
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" ht="15.6">
       <c r="A145" s="17"/>
       <c r="B145" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -2929,10 +2934,10 @@
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" ht="15.6">
       <c r="A146" s="17"/>
       <c r="B146" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -2941,10 +2946,10 @@
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" ht="15.6">
       <c r="A147" s="17"/>
       <c r="B147" s="4" t="s">
-        <v>150</v>
+        <v>111</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -2953,10 +2958,10 @@
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" ht="15.6">
       <c r="A148" s="17"/>
       <c r="B148" s="4" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
@@ -2965,10 +2970,10 @@
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" ht="15.6">
       <c r="A149" s="17"/>
       <c r="B149" s="4" t="s">
-        <v>99</v>
+        <v>148</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -2977,10 +2982,10 @@
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" ht="15.6">
       <c r="A150" s="17"/>
       <c r="B150" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -2989,10 +2994,10 @@
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" ht="15.6">
       <c r="A151" s="17"/>
-      <c r="B151" s="4" t="s">
-        <v>100</v>
+      <c r="B151" s="7" t="s">
+        <v>89</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -3001,10 +3006,10 @@
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" ht="15.6">
       <c r="A152" s="17"/>
       <c r="B152" s="4" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -3013,10 +3018,10 @@
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" ht="15.6">
       <c r="A153" s="17"/>
       <c r="B153" s="4" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -3025,10 +3030,10 @@
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" ht="15.6">
       <c r="A154" s="17"/>
       <c r="B154" s="4" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -3037,10 +3042,10 @@
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" ht="15.6">
       <c r="A155" s="17"/>
       <c r="B155" s="4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -3049,10 +3054,10 @@
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" ht="15.6">
       <c r="A156" s="17"/>
       <c r="B156" s="4" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -3061,10 +3066,10 @@
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" ht="15.6">
       <c r="A157" s="17"/>
       <c r="B157" s="4" t="s">
-        <v>104</v>
+        <v>151</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -3073,10 +3078,10 @@
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" ht="15.6">
       <c r="A158" s="17"/>
       <c r="B158" s="4" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -3085,10 +3090,10 @@
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" ht="15.6">
       <c r="A159" s="17"/>
       <c r="B159" s="4" t="s">
-        <v>154</v>
+        <v>101</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -3097,10 +3102,10 @@
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" ht="15.6">
       <c r="A160" s="17"/>
-      <c r="B160" s="7" t="s">
-        <v>114</v>
+      <c r="B160" s="4" t="s">
+        <v>152</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -3109,10 +3114,10 @@
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" ht="15.6">
       <c r="A161" s="17"/>
       <c r="B161" s="4" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -3121,10 +3126,10 @@
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" ht="15.6">
       <c r="A162" s="17"/>
       <c r="B162" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -3133,10 +3138,10 @@
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" ht="15.6">
       <c r="A163" s="17"/>
       <c r="B163" s="4" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -3145,10 +3150,10 @@
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" ht="15.6">
       <c r="A164" s="17"/>
       <c r="B164" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -3157,10 +3162,10 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" ht="15.6">
       <c r="A165" s="17"/>
       <c r="B165" s="4" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -3169,10 +3174,10 @@
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" ht="15.6">
       <c r="A166" s="17"/>
       <c r="B166" s="4" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -3181,10 +3186,10 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" ht="15.6">
       <c r="A167" s="17"/>
-      <c r="B167" s="4" t="s">
-        <v>96</v>
+      <c r="B167" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -3193,10 +3198,10 @@
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" ht="15.6">
       <c r="A168" s="17"/>
       <c r="B168" s="4" t="s">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -3205,10 +3210,10 @@
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" ht="15.6">
       <c r="A169" s="17"/>
       <c r="B169" s="4" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -3217,10 +3222,10 @@
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" ht="15.6">
       <c r="A170" s="17"/>
-      <c r="B170" s="7" t="s">
-        <v>115</v>
+      <c r="B170" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -3229,12 +3234,10 @@
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A171" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B171" s="7" t="s">
-        <v>53</v>
+    <row r="171" spans="1:8" ht="15.6">
+      <c r="A171" s="17"/>
+      <c r="B171" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -3243,24 +3246,22 @@
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A172" s="12"/>
+    <row r="172" spans="1:8" ht="15.6">
+      <c r="A172" s="17"/>
       <c r="B172" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C172" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A173" s="12"/>
+    <row r="173" spans="1:8" ht="15.6">
+      <c r="A173" s="17"/>
       <c r="B173" s="4" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -3269,24 +3270,22 @@
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A174" s="12"/>
+    <row r="174" spans="1:8" ht="15.6">
+      <c r="A174" s="17"/>
       <c r="B174" s="4" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C174" s="5"/>
-      <c r="D174" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A175" s="12"/>
-      <c r="B175" s="7" t="s">
-        <v>57</v>
+    <row r="175" spans="1:8" ht="15.6">
+      <c r="A175" s="17"/>
+      <c r="B175" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -3295,10 +3294,10 @@
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A176" s="12"/>
-      <c r="B176" s="7" t="s">
-        <v>36</v>
+    <row r="176" spans="1:8" ht="15.6">
+      <c r="A176" s="17"/>
+      <c r="B176" s="4" t="s">
+        <v>120</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -3307,10 +3306,10 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A177" s="12"/>
-      <c r="B177" s="4" t="s">
-        <v>71</v>
+    <row r="177" spans="1:8" ht="15.6">
+      <c r="A177" s="17"/>
+      <c r="B177" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -3319,10 +3318,12 @@
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A178" s="12"/>
-      <c r="B178" s="4" t="s">
-        <v>24</v>
+    <row r="178" spans="1:8" ht="15.6">
+      <c r="A178" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -3331,62 +3332,150 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A182" s="8" t="s">
+    <row r="179" spans="1:8" ht="15.6">
+      <c r="A179" s="12"/>
+      <c r="B179" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C179" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D179" s="5"/>
+      <c r="E179" s="5"/>
+      <c r="F179" s="5"/>
+      <c r="G179" s="6"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:8" ht="15.6">
+      <c r="A180" s="12"/>
+      <c r="B180" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5"/>
+      <c r="E180" s="5"/>
+      <c r="F180" s="5"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:8" ht="15.6">
+      <c r="A181" s="12"/>
+      <c r="B181" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C181" s="5"/>
+      <c r="D181" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="6"/>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="1:8" ht="15.6">
+      <c r="A182" s="12"/>
+      <c r="B182" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:8" ht="15.6">
+      <c r="A183" s="12"/>
+      <c r="B183" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="6"/>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:8" ht="15.6">
+      <c r="A184" s="12"/>
+      <c r="B184" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:8" ht="15.6">
+      <c r="A185" s="12"/>
+      <c r="B185" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="6"/>
+      <c r="H185" s="6"/>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B189" s="9" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A183" s="10" t="s">
+    <row r="190" spans="1:8" ht="69">
+      <c r="A190" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B183" s="9">
+      <c r="B190" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A184" s="10" t="s">
+    <row r="191" spans="1:8" ht="27.6">
+      <c r="A191" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B184" s="11">
+      <c r="B191" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A185" s="10" t="s">
+    <row r="192" spans="1:8" ht="27.6">
+      <c r="A192" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B185" s="11">
+      <c r="B192" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A186" s="10" t="s">
+    <row r="193" spans="1:2" ht="27.6">
+      <c r="A193" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="B186" s="11">
+      <c r="B193" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A187" s="10" t="s">
+    <row r="194" spans="1:2" ht="27.6">
+      <c r="A194" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B187" s="11">
+      <c r="B194" s="11">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A171:A178"/>
+    <mergeCell ref="A178:A185"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A62"/>
     <mergeCell ref="A63:A121"/>
-    <mergeCell ref="A122:A170"/>
+    <mergeCell ref="A122:A177"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7204C21-96AB-4B6B-8600-13922AA9442D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -166,13 +165,7 @@
     <t xml:space="preserve">        Web application page load speed</t>
   </si>
   <si>
-    <t xml:space="preserve">    Test Plan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    System Testing Test Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Communication Diagram</t>
   </si>
   <si>
     <t xml:space="preserve">        Test Cases</t>
@@ -275,340 +268,353 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Account (UC_09)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Store (UC_12)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Store (UC_13)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Area (UC_16)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Area (UC_17)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Camera (UC_20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera (UC_21)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Store (UC_25)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Area (UC_26)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Camera (UC_27)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Object Detection (UC_29)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Count People (UC_30)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Report (UC_31)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            User</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Admin</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Account</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Get Streaming by RTSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Save Video</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Upload Cloud</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Detect People</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Count People</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Draw Heatmap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Company</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Company</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Account</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Store</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Store</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Camera</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Store</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Camera</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Object Detection</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Count People</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Report</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Web Application Test Cases</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Website</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Server</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Server Test Cases</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Connect to web</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Server Architecture Description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Preview Heatmap in Time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        User Interface Design</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Server&gt; Detect Face</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Unauthorized User</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Unauthorized User&gt; Login (UC_01)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            Authorized User</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Logout (UC_02)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password (UC_02)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile (UC_02)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile (UC_02)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Company (UC_06)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Account (UC_10)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Store (UC_14)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Camera (UC_22)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera (UC_28)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap (UC_32)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time (UC_32)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Face Detection (UC_32)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Face Detection</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Company</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Account</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Store</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Area</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Camera</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Report 5 - Software Implementation and Test Document</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Company</t>
+  </si>
+  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Add Account (UC_08)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Account (UC_09)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Store (UC_12)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Store (UC_13)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Area (UC_16)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Area (UC_17)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Camera (UC_20)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera (UC_21)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Store (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Area (UC_26)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Camera (UC_27)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Object Detection (UC_29)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Count People (UC_30)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Report (UC_31)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            User</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            Admin</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Account</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Server&gt; Get Streaming by RTSP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Server&gt; Save Video</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Server&gt; Upload Cloud</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Server&gt; Detect People</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Server&gt; Count People</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Server&gt; Draw Heatmap</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Company</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Company</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Account</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Store</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Store</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Area</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Area</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Camera</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Store</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Area</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Camera</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Object Detection</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Count People</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Report</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            Web Application Test Cases</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Website</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Server</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            Server Test Cases</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Server&gt; Connect to web</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Server Architecture Description</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Server&gt; Preview Heatmap in Time</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        User Interface Design</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Server&gt; Detect Face</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            Unauthorized User</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Unauthorized User&gt; Login (UC_01)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            Authorized User</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Logout (UC_02)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password (UC_02)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile (UC_02)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile (UC_02)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Company (UC_06)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Account (UC_10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Store (UC_14)</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Logout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Unauthorized User&gt; Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Unauthorized User&gt; Login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Company (UC_07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Account (UC_10)</t>
   </si>
   <si>
     <t xml:space="preserve">                &lt;Admin&gt; Search Area (UC_18)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Camera (UC_22)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera (UC_28)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap (UC_32)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time (UC_32)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Face Detection (UC_32)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            RTSP Server</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;RTSP Server&gt; Get Steaming By RTSP (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;RTSP Server&gt; Detect People (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;RTSP Server&gt; Count People (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;RTSP Server&gt; Draw Heatmap (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;RTSP Server&gt; Detect Face (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;RTSP Server&gt; Draw Heatmap in Time (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;RTSP Server&gt; Save video (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;RTSP Server&gt; Upload Cloud (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Face Detection</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Company</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Account</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Store</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Area</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Camera</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Report 5 - Software Implementation and Test Document</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Store (UC_15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Area (UC_19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera (UC_23)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10">
     <font>
       <sz val="11"/>
@@ -810,7 +816,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1" xr:uid="{E88157D6-74B5-4AAB-B6E4-158B7D7622B6}"/>
+    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1087,20 +1093,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H194"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="D124" sqref="D124"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="B136" sqref="A136:XFD136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="108">
+    <row r="1" spans="1:8" ht="114">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1108,16 +1114,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1126,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.6">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -1142,7 +1148,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1156,7 +1162,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="15.6">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -1170,7 +1176,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="15.6">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1184,21 +1190,21 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15.6">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15.6">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1206,19 +1212,19 @@
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="15.6">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1226,7 +1232,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15.6">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1234,49 +1240,53 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15.6">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.6">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D11" s="5"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="F11" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="15.6">
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -1284,7 +1294,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15.6">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -1292,57 +1302,59 @@
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15.6">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="15.6">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="15.6">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
+      <c r="F16" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="15.6">
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
@@ -1354,10 +1366,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="15.6">
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1366,22 +1378,24 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="15.6">
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>119</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="15.6">
+    <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1390,55 +1404,63 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="15.6">
+    <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>121</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="15.6">
+    <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C22" s="5"/>
+        <v>122</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="15.6">
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="C23" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="15.6">
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="11"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="15.6">
+    <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
@@ -1450,249 +1472,289 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="15.6">
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="15.6">
+    <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
+      <c r="D27" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="15.6">
+    <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.6">
+    <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.6">
+    <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="16"/>
       <c r="B30" s="4" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
+      <c r="D30" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="15.6">
+    <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
-        <v>129</v>
+        <v>72</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
+      <c r="D31" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.6">
+    <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="15.6">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>77</v>
+        <v>158</v>
       </c>
       <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
+      <c r="D33" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="15.6">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
-        <v>130</v>
+        <v>73</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
+      <c r="F34" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="15.6">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
+      <c r="F35" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="15.6">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
+      <c r="F36" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="15.6">
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
-        <v>131</v>
+        <v>160</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
+      <c r="F37" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="15.6">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
+      <c r="F38" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="15.6">
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
+      <c r="F39" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="15.6">
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
-        <v>132</v>
+        <v>159</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
+      <c r="F40" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="15.6">
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="16"/>
-      <c r="B41" s="7" t="s">
-        <v>88</v>
+      <c r="B41" s="4" t="s">
+        <v>161</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
+      <c r="F41" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="15.6">
+    <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
+      <c r="F42" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15.6">
+    <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
+      <c r="F43" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15.6">
+    <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
+      <c r="F44" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15.6">
+    <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
+      <c r="F45" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="15.6">
+    <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="16"/>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="7" t="s">
         <v>85</v>
       </c>
       <c r="C46" s="5"/>
@@ -1702,166 +1764,194 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="15.6">
+    <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="16"/>
       <c r="B47" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" s="5"/>
+        <v>79</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="15.6">
+    <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
+      <c r="E48" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="15.6">
+    <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="16"/>
       <c r="B49" s="4" t="s">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
+      <c r="E49" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="15.6">
+    <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="E50" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="15.6">
+    <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="15.6">
+    <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="16"/>
-      <c r="B52" s="7" t="s">
-        <v>137</v>
+      <c r="B52" s="4" t="s">
+        <v>83</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="15.6">
+    <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
-        <v>138</v>
+        <v>84</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
-      <c r="E53" s="5"/>
+      <c r="E53" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="15.6">
+    <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
-      <c r="E54" s="5"/>
+      <c r="E54" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" ht="15.6">
+    <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="15.6">
+    <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="16"/>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" ht="15.6">
+    <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="16"/>
       <c r="B57" s="4" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
+      <c r="F57" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="15.6">
+    <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="C58" s="5"/>
+        <v>26</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="15.6">
-      <c r="A59" s="16"/>
+    <row r="59" spans="1:8" ht="15.75">
+      <c r="A59" s="12" t="s">
+        <v>27</v>
+      </c>
       <c r="B59" s="4" t="s">
-        <v>144</v>
+        <v>28</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
+      <c r="F59" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" ht="15.6">
-      <c r="A60" s="16"/>
-      <c r="B60" s="4" t="s">
-        <v>145</v>
+    <row r="60" spans="1:8" ht="15.75">
+      <c r="A60" s="12"/>
+      <c r="B60" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -1870,27 +1960,27 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" ht="15.6">
-      <c r="A61" s="16"/>
+    <row r="61" spans="1:8" ht="15.75">
+      <c r="A61" s="12"/>
       <c r="B61" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
+      <c r="D61" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E61" s="5"/>
-      <c r="F61" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="F61" s="5"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" ht="15.6">
-      <c r="A62" s="16"/>
+    <row r="62" spans="1:8" ht="15.75">
+      <c r="A62" s="12"/>
       <c r="B62" s="4" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1898,26 +1988,24 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" ht="15.6">
-      <c r="A63" s="12" t="s">
-        <v>27</v>
-      </c>
+    <row r="63" spans="1:8" ht="15.75">
+      <c r="A63" s="12"/>
       <c r="B63" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
+      <c r="D63" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E63" s="5"/>
-      <c r="F63" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="F63" s="5"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="15.6">
+    <row r="64" spans="1:8" ht="15.75">
       <c r="A64" s="12"/>
       <c r="B64" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -1926,52 +2014,50 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" ht="15.6">
+    <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="12"/>
       <c r="B65" s="4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" ht="15.6">
+    <row r="66" spans="1:8" ht="15.75">
       <c r="A66" s="12"/>
       <c r="B66" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D66" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" ht="15.6">
+    <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="12"/>
-      <c r="B67" s="4" t="s">
-        <v>31</v>
+      <c r="B67" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="5" t="s">
-        <v>6</v>
-      </c>
+      <c r="D67" s="5"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" ht="15.6">
+    <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="12"/>
       <c r="B68" s="7" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -1980,38 +2066,36 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" ht="15.6">
+    <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="12"/>
-      <c r="B69" s="4" t="s">
-        <v>33</v>
+      <c r="B69" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="D69" s="5"/>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" ht="15.6">
+    <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="12"/>
       <c r="B70" s="4" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" ht="15.6">
+    <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="12"/>
       <c r="B71" s="7" t="s">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2020,58 +2104,66 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" ht="15.6">
+    <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="12"/>
-      <c r="B72" s="7" t="s">
-        <v>113</v>
+      <c r="B72" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" ht="15.6">
+    <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="12"/>
-      <c r="B73" s="7" t="s">
-        <v>71</v>
+      <c r="B73" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
+      <c r="D73" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" ht="15.6">
+    <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="12"/>
       <c r="B74" s="4" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
+      <c r="D74" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" ht="15.6">
+    <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="12"/>
       <c r="B75" s="4" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
+      <c r="D75" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" ht="15.6">
+    <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="12"/>
-      <c r="B76" s="4" t="s">
-        <v>108</v>
+      <c r="B76" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2080,130 +2172,166 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" ht="15.6">
+    <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="12"/>
       <c r="B77" s="4" t="s">
-        <v>146</v>
+        <v>103</v>
       </c>
       <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
+      <c r="D77" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" ht="15.6">
+    <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="12"/>
       <c r="B78" s="4" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="5"/>
+      <c r="D78" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" ht="15.6">
+    <row r="79" spans="1:8" ht="15.75">
       <c r="A79" s="12"/>
       <c r="B79" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="5"/>
+      <c r="D79" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" ht="15.6">
+    <row r="80" spans="1:8" ht="15.75">
       <c r="A80" s="12"/>
       <c r="B80" s="4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
+      <c r="D80" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" ht="15.6">
+    <row r="81" spans="1:8" ht="15.75">
       <c r="A81" s="12"/>
       <c r="B81" s="4" t="s">
-        <v>147</v>
+        <v>106</v>
       </c>
       <c r="C81" s="5"/>
-      <c r="D81" s="5"/>
-      <c r="E81" s="5"/>
+      <c r="D81" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" ht="15.6">
+    <row r="82" spans="1:8" ht="15.75">
       <c r="A82" s="12"/>
       <c r="B82" s="4" t="s">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="C82" s="5"/>
-      <c r="D82" s="5"/>
-      <c r="E82" s="5"/>
+      <c r="D82" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="15.6">
+    <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="12"/>
       <c r="B83" s="4" t="s">
-        <v>149</v>
+        <v>108</v>
       </c>
       <c r="C83" s="5"/>
-      <c r="D83" s="5"/>
-      <c r="E83" s="5"/>
+      <c r="D83" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" ht="15.6">
+    <row r="84" spans="1:8" ht="15.75">
       <c r="A84" s="12"/>
-      <c r="B84" s="7" t="s">
-        <v>89</v>
+      <c r="B84" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
+      <c r="D84" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" ht="15.6">
+    <row r="85" spans="1:8" ht="15.75">
       <c r="A85" s="12"/>
       <c r="B85" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C85" s="5"/>
+        <v>135</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" ht="15.6">
+    <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="12"/>
       <c r="B86" s="4" t="s">
-        <v>98</v>
+        <v>136</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
-      <c r="E86" s="5"/>
+      <c r="E86" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" ht="15.6">
+    <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="12"/>
-      <c r="B87" s="4" t="s">
-        <v>150</v>
+      <c r="B87" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -2212,388 +2340,468 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" ht="15.6">
+    <row r="88" spans="1:8" ht="15.75">
       <c r="A88" s="12"/>
       <c r="B88" s="4" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
+      <c r="D88" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" ht="15.6">
+    <row r="89" spans="1:8" ht="15.75">
       <c r="A89" s="12"/>
       <c r="B89" s="4" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="5"/>
+      <c r="D89" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E89" s="5"/>
-      <c r="F89" s="5"/>
+      <c r="F89" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" ht="15.6">
+    <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="12"/>
       <c r="B90" s="4" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="5"/>
+      <c r="D90" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E90" s="5"/>
-      <c r="F90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" ht="15.6">
+    <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="12"/>
       <c r="B91" s="4" t="s">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="C91" s="5"/>
-      <c r="D91" s="5"/>
+      <c r="D91" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
+      <c r="F91" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" ht="15.6">
+    <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="12"/>
       <c r="B92" s="4" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C92" s="5"/>
-      <c r="D92" s="5"/>
+      <c r="D92" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
+      <c r="F92" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" ht="15.6">
+    <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="12"/>
       <c r="B93" s="4" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
+      <c r="D93" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
+      <c r="F93" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" ht="15.6">
+    <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="12"/>
       <c r="B94" s="4" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="C94" s="5"/>
-      <c r="D94" s="5"/>
+      <c r="D94" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E94" s="5"/>
-      <c r="F94" s="5"/>
+      <c r="F94" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" ht="15.6">
+    <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="12"/>
       <c r="B95" s="4" t="s">
-        <v>103</v>
+        <v>151</v>
       </c>
       <c r="C95" s="5"/>
-      <c r="D95" s="5"/>
+      <c r="D95" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E95" s="5"/>
-      <c r="F95" s="5"/>
+      <c r="F95" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" ht="15.6">
+    <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="12"/>
       <c r="B96" s="4" t="s">
-        <v>153</v>
+        <v>97</v>
       </c>
       <c r="C96" s="5"/>
-      <c r="D96" s="5"/>
+      <c r="D96" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E96" s="5"/>
-      <c r="F96" s="5"/>
+      <c r="F96" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" ht="15.6">
+    <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="12"/>
       <c r="B97" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
+      <c r="D97" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
+      <c r="F97" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" ht="15.6">
+    <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="12"/>
       <c r="B98" s="4" t="s">
-        <v>105</v>
+        <v>139</v>
       </c>
       <c r="C98" s="5"/>
-      <c r="D98" s="5"/>
+      <c r="D98" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
+      <c r="F98" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" ht="15.6">
+    <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="12"/>
       <c r="B99" s="4" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C99" s="5"/>
-      <c r="D99" s="5"/>
+      <c r="D99" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E99" s="5"/>
-      <c r="F99" s="5"/>
+      <c r="F99" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" ht="15.6">
+    <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="12"/>
-      <c r="B100" s="7" t="s">
-        <v>114</v>
+      <c r="B100" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C100" s="5"/>
-      <c r="D100" s="5"/>
+      <c r="D100" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E100" s="5"/>
-      <c r="F100" s="5"/>
+      <c r="F100" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" ht="15.6">
+    <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="12"/>
       <c r="B101" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D101" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" ht="15.6">
+    <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="12"/>
       <c r="B102" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C102" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D102" s="5"/>
+        <v>140</v>
+      </c>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E102" s="5"/>
-      <c r="F102" s="5"/>
+      <c r="F102" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" ht="15.6">
+    <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="12"/>
       <c r="B103" s="4" t="s">
-        <v>93</v>
+        <v>153</v>
       </c>
       <c r="C103" s="5"/>
-      <c r="D103" s="5"/>
-      <c r="E103" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F103" s="5"/>
+      <c r="D103" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E103" s="5"/>
+      <c r="F103" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" ht="15.6">
+    <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="12"/>
       <c r="B104" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="C104" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D104" s="5"/>
+        <v>101</v>
+      </c>
+      <c r="C104" s="5"/>
+      <c r="D104" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
+      <c r="F104" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" ht="15.6">
+    <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="12"/>
       <c r="B105" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C105" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D105" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="C105" s="5"/>
+      <c r="D105" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
+      <c r="F105" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" ht="15.6">
+    <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="12"/>
       <c r="B106" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="C106" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D106" s="5"/>
+        <v>154</v>
+      </c>
+      <c r="C106" s="5"/>
+      <c r="D106" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E106" s="5"/>
-      <c r="F106" s="5"/>
+      <c r="F106" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" ht="15.6">
+    <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="12"/>
       <c r="B107" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C107" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D107" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
+      <c r="F107" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" ht="15.6">
+    <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="12"/>
-      <c r="B108" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C108" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B108" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" ht="15.6">
+    <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="12"/>
       <c r="B109" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C109" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D109" s="5"/>
-      <c r="E109" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="E109" s="5"/>
       <c r="F109" s="5"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" ht="15.6">
+    <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="12"/>
-      <c r="B110" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C110" s="5"/>
+      <c r="B110" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" ht="15.6">
+    <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="12"/>
       <c r="B111" s="4" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="5"/>
+      <c r="E111" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" ht="15.6">
+    <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="12"/>
-      <c r="B112" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C112" s="5"/>
+      <c r="B112" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="15.6">
+    <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="12"/>
       <c r="B113" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C113" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" ht="15.6">
+    <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="12"/>
       <c r="B114" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C114" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" ht="15.6">
+    <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="12"/>
       <c r="B115" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
       <c r="F115" s="5"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" ht="15.6">
+    <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="12"/>
       <c r="B116" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C116" s="5"/>
+        <v>113</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
       <c r="F116" s="5"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" ht="15.6">
+    <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="12"/>
       <c r="B117" s="4" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
-      <c r="E117" s="5"/>
+      <c r="E117" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" ht="15.6">
+    <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="12"/>
       <c r="B118" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -2602,102 +2810,108 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" ht="15.6">
+    <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="12"/>
       <c r="B119" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C119" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" ht="15.6">
+    <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="12"/>
-      <c r="B120" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B120" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" ht="15.6">
+    <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="12"/>
-      <c r="B121" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C121" s="5"/>
-      <c r="D121" s="5"/>
+      <c r="B121" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E121" s="5"/>
-      <c r="F121" s="5"/>
+      <c r="F121" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" ht="18" customHeight="1">
-      <c r="A122" s="17" t="s">
-        <v>155</v>
-      </c>
+    <row r="122" spans="1:8" ht="15.75">
+      <c r="A122" s="12"/>
       <c r="B122" s="4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="5"/>
+      <c r="D122" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" ht="15.6">
-      <c r="A123" s="17"/>
-      <c r="B123" s="7" t="s">
-        <v>44</v>
+    <row r="123" spans="1:8" ht="15.75">
+      <c r="A123" s="12"/>
+      <c r="B123" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C123" s="5"/>
-      <c r="D123" s="5"/>
+      <c r="D123" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" ht="15.6">
-      <c r="A124" s="17"/>
+    <row r="124" spans="1:8" ht="15.75">
+      <c r="A124" s="12"/>
       <c r="B124" s="4" t="s">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" ht="15.6">
-      <c r="A125" s="17"/>
+    <row r="125" spans="1:8" ht="15.75">
+      <c r="A125" s="12"/>
       <c r="B125" s="4" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" ht="15.6">
-      <c r="A126" s="17"/>
+    <row r="126" spans="1:8" ht="15.75">
+      <c r="A126" s="12"/>
       <c r="B126" s="7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
@@ -2706,34 +2920,38 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" ht="15.6">
-      <c r="A127" s="17"/>
+    <row r="127" spans="1:8" ht="15.75">
+      <c r="A127" s="12"/>
       <c r="B127" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C127" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" ht="15.6">
-      <c r="A128" s="17"/>
+    <row r="128" spans="1:8" ht="15.75">
+      <c r="A128" s="12"/>
       <c r="B128" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C128" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" ht="15.6">
-      <c r="A129" s="17"/>
+    <row r="129" spans="1:8" ht="15.75">
+      <c r="A129" s="12"/>
       <c r="B129" s="7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -2742,22 +2960,28 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" ht="15.6">
-      <c r="A130" s="17"/>
+    <row r="130" spans="1:8" ht="18" customHeight="1">
+      <c r="A130" s="17" t="s">
+        <v>142</v>
+      </c>
       <c r="B130" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C130" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
+      <c r="E130" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" ht="15.6">
+    <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -2766,34 +2990,38 @@
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" ht="15.6">
+    <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="17"/>
-      <c r="B132" s="7" t="s">
-        <v>112</v>
+      <c r="B132" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C132" s="5"/>
-      <c r="D132" s="5"/>
+      <c r="D132" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" ht="15.6">
+    <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="17"/>
-      <c r="B133" s="7" t="s">
-        <v>121</v>
+      <c r="B133" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C133" s="5"/>
-      <c r="D133" s="5"/>
+      <c r="D133" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" ht="15.6">
+    <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="17"/>
-      <c r="B134" s="4" t="s">
-        <v>122</v>
+      <c r="B134" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -2802,22 +3030,24 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" ht="15.6">
+    <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="17"/>
-      <c r="B135" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C135" s="5"/>
+      <c r="B135" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" ht="15.6">
+    <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="17"/>
-      <c r="B136" s="4" t="s">
-        <v>124</v>
+      <c r="B136" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -2826,10 +3056,10 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" ht="15.6">
+    <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="17"/>
-      <c r="B137" s="4" t="s">
-        <v>125</v>
+      <c r="B137" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -2838,10 +3068,10 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" ht="15.6">
+    <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="17"/>
-      <c r="B138" s="4" t="s">
-        <v>126</v>
+      <c r="B138" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
@@ -2850,10 +3080,10 @@
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" ht="15.6">
+    <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="17"/>
-      <c r="B139" s="4" t="s">
-        <v>127</v>
+      <c r="B139" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -2862,22 +3092,24 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" ht="15.6">
+    <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="17"/>
-      <c r="B140" s="7" t="s">
-        <v>71</v>
+      <c r="B140" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
-      <c r="F140" s="5"/>
+      <c r="F140" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" ht="15.6">
+    <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="17"/>
-      <c r="B141" s="4" t="s">
-        <v>106</v>
+      <c r="B141" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -2886,58 +3118,66 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" ht="15.6">
+    <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="4" t="s">
-        <v>107</v>
+        <v>145</v>
       </c>
       <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
+      <c r="D142" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" ht="15.6">
+    <row r="143" spans="1:8" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="4" t="s">
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="C143" s="5"/>
-      <c r="D143" s="5"/>
+      <c r="D143" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" ht="15.6">
+    <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C144" s="5"/>
-      <c r="D144" s="5"/>
+      <c r="D144" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" ht="15.6">
+    <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="4" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="5"/>
+      <c r="D145" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" ht="15.6">
+    <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="17"/>
-      <c r="B146" s="4" t="s">
-        <v>110</v>
+      <c r="B146" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
@@ -2946,130 +3186,150 @@
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" ht="15.6">
+    <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="4" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
-      <c r="E147" s="5"/>
+      <c r="E147" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F147" s="5"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" ht="15.6">
+    <row r="148" spans="1:8" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="4" t="s">
-        <v>147</v>
+        <v>104</v>
       </c>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
+      <c r="E148" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" ht="15.6">
+    <row r="149" spans="1:8" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="4" t="s">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" ht="15.6">
+    <row r="150" spans="1:8" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
-      <c r="E150" s="5"/>
+      <c r="E150" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" ht="15.6">
+    <row r="151" spans="1:8" ht="15.75">
       <c r="A151" s="17"/>
-      <c r="B151" s="7" t="s">
-        <v>89</v>
+      <c r="B151" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
-      <c r="E151" s="5"/>
+      <c r="E151" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" ht="15.6">
+    <row r="152" spans="1:8" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="4" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
-      <c r="E152" s="5"/>
+      <c r="E152" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" ht="15.6">
+    <row r="153" spans="1:8" ht="15.75">
       <c r="A153" s="17"/>
       <c r="B153" s="4" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
-      <c r="E153" s="5"/>
+      <c r="E153" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" ht="15.6">
+    <row r="154" spans="1:8" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
-      <c r="E154" s="5"/>
+      <c r="E154" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" ht="15.6">
+    <row r="155" spans="1:8" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="4" t="s">
-        <v>90</v>
+        <v>135</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
-      <c r="E155" s="5"/>
+      <c r="E155" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" ht="15.6">
+    <row r="156" spans="1:8" ht="15.75">
       <c r="A156" s="17"/>
       <c r="B156" s="4" t="s">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
-      <c r="E156" s="5"/>
+      <c r="E156" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" ht="15.6">
+    <row r="157" spans="1:8" ht="15.75">
       <c r="A157" s="17"/>
-      <c r="B157" s="4" t="s">
-        <v>151</v>
+      <c r="B157" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -3078,190 +3338,220 @@
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" ht="15.6">
+    <row r="158" spans="1:8" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="4" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
+      <c r="F158" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" ht="15.6">
+    <row r="159" spans="1:8" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="4" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
       <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
+      <c r="F159" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" ht="15.6">
+    <row r="160" spans="1:8" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="4" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
+      <c r="F160" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" ht="15.6">
+    <row r="161" spans="1:8" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
+      <c r="F161" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" ht="15.6">
+    <row r="162" spans="1:8" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
+      <c r="F162" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" ht="15.6">
+    <row r="163" spans="1:8" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="4" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
+      <c r="F163" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" ht="15.6">
+    <row r="164" spans="1:8" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
+      <c r="F164" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" ht="15.6">
+    <row r="165" spans="1:8" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
+      <c r="F165" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" ht="15.6">
+    <row r="166" spans="1:8" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="4" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
+      <c r="F166" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" ht="15.6">
+    <row r="167" spans="1:8" ht="15.75">
       <c r="A167" s="17"/>
-      <c r="B167" s="7" t="s">
-        <v>114</v>
+      <c r="B167" s="4" t="s">
+        <v>99</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
       <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
+      <c r="F167" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" ht="15.6">
+    <row r="168" spans="1:8" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
+      <c r="F168" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" ht="15.6">
+    <row r="169" spans="1:8" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="4" t="s">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
+      <c r="F169" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" ht="15.6">
+    <row r="170" spans="1:8" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="4" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
+      <c r="F170" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" ht="15.6">
+    <row r="171" spans="1:8" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
       <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
+      <c r="F171" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" ht="15.6">
+    <row r="172" spans="1:8" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="4" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
+      <c r="F172" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" ht="15.6">
+    <row r="173" spans="1:8" ht="15.75">
       <c r="A173" s="17"/>
-      <c r="B173" s="4" t="s">
-        <v>118</v>
+      <c r="B173" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -3270,10 +3560,10 @@
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
-    <row r="174" spans="1:8" ht="15.6">
+    <row r="174" spans="1:8" ht="15.75">
       <c r="A174" s="17"/>
-      <c r="B174" s="4" t="s">
-        <v>96</v>
+      <c r="B174" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -3282,63 +3572,69 @@
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" spans="1:8" ht="15.6">
+    <row r="175" spans="1:8" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C175" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C175" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" ht="15.6">
+    <row r="176" spans="1:8" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C176" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" ht="15.6">
+    <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="17"/>
-      <c r="B177" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C177" s="5"/>
+      <c r="B177" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" ht="15.6">
-      <c r="A178" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C178" s="5"/>
+    <row r="178" spans="1:8" ht="15.75">
+      <c r="A178" s="17"/>
+      <c r="B178" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:8" ht="15.6">
-      <c r="A179" s="12"/>
+    <row r="179" spans="1:8" ht="15.75">
+      <c r="A179" s="17"/>
       <c r="B179" s="4" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
@@ -3346,60 +3642,68 @@
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:8" ht="15.6">
-      <c r="A180" s="12"/>
+    <row r="180" spans="1:8" ht="15.75">
+      <c r="A180" s="17"/>
       <c r="B180" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C180" s="5"/>
+        <v>115</v>
+      </c>
+      <c r="C180" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" ht="15.6">
-      <c r="A181" s="12"/>
+    <row r="181" spans="1:8" ht="15.75">
+      <c r="A181" s="17"/>
       <c r="B181" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C181" s="5"/>
-      <c r="D181" s="5" t="s">
-        <v>69</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C181" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" ht="15.6">
-      <c r="A182" s="12"/>
-      <c r="B182" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C182" s="5"/>
+    <row r="182" spans="1:8" ht="15.75">
+      <c r="A182" s="17"/>
+      <c r="B182" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" spans="1:8" ht="15.6">
-      <c r="A183" s="12"/>
-      <c r="B183" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C183" s="5"/>
+    <row r="183" spans="1:8" ht="15.75">
+      <c r="A183" s="17"/>
+      <c r="B183" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C183" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" ht="15.6">
-      <c r="A184" s="12"/>
-      <c r="B184" s="4" t="s">
-        <v>71</v>
+    <row r="184" spans="1:8" ht="15.75">
+      <c r="A184" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C184" s="5"/>
       <c r="D184" s="5"/>
@@ -3408,74 +3712,160 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" ht="15.6">
+    <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="12"/>
       <c r="B185" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C185" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C185" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="189" spans="1:8">
-      <c r="A189" s="8" t="s">
+    <row r="186" spans="1:8" ht="15.75">
+      <c r="A186" s="12"/>
+      <c r="B186" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C186" s="5"/>
+      <c r="D186" s="5"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+    </row>
+    <row r="187" spans="1:8" ht="15.75">
+      <c r="A187" s="12"/>
+      <c r="B187" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="5"/>
+      <c r="D187" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E187" s="5"/>
+      <c r="F187" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G187" s="6"/>
+      <c r="H187" s="6"/>
+    </row>
+    <row r="188" spans="1:8" ht="15.75">
+      <c r="A188" s="12"/>
+      <c r="B188" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C188" s="5"/>
+      <c r="D188" s="5"/>
+      <c r="E188" s="5"/>
+      <c r="F188" s="5"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+    </row>
+    <row r="189" spans="1:8" ht="15.75">
+      <c r="A189" s="12"/>
+      <c r="B189" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C189" s="5"/>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" ht="15.75">
+      <c r="A190" s="12"/>
+      <c r="B190" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="191" spans="1:8" ht="15.75">
+      <c r="A191" s="12"/>
+      <c r="B191" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D191" s="5"/>
+      <c r="E191" s="5"/>
+      <c r="F191" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G191" s="6"/>
+      <c r="H191" s="6"/>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="75">
+      <c r="A196" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B189" s="9" t="s">
+      <c r="B196" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="30">
+      <c r="A197" s="10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="69">
-      <c r="A190" s="10" t="s">
+      <c r="B197" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="30">
+      <c r="A198" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B190" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="27.6">
-      <c r="A191" s="10" t="s">
+      <c r="B198" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="30">
+      <c r="A199" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B191" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="27.6">
-      <c r="A192" s="10" t="s">
+      <c r="B199" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="30">
+      <c r="A200" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B192" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" ht="27.6">
-      <c r="A193" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B193" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="27.6">
-      <c r="A194" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B194" s="11">
+      <c r="B200" s="11">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A178:A185"/>
+    <mergeCell ref="A184:A191"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A62"/>
-    <mergeCell ref="A63:A121"/>
-    <mergeCell ref="A122:A177"/>
+    <mergeCell ref="A13:A58"/>
+    <mergeCell ref="A59:A129"/>
+    <mergeCell ref="A130:A183"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="164">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -609,6 +609,9 @@
   </si>
   <si>
     <t xml:space="preserve">                &lt;Admin&gt; Delete Camera (UC_23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:H205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="B136" sqref="A136:XFD136"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1269,10 +1272,10 @@
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="C11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
         <v>67</v>
@@ -1285,10 +1288,10 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
@@ -3098,11 +3101,11 @@
         <v>156</v>
       </c>
       <c r="C140" s="5"/>
-      <c r="D140" s="5"/>
+      <c r="D140" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E140" s="5"/>
-      <c r="F140" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F140" s="5"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
@@ -3127,7 +3130,7 @@
       <c r="D142" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E142" s="5"/>
+      <c r="E142" s="11"/>
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -3141,7 +3144,7 @@
       <c r="D143" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E143" s="5"/>
+      <c r="E143" s="11"/>
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -3152,10 +3155,10 @@
         <v>148</v>
       </c>
       <c r="C144" s="5"/>
-      <c r="D144" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E144" s="5"/>
+      <c r="D144" s="11"/>
+      <c r="E144" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -3166,10 +3169,10 @@
         <v>149</v>
       </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E145" s="5"/>
+      <c r="D145" s="11"/>
+      <c r="E145" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -3383,21 +3386,21 @@
     <row r="161" spans="1:8" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="4" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="C161" s="5"/>
-      <c r="D161" s="5"/>
+      <c r="D161" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E161" s="5"/>
-      <c r="F161" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F161" s="5"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="4" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -3411,7 +3414,7 @@
     <row r="163" spans="1:8" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="4" t="s">
-        <v>138</v>
+        <v>96</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -3425,7 +3428,7 @@
     <row r="164" spans="1:8" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="4" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -3439,21 +3442,21 @@
     <row r="165" spans="1:8" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="4" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="C165" s="5"/>
-      <c r="D165" s="5"/>
+      <c r="D165" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E165" s="5"/>
-      <c r="F165" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F165" s="5"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="4" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -3467,7 +3470,7 @@
     <row r="167" spans="1:8" ht="15.75">
       <c r="A167" s="17"/>
       <c r="B167" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -3481,7 +3484,7 @@
     <row r="168" spans="1:8" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="4" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5"/>
@@ -3495,21 +3498,21 @@
     <row r="169" spans="1:8" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C169" s="5"/>
-      <c r="D169" s="5"/>
+      <c r="D169" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E169" s="5"/>
-      <c r="F169" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F169" s="5"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -3523,7 +3526,7 @@
     <row r="171" spans="1:8" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -3537,7 +3540,7 @@
     <row r="172" spans="1:8" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5"/>
@@ -3550,11 +3553,13 @@
     </row>
     <row r="173" spans="1:8" ht="15.75">
       <c r="A173" s="17"/>
-      <c r="B173" s="7" t="s">
-        <v>112</v>
+      <c r="B173" s="4" t="s">
+        <v>153</v>
       </c>
       <c r="C173" s="5"/>
-      <c r="D173" s="5"/>
+      <c r="D173" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E173" s="5"/>
       <c r="F173" s="5"/>
       <c r="G173" s="6"/>
@@ -3562,53 +3567,55 @@
     </row>
     <row r="174" spans="1:8" ht="15.75">
       <c r="A174" s="17"/>
-      <c r="B174" s="7" t="s">
-        <v>111</v>
+      <c r="B174" s="4" t="s">
+        <v>101</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
-      <c r="F174" s="5"/>
+      <c r="F174" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C175" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C175" s="5"/>
       <c r="D175" s="5"/>
       <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
+      <c r="F175" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
     <row r="176" spans="1:8" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C176" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C176" s="5"/>
       <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
+      <c r="F176" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C177" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D177" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C177" s="5"/>
+      <c r="D177" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E177" s="5"/>
       <c r="F177" s="5"/>
       <c r="G177" s="6"/>
@@ -3616,12 +3623,10 @@
     </row>
     <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="17"/>
-      <c r="B178" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="B178" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
@@ -3630,12 +3635,10 @@
     </row>
     <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="17"/>
-      <c r="B179" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C179" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="B179" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
@@ -3645,7 +3648,7 @@
     <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C180" s="5" t="s">
         <v>67</v>
@@ -3659,7 +3662,7 @@
     <row r="181" spans="1:8" ht="15.75">
       <c r="A181" s="17"/>
       <c r="B181" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C181" s="5" t="s">
         <v>67</v>
@@ -3673,7 +3676,7 @@
     <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="17"/>
       <c r="B182" s="4" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="C182" s="5" t="s">
         <v>67</v>
@@ -3687,7 +3690,7 @@
     <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="17"/>
       <c r="B183" s="4" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>67</v>
@@ -3699,13 +3702,13 @@
       <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:8" ht="15.75">
-      <c r="A184" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C184" s="5"/>
+      <c r="A184" s="17"/>
+      <c r="B184" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D184" s="5"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
@@ -3713,9 +3716,9 @@
       <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:8" ht="15.75">
-      <c r="A185" s="12"/>
+      <c r="A185" s="17"/>
       <c r="B185" s="4" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>67</v>
@@ -3727,11 +3730,13 @@
       <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" ht="15.75">
-      <c r="A186" s="12"/>
+      <c r="A186" s="17"/>
       <c r="B186" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C186" s="5"/>
+        <v>93</v>
+      </c>
+      <c r="C186" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -3739,27 +3744,27 @@
       <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8" ht="15.75">
-      <c r="A187" s="12"/>
+      <c r="A187" s="17"/>
       <c r="B187" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C187" s="5"/>
-      <c r="D187" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C187" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="F187" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F187" s="5"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:8" ht="15.75">
-      <c r="A188" s="12"/>
-      <c r="B188" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C188" s="5"/>
+      <c r="A188" s="17"/>
+      <c r="B188" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C188" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
@@ -3767,9 +3772,11 @@
       <c r="H188" s="6"/>
     </row>
     <row r="189" spans="1:8" ht="15.75">
-      <c r="A189" s="12"/>
+      <c r="A189" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="B189" s="7" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="C189" s="5"/>
       <c r="D189" s="5"/>
@@ -3781,91 +3788,157 @@
     <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="12"/>
       <c r="B190" s="4" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D190" s="5"/>
       <c r="E190" s="5"/>
-      <c r="F190" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F190" s="5"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
     <row r="191" spans="1:8" ht="15.75">
       <c r="A191" s="12"/>
       <c r="B191" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C191" s="5"/>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
-      <c r="F191" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F191" s="5"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
     </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="8" t="s">
+    <row r="192" spans="1:8" ht="15.75">
+      <c r="A192" s="12"/>
+      <c r="B192" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C192" s="5"/>
+      <c r="D192" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E192" s="5"/>
+      <c r="F192" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+    </row>
+    <row r="193" spans="1:8" ht="15.75">
+      <c r="A193" s="12"/>
+      <c r="B193" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C193" s="5"/>
+      <c r="D193" s="5"/>
+      <c r="E193" s="5"/>
+      <c r="F193" s="5"/>
+      <c r="G193" s="6"/>
+      <c r="H193" s="6"/>
+    </row>
+    <row r="194" spans="1:8" ht="15.75">
+      <c r="A194" s="12"/>
+      <c r="B194" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C194" s="5"/>
+      <c r="D194" s="5"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="6"/>
+      <c r="H194" s="6"/>
+    </row>
+    <row r="195" spans="1:8" ht="15.75">
+      <c r="A195" s="12"/>
+      <c r="B195" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C195" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D195" s="5"/>
+      <c r="E195" s="5"/>
+      <c r="F195" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G195" s="6"/>
+      <c r="H195" s="6"/>
+    </row>
+    <row r="196" spans="1:8" ht="15.75">
+      <c r="A196" s="12"/>
+      <c r="B196" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C196" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D196" s="5"/>
+      <c r="E196" s="5"/>
+      <c r="F196" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G196" s="6"/>
+      <c r="H196" s="6"/>
+    </row>
+    <row r="200" spans="1:8">
+      <c r="A200" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B200" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="75">
-      <c r="A196" s="10" t="s">
+    <row r="201" spans="1:8" ht="75">
+      <c r="A201" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B196" s="9">
+      <c r="B201" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="30">
-      <c r="A197" s="10" t="s">
+    <row r="202" spans="1:8" ht="30">
+      <c r="A202" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B197" s="11">
+      <c r="B202" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="30">
-      <c r="A198" s="10" t="s">
+    <row r="203" spans="1:8" ht="30">
+      <c r="A203" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B198" s="11">
+      <c r="B203" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="30">
-      <c r="A199" s="10" t="s">
+    <row r="204" spans="1:8" ht="30">
+      <c r="A204" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B199" s="11">
+      <c r="B204" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="30">
-      <c r="A200" s="10" t="s">
+    <row r="205" spans="1:8" ht="30">
+      <c r="A205" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B200" s="11">
+      <c r="B205" s="11">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A184:A191"/>
+    <mergeCell ref="A189:A196"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A58"/>
     <mergeCell ref="A59:A129"/>
-    <mergeCell ref="A130:A183"/>
+    <mergeCell ref="A130:A188"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D221921-112F-42D4-8B14-361A1595C96D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="167">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -613,16 +614,28 @@
   <si>
     <t xml:space="preserve">                &lt;Admin&gt; Edit Camera</t>
   </si>
+  <si>
+    <t xml:space="preserve">        Data Dictionary</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Draw Heatmap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Faster RCNN</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -635,7 +648,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -773,7 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -801,6 +814,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -819,7 +835,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1"/>
+    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1096,20 +1112,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H205"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="114">
+    <row r="1" spans="1:8" ht="105.6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1135,8 +1151,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1151,8 +1167,8 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3" s="13"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A3" s="14"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1165,8 +1181,8 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="14"/>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A4" s="15"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1179,8 +1195,8 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5" s="14"/>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A5" s="15"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1193,8 +1209,8 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6" s="14"/>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A6" s="15"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
@@ -1207,8 +1223,8 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
-      <c r="A7" s="14"/>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A7" s="15"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
@@ -1221,8 +1237,8 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
-      <c r="A8" s="14"/>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A8" s="15"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
@@ -1235,8 +1251,8 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
-      <c r="A9" s="15" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A9" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -1253,8 +1269,8 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
-      <c r="A10" s="15"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" s="16"/>
       <c r="B10" s="4" t="s">
         <v>68</v>
       </c>
@@ -1267,8 +1283,8 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A11" s="16"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
@@ -1283,8 +1299,8 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
-      <c r="A12" s="13"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" s="14"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
@@ -1297,8 +1313,8 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1315,8 +1331,8 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
-      <c r="A14" s="16"/>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14" s="17"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1327,8 +1343,8 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
-      <c r="A15" s="16"/>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15" s="17"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
@@ -1341,8 +1357,8 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
-      <c r="A16" s="16"/>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16" s="17"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
@@ -1357,8 +1373,8 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
-      <c r="A17" s="16"/>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17" s="17"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1369,8 +1385,8 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
-      <c r="A18" s="16"/>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A18" s="17"/>
       <c r="B18" s="7" t="s">
         <v>118</v>
       </c>
@@ -1381,8 +1397,8 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
-      <c r="A19" s="16"/>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A19" s="17"/>
       <c r="B19" s="4" t="s">
         <v>119</v>
       </c>
@@ -1395,8 +1411,8 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
-      <c r="A20" s="16"/>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A20" s="17"/>
       <c r="B20" s="7" t="s">
         <v>120</v>
       </c>
@@ -1407,8 +1423,8 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
-      <c r="A21" s="16"/>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A21" s="17"/>
       <c r="B21" s="4" t="s">
         <v>121</v>
       </c>
@@ -1421,8 +1437,8 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
-      <c r="A22" s="16"/>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A22" s="17"/>
       <c r="B22" s="4" t="s">
         <v>122</v>
       </c>
@@ -1435,8 +1451,8 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
-      <c r="A23" s="16"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A23" s="17"/>
       <c r="B23" s="4" t="s">
         <v>123</v>
       </c>
@@ -1449,8 +1465,8 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
-      <c r="A24" s="16"/>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A24" s="17"/>
       <c r="B24" s="4" t="s">
         <v>124</v>
       </c>
@@ -1463,8 +1479,8 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
-      <c r="A25" s="16"/>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A25" s="17"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1475,8 +1491,8 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
-      <c r="A26" s="16"/>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A26" s="17"/>
       <c r="B26" s="4" t="s">
         <v>70</v>
       </c>
@@ -1489,8 +1505,8 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
-      <c r="A27" s="16"/>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A27" s="17"/>
       <c r="B27" s="4" t="s">
         <v>71</v>
       </c>
@@ -1503,8 +1519,8 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
-      <c r="A28" s="16"/>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A28" s="17"/>
       <c r="B28" s="4" t="s">
         <v>125</v>
       </c>
@@ -1517,8 +1533,8 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
-      <c r="A29" s="16"/>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A29" s="17"/>
       <c r="B29" s="4" t="s">
         <v>157</v>
       </c>
@@ -1531,8 +1547,8 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
-      <c r="A30" s="16"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A30" s="17"/>
       <c r="B30" s="4" t="s">
         <v>144</v>
       </c>
@@ -1545,8 +1561,8 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75">
-      <c r="A31" s="16"/>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A31" s="17"/>
       <c r="B31" s="4" t="s">
         <v>72</v>
       </c>
@@ -1559,8 +1575,8 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
-      <c r="A32" s="16"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A32" s="17"/>
       <c r="B32" s="4" t="s">
         <v>126</v>
       </c>
@@ -1573,8 +1589,8 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75">
-      <c r="A33" s="16"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A33" s="17"/>
       <c r="B33" s="4" t="s">
         <v>158</v>
       </c>
@@ -1587,8 +1603,8 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
-      <c r="A34" s="16"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A34" s="17"/>
       <c r="B34" s="4" t="s">
         <v>73</v>
       </c>
@@ -1601,8 +1617,8 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
-      <c r="A35" s="16"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A35" s="17"/>
       <c r="B35" s="4" t="s">
         <v>74</v>
       </c>
@@ -1615,8 +1631,8 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
-      <c r="A36" s="16"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A36" s="17"/>
       <c r="B36" s="4" t="s">
         <v>127</v>
       </c>
@@ -1629,8 +1645,8 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
-      <c r="A37" s="16"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A37" s="17"/>
       <c r="B37" s="4" t="s">
         <v>160</v>
       </c>
@@ -1643,8 +1659,8 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
-      <c r="A38" s="16"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A38" s="17"/>
       <c r="B38" s="4" t="s">
         <v>75</v>
       </c>
@@ -1657,8 +1673,8 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75">
-      <c r="A39" s="16"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A39" s="17"/>
       <c r="B39" s="4" t="s">
         <v>76</v>
       </c>
@@ -1671,8 +1687,8 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75">
-      <c r="A40" s="16"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A40" s="17"/>
       <c r="B40" s="4" t="s">
         <v>159</v>
       </c>
@@ -1685,8 +1701,8 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75">
-      <c r="A41" s="16"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A41" s="17"/>
       <c r="B41" s="4" t="s">
         <v>161</v>
       </c>
@@ -1699,8 +1715,8 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75">
-      <c r="A42" s="16"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" s="17"/>
       <c r="B42" s="4" t="s">
         <v>77</v>
       </c>
@@ -1713,8 +1729,8 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75">
-      <c r="A43" s="16"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A43" s="17"/>
       <c r="B43" s="4" t="s">
         <v>78</v>
       </c>
@@ -1727,8 +1743,8 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75">
-      <c r="A44" s="16"/>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A44" s="17"/>
       <c r="B44" s="4" t="s">
         <v>128</v>
       </c>
@@ -1741,8 +1757,8 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75">
-      <c r="A45" s="16"/>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A45" s="17"/>
       <c r="B45" s="4" t="s">
         <v>162</v>
       </c>
@@ -1755,8 +1771,8 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75">
-      <c r="A46" s="16"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A46" s="17"/>
       <c r="B46" s="7" t="s">
         <v>85</v>
       </c>
@@ -1767,8 +1783,8 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75">
-      <c r="A47" s="16"/>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A47" s="17"/>
       <c r="B47" s="4" t="s">
         <v>79</v>
       </c>
@@ -1781,8 +1797,8 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75">
-      <c r="A48" s="16"/>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A48" s="17"/>
       <c r="B48" s="4" t="s">
         <v>80</v>
       </c>
@@ -1795,8 +1811,8 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75">
-      <c r="A49" s="16"/>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A49" s="17"/>
       <c r="B49" s="4" t="s">
         <v>81</v>
       </c>
@@ -1809,8 +1825,8 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75">
-      <c r="A50" s="16"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A50" s="17"/>
       <c r="B50" s="4" t="s">
         <v>129</v>
       </c>
@@ -1823,8 +1839,8 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75">
-      <c r="A51" s="16"/>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A51" s="17"/>
       <c r="B51" s="4" t="s">
         <v>82</v>
       </c>
@@ -1837,8 +1853,8 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75">
-      <c r="A52" s="16"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A52" s="17"/>
       <c r="B52" s="4" t="s">
         <v>83</v>
       </c>
@@ -1851,8 +1867,8 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75">
-      <c r="A53" s="16"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A53" s="17"/>
       <c r="B53" s="4" t="s">
         <v>84</v>
       </c>
@@ -1865,8 +1881,8 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75">
-      <c r="A54" s="16"/>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A54" s="17"/>
       <c r="B54" s="4" t="s">
         <v>130</v>
       </c>
@@ -1879,8 +1895,8 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75">
-      <c r="A55" s="16"/>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A55" s="17"/>
       <c r="B55" s="4" t="s">
         <v>131</v>
       </c>
@@ -1893,8 +1909,8 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75">
-      <c r="A56" s="16"/>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A56" s="17"/>
       <c r="B56" s="4" t="s">
         <v>132</v>
       </c>
@@ -1907,8 +1923,8 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75">
-      <c r="A57" s="16"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A57" s="17"/>
       <c r="B57" s="4" t="s">
         <v>25</v>
       </c>
@@ -1921,8 +1937,8 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75">
-      <c r="A58" s="16"/>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A58" s="17"/>
       <c r="B58" s="4" t="s">
         <v>26</v>
       </c>
@@ -1935,8 +1951,8 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="15.75">
-      <c r="A59" s="12" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A59" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1951,8 +1967,8 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75">
-      <c r="A60" s="12"/>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A60" s="13"/>
       <c r="B60" s="7" t="s">
         <v>29</v>
       </c>
@@ -1963,8 +1979,8 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75">
-      <c r="A61" s="12"/>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A61" s="13"/>
       <c r="B61" s="4" t="s">
         <v>30</v>
       </c>
@@ -1977,8 +1993,8 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75">
-      <c r="A62" s="12"/>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A62" s="13"/>
       <c r="B62" s="4" t="s">
         <v>114</v>
       </c>
@@ -1991,8 +2007,8 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75">
-      <c r="A63" s="12"/>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A63" s="13"/>
       <c r="B63" s="4" t="s">
         <v>31</v>
       </c>
@@ -2005,8 +2021,8 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75">
-      <c r="A64" s="12"/>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A64" s="13"/>
       <c r="B64" s="7" t="s">
         <v>32</v>
       </c>
@@ -2017,8 +2033,8 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75">
-      <c r="A65" s="12"/>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A65" s="13"/>
       <c r="B65" s="4" t="s">
         <v>33</v>
       </c>
@@ -2031,8 +2047,8 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75">
-      <c r="A66" s="12"/>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A66" s="13"/>
       <c r="B66" s="4" t="s">
         <v>34</v>
       </c>
@@ -2045,8 +2061,8 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75">
-      <c r="A67" s="12"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A67" s="13"/>
       <c r="B67" s="7" t="s">
         <v>35</v>
       </c>
@@ -2057,8 +2073,8 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75">
-      <c r="A68" s="12"/>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A68" s="13"/>
       <c r="B68" s="7" t="s">
         <v>110</v>
       </c>
@@ -2069,8 +2085,8 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75">
-      <c r="A69" s="12"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A69" s="13"/>
       <c r="B69" s="7" t="s">
         <v>118</v>
       </c>
@@ -2081,8 +2097,8 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75">
-      <c r="A70" s="12"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A70" s="13"/>
       <c r="B70" s="4" t="s">
         <v>146</v>
       </c>
@@ -2095,8 +2111,8 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75">
-      <c r="A71" s="12"/>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A71" s="13"/>
       <c r="B71" s="7" t="s">
         <v>120</v>
       </c>
@@ -2107,8 +2123,8 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75">
-      <c r="A72" s="12"/>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A72" s="13"/>
       <c r="B72" s="4" t="s">
         <v>145</v>
       </c>
@@ -2121,8 +2137,8 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75">
-      <c r="A73" s="12"/>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A73" s="13"/>
       <c r="B73" s="4" t="s">
         <v>147</v>
       </c>
@@ -2135,8 +2151,8 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75">
-      <c r="A74" s="12"/>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A74" s="13"/>
       <c r="B74" s="4" t="s">
         <v>148</v>
       </c>
@@ -2149,8 +2165,8 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75">
-      <c r="A75" s="12"/>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A75" s="13"/>
       <c r="B75" s="4" t="s">
         <v>149</v>
       </c>
@@ -2163,8 +2179,8 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75">
-      <c r="A76" s="12"/>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A76" s="13"/>
       <c r="B76" s="7" t="s">
         <v>69</v>
       </c>
@@ -2175,8 +2191,8 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75">
-      <c r="A77" s="12"/>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A77" s="13"/>
       <c r="B77" s="4" t="s">
         <v>103</v>
       </c>
@@ -2191,8 +2207,8 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75">
-      <c r="A78" s="12"/>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A78" s="13"/>
       <c r="B78" s="4" t="s">
         <v>104</v>
       </c>
@@ -2207,8 +2223,8 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75">
-      <c r="A79" s="12"/>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A79" s="13"/>
       <c r="B79" s="4" t="s">
         <v>105</v>
       </c>
@@ -2223,8 +2239,8 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75">
-      <c r="A80" s="12"/>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A80" s="13"/>
       <c r="B80" s="4" t="s">
         <v>133</v>
       </c>
@@ -2239,8 +2255,8 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75">
-      <c r="A81" s="12"/>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A81" s="13"/>
       <c r="B81" s="4" t="s">
         <v>106</v>
       </c>
@@ -2255,8 +2271,8 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75">
-      <c r="A82" s="12"/>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A82" s="13"/>
       <c r="B82" s="4" t="s">
         <v>107</v>
       </c>
@@ -2271,8 +2287,8 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75">
-      <c r="A83" s="12"/>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A83" s="13"/>
       <c r="B83" s="4" t="s">
         <v>108</v>
       </c>
@@ -2287,8 +2303,8 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75">
-      <c r="A84" s="12"/>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A84" s="13"/>
       <c r="B84" s="4" t="s">
         <v>134</v>
       </c>
@@ -2303,8 +2319,8 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75">
-      <c r="A85" s="12"/>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A85" s="13"/>
       <c r="B85" s="4" t="s">
         <v>135</v>
       </c>
@@ -2317,8 +2333,8 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75">
-      <c r="A86" s="12"/>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A86" s="13"/>
       <c r="B86" s="4" t="s">
         <v>136</v>
       </c>
@@ -2331,8 +2347,8 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75">
-      <c r="A87" s="12"/>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A87" s="13"/>
       <c r="B87" s="7" t="s">
         <v>86</v>
       </c>
@@ -2343,8 +2359,8 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75">
-      <c r="A88" s="12"/>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A88" s="13"/>
       <c r="B88" s="4" t="s">
         <v>143</v>
       </c>
@@ -2359,8 +2375,8 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75">
-      <c r="A89" s="12"/>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A89" s="13"/>
       <c r="B89" s="4" t="s">
         <v>95</v>
       </c>
@@ -2375,8 +2391,8 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75">
-      <c r="A90" s="12"/>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A90" s="13"/>
       <c r="B90" s="4" t="s">
         <v>137</v>
       </c>
@@ -2391,8 +2407,8 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75">
-      <c r="A91" s="12"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A91" s="13"/>
       <c r="B91" s="4" t="s">
         <v>150</v>
       </c>
@@ -2407,8 +2423,8 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75">
-      <c r="A92" s="12"/>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A92" s="13"/>
       <c r="B92" s="4" t="s">
         <v>87</v>
       </c>
@@ -2423,8 +2439,8 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75">
-      <c r="A93" s="12"/>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A93" s="13"/>
       <c r="B93" s="4" t="s">
         <v>96</v>
       </c>
@@ -2439,8 +2455,8 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75">
-      <c r="A94" s="12"/>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A94" s="13"/>
       <c r="B94" s="4" t="s">
         <v>138</v>
       </c>
@@ -2455,8 +2471,8 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75">
-      <c r="A95" s="12"/>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A95" s="13"/>
       <c r="B95" s="4" t="s">
         <v>151</v>
       </c>
@@ -2471,8 +2487,8 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75">
-      <c r="A96" s="12"/>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A96" s="13"/>
       <c r="B96" s="4" t="s">
         <v>97</v>
       </c>
@@ -2487,8 +2503,8 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75">
-      <c r="A97" s="12"/>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A97" s="13"/>
       <c r="B97" s="4" t="s">
         <v>98</v>
       </c>
@@ -2503,8 +2519,8 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75">
-      <c r="A98" s="12"/>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A98" s="13"/>
       <c r="B98" s="4" t="s">
         <v>139</v>
       </c>
@@ -2519,8 +2535,8 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75">
-      <c r="A99" s="12"/>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A99" s="13"/>
       <c r="B99" s="4" t="s">
         <v>152</v>
       </c>
@@ -2535,8 +2551,8 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75">
-      <c r="A100" s="12"/>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A100" s="13"/>
       <c r="B100" s="4" t="s">
         <v>99</v>
       </c>
@@ -2551,8 +2567,8 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75">
-      <c r="A101" s="12"/>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A101" s="13"/>
       <c r="B101" s="4" t="s">
         <v>100</v>
       </c>
@@ -2567,8 +2583,8 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75">
-      <c r="A102" s="12"/>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A102" s="13"/>
       <c r="B102" s="4" t="s">
         <v>140</v>
       </c>
@@ -2583,8 +2599,8 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75">
-      <c r="A103" s="12"/>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A103" s="13"/>
       <c r="B103" s="4" t="s">
         <v>153</v>
       </c>
@@ -2599,8 +2615,8 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75">
-      <c r="A104" s="12"/>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A104" s="13"/>
       <c r="B104" s="4" t="s">
         <v>101</v>
       </c>
@@ -2615,8 +2631,8 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75">
-      <c r="A105" s="12"/>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A105" s="13"/>
       <c r="B105" s="4" t="s">
         <v>102</v>
       </c>
@@ -2631,8 +2647,8 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75">
-      <c r="A106" s="12"/>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A106" s="13"/>
       <c r="B106" s="4" t="s">
         <v>154</v>
       </c>
@@ -2647,8 +2663,8 @@
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75">
-      <c r="A107" s="12"/>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A107" s="13"/>
       <c r="B107" s="4" t="s">
         <v>155</v>
       </c>
@@ -2663,8 +2679,8 @@
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75">
-      <c r="A108" s="12"/>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A108" s="13"/>
       <c r="B108" s="7" t="s">
         <v>111</v>
       </c>
@@ -2675,8 +2691,8 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75">
-      <c r="A109" s="12"/>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A109" s="13"/>
       <c r="B109" s="4" t="s">
         <v>88</v>
       </c>
@@ -2689,8 +2705,8 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75">
-      <c r="A110" s="12"/>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A110" s="13"/>
       <c r="B110" s="4" t="s">
         <v>89</v>
       </c>
@@ -2703,8 +2719,8 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75">
-      <c r="A111" s="12"/>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A111" s="13"/>
       <c r="B111" s="4" t="s">
         <v>90</v>
       </c>
@@ -2717,8 +2733,8 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75">
-      <c r="A112" s="12"/>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A112" s="13"/>
       <c r="B112" s="4" t="s">
         <v>91</v>
       </c>
@@ -2731,8 +2747,8 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75">
-      <c r="A113" s="12"/>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A113" s="13"/>
       <c r="B113" s="4" t="s">
         <v>92</v>
       </c>
@@ -2745,8 +2761,8 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75">
-      <c r="A114" s="12"/>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A114" s="13"/>
       <c r="B114" s="4" t="s">
         <v>115</v>
       </c>
@@ -2759,8 +2775,8 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75">
-      <c r="A115" s="12"/>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A115" s="13"/>
       <c r="B115" s="4" t="s">
         <v>93</v>
       </c>
@@ -2773,8 +2789,8 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75">
-      <c r="A116" s="12"/>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A116" s="13"/>
       <c r="B116" s="4" t="s">
         <v>113</v>
       </c>
@@ -2787,8 +2803,8 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75">
-      <c r="A117" s="12"/>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A117" s="13"/>
       <c r="B117" s="4" t="s">
         <v>117</v>
       </c>
@@ -2801,8 +2817,8 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75">
-      <c r="A118" s="12"/>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A118" s="13"/>
       <c r="B118" s="7" t="s">
         <v>37</v>
       </c>
@@ -2813,8 +2829,8 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75">
-      <c r="A119" s="12"/>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A119" s="13"/>
       <c r="B119" s="4" t="s">
         <v>38</v>
       </c>
@@ -2825,8 +2841,8 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75">
-      <c r="A120" s="12"/>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A120" s="13"/>
       <c r="B120" s="7" t="s">
         <v>116</v>
       </c>
@@ -2837,8 +2853,8 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" ht="15.75">
-      <c r="A121" s="12"/>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A121" s="13"/>
       <c r="B121" s="4" t="s">
         <v>39</v>
       </c>
@@ -2855,8 +2871,8 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" ht="15.75">
-      <c r="A122" s="12"/>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A122" s="13"/>
       <c r="B122" s="4" t="s">
         <v>22</v>
       </c>
@@ -2869,8 +2885,8 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" ht="15.75">
-      <c r="A123" s="12"/>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A123" s="13"/>
       <c r="B123" s="4" t="s">
         <v>23</v>
       </c>
@@ -2883,8 +2899,8 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" ht="15.75">
-      <c r="A124" s="12"/>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A124" s="13"/>
       <c r="B124" s="4" t="s">
         <v>69</v>
       </c>
@@ -2897,8 +2913,8 @@
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" ht="15.75">
-      <c r="A125" s="12"/>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A125" s="13"/>
       <c r="B125" s="4" t="s">
         <v>24</v>
       </c>
@@ -2911,8 +2927,8 @@
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75">
-      <c r="A126" s="12"/>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A126" s="13"/>
       <c r="B126" s="7" t="s">
         <v>40</v>
       </c>
@@ -2923,8 +2939,8 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75">
-      <c r="A127" s="12"/>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A127" s="13"/>
       <c r="B127" s="4" t="s">
         <v>41</v>
       </c>
@@ -2937,10 +2953,10 @@
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75">
-      <c r="A128" s="12"/>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A128" s="13"/>
       <c r="B128" s="4" t="s">
-        <v>42</v>
+        <v>164</v>
       </c>
       <c r="C128" s="5" t="s">
         <v>67</v>
@@ -2951,8 +2967,8 @@
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" ht="15.75">
-      <c r="A129" s="12"/>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A129" s="13"/>
       <c r="B129" s="7" t="s">
         <v>43</v>
       </c>
@@ -2963,68 +2979,66 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" ht="18" customHeight="1">
-      <c r="A130" s="17" t="s">
-        <v>142</v>
-      </c>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A130" s="12"/>
       <c r="B130" s="4" t="s">
-        <v>7</v>
+        <v>166</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>67</v>
       </c>
       <c r="D130" s="5"/>
-      <c r="E130" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E130" s="5"/>
       <c r="F130" s="5"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" ht="15.75">
-      <c r="A131" s="17"/>
-      <c r="B131" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C131" s="5"/>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A131" s="12"/>
+      <c r="B131" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" ht="15.75">
-      <c r="A132" s="17"/>
-      <c r="B132" s="4" t="s">
-        <v>45</v>
-      </c>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132" s="12"/>
+      <c r="B132" s="7"/>
       <c r="C132" s="5"/>
-      <c r="D132" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D132" s="5"/>
       <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" ht="15.75">
-      <c r="A133" s="17"/>
+    <row r="133" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A133" s="18" t="s">
+        <v>142</v>
+      </c>
       <c r="B133" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C133" s="5"/>
-      <c r="D133" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E133" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D133" s="5"/>
+      <c r="E133" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" ht="15.75">
-      <c r="A134" s="17"/>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A134" s="18"/>
       <c r="B134" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -3033,36 +3047,38 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" ht="15.75">
-      <c r="A135" s="17"/>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A135" s="18"/>
       <c r="B135" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C135" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D135" s="5"/>
+        <v>45</v>
+      </c>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" ht="15.75">
-      <c r="A136" s="17"/>
-      <c r="B136" s="7" t="s">
-        <v>48</v>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A136" s="18"/>
+      <c r="B136" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C136" s="5"/>
-      <c r="D136" s="5"/>
+      <c r="D136" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" ht="15.75">
-      <c r="A137" s="17"/>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A137" s="18"/>
       <c r="B137" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
@@ -3071,22 +3087,24 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" ht="15.75">
-      <c r="A138" s="17"/>
-      <c r="B138" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C138" s="5"/>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A138" s="18"/>
+      <c r="B138" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" ht="15.75">
-      <c r="A139" s="17"/>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A139" s="18"/>
       <c r="B139" s="7" t="s">
-        <v>118</v>
+        <v>48</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -3095,24 +3113,22 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" ht="15.75">
-      <c r="A140" s="17"/>
-      <c r="B140" s="4" t="s">
-        <v>156</v>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A140" s="18"/>
+      <c r="B140" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C140" s="5"/>
-      <c r="D140" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" ht="15.75">
-      <c r="A141" s="17"/>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A141" s="18"/>
       <c r="B141" s="7" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -3121,81 +3137,79 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" ht="15.75">
-      <c r="A142" s="17"/>
-      <c r="B142" s="4" t="s">
-        <v>145</v>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A142" s="18"/>
+      <c r="B142" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C142" s="5"/>
-      <c r="D142" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E142" s="11"/>
+      <c r="D142" s="5"/>
+      <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" ht="15.75">
-      <c r="A143" s="17"/>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A143" s="18"/>
       <c r="B143" s="4" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E143" s="11"/>
+      <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" ht="15.75">
-      <c r="A144" s="17"/>
-      <c r="B144" s="4" t="s">
-        <v>148</v>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A144" s="18"/>
+      <c r="B144" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="C144" s="5"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D144" s="5"/>
+      <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" ht="15.75">
-      <c r="A145" s="17"/>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A145" s="18"/>
       <c r="B145" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C145" s="5"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D145" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E145" s="11"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" ht="15.75">
-      <c r="A146" s="17"/>
-      <c r="B146" s="7" t="s">
-        <v>69</v>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A146" s="18"/>
+      <c r="B146" s="4" t="s">
+        <v>147</v>
       </c>
       <c r="C146" s="5"/>
-      <c r="D146" s="5"/>
-      <c r="E146" s="5"/>
+      <c r="D146" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E146" s="11"/>
       <c r="F146" s="5"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" ht="15.75">
-      <c r="A147" s="17"/>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A147" s="18"/>
       <c r="B147" s="4" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="C147" s="5"/>
-      <c r="D147" s="5"/>
+      <c r="D147" s="11"/>
       <c r="E147" s="5" t="s">
         <v>67</v>
       </c>
@@ -3203,13 +3217,13 @@
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" ht="15.75">
-      <c r="A148" s="17"/>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A148" s="18"/>
       <c r="B148" s="4" t="s">
-        <v>104</v>
+        <v>149</v>
       </c>
       <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
+      <c r="D148" s="11"/>
       <c r="E148" s="5" t="s">
         <v>67</v>
       </c>
@@ -3217,24 +3231,22 @@
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" ht="15.75">
-      <c r="A149" s="17"/>
-      <c r="B149" s="4" t="s">
-        <v>105</v>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A149" s="18"/>
+      <c r="B149" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
-      <c r="E149" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E149" s="5"/>
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" ht="15.75">
-      <c r="A150" s="17"/>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A150" s="18"/>
       <c r="B150" s="4" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -3245,10 +3257,10 @@
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" ht="15.75">
-      <c r="A151" s="17"/>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A151" s="18"/>
       <c r="B151" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -3259,10 +3271,10 @@
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" ht="15.75">
-      <c r="A152" s="17"/>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A152" s="18"/>
       <c r="B152" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -3273,10 +3285,10 @@
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" ht="15.75">
-      <c r="A153" s="17"/>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A153" s="18"/>
       <c r="B153" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -3287,10 +3299,10 @@
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" ht="15.75">
-      <c r="A154" s="17"/>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A154" s="18"/>
       <c r="B154" s="4" t="s">
-        <v>134</v>
+        <v>106</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -3301,10 +3313,10 @@
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" ht="15.75">
-      <c r="A155" s="17"/>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A155" s="18"/>
       <c r="B155" s="4" t="s">
-        <v>135</v>
+        <v>107</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -3315,10 +3327,10 @@
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" ht="15.75">
-      <c r="A156" s="17"/>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A156" s="18"/>
       <c r="B156" s="4" t="s">
-        <v>136</v>
+        <v>108</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -3329,78 +3341,78 @@
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" ht="15.75">
-      <c r="A157" s="17"/>
-      <c r="B157" s="7" t="s">
-        <v>86</v>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A157" s="18"/>
+      <c r="B157" s="4" t="s">
+        <v>134</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
-      <c r="E157" s="5"/>
+      <c r="E157" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" ht="15.75">
-      <c r="A158" s="17"/>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A158" s="18"/>
       <c r="B158" s="4" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E158" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F158" s="5"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" ht="15.75">
-      <c r="A159" s="17"/>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A159" s="18"/>
       <c r="B159" s="4" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E159" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F159" s="5"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" ht="15.75">
-      <c r="A160" s="17"/>
-      <c r="B160" s="4" t="s">
-        <v>137</v>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A160" s="18"/>
+      <c r="B160" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F160" s="5"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" ht="15.75">
-      <c r="A161" s="17"/>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A161" s="18"/>
       <c r="B161" s="4" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C161" s="5"/>
-      <c r="D161" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D161" s="5"/>
       <c r="E161" s="5"/>
-      <c r="F161" s="5"/>
+      <c r="F161" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" ht="15.75">
-      <c r="A162" s="17"/>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A162" s="18"/>
       <c r="B162" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -3411,10 +3423,10 @@
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" ht="15.75">
-      <c r="A163" s="17"/>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A163" s="18"/>
       <c r="B163" s="4" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -3425,38 +3437,38 @@
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" ht="15.75">
-      <c r="A164" s="17"/>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A164" s="18"/>
       <c r="B164" s="4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C164" s="5"/>
-      <c r="D164" s="5"/>
+      <c r="D164" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E164" s="5"/>
-      <c r="F164" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F164" s="5"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" ht="15.75">
-      <c r="A165" s="17"/>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A165" s="18"/>
       <c r="B165" s="4" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="C165" s="5"/>
-      <c r="D165" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D165" s="5"/>
       <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
+      <c r="F165" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" ht="15.75">
-      <c r="A166" s="17"/>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A166" s="18"/>
       <c r="B166" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -3467,10 +3479,10 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" ht="15.75">
-      <c r="A167" s="17"/>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A167" s="18"/>
       <c r="B167" s="4" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5"/>
@@ -3481,38 +3493,38 @@
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" ht="15.75">
-      <c r="A168" s="17"/>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A168" s="18"/>
       <c r="B168" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C168" s="5"/>
-      <c r="D168" s="5"/>
+      <c r="D168" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E168" s="5"/>
-      <c r="F168" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F168" s="5"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" ht="15.75">
-      <c r="A169" s="17"/>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A169" s="18"/>
       <c r="B169" s="4" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="C169" s="5"/>
-      <c r="D169" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D169" s="5"/>
       <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
+      <c r="F169" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" ht="15.75">
-      <c r="A170" s="17"/>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A170" s="18"/>
       <c r="B170" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -3523,10 +3535,10 @@
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" ht="15.75">
-      <c r="A171" s="17"/>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A171" s="18"/>
       <c r="B171" s="4" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5"/>
@@ -3537,38 +3549,38 @@
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" ht="15.75">
-      <c r="A172" s="17"/>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A172" s="18"/>
       <c r="B172" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C172" s="5"/>
-      <c r="D172" s="5"/>
+      <c r="D172" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E172" s="5"/>
-      <c r="F172" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F172" s="5"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" ht="15.75">
-      <c r="A173" s="17"/>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A173" s="18"/>
       <c r="B173" s="4" t="s">
-        <v>153</v>
+        <v>99</v>
       </c>
       <c r="C173" s="5"/>
-      <c r="D173" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D173" s="5"/>
       <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
+      <c r="F173" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
-    <row r="174" spans="1:8" ht="15.75">
-      <c r="A174" s="17"/>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A174" s="18"/>
       <c r="B174" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -3579,10 +3591,10 @@
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" spans="1:8" ht="15.75">
-      <c r="A175" s="17"/>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A175" s="18"/>
       <c r="B175" s="4" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5"/>
@@ -3593,104 +3605,104 @@
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" ht="15.75">
-      <c r="A176" s="17"/>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A176" s="18"/>
       <c r="B176" s="4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="C176" s="5"/>
-      <c r="D176" s="5"/>
+      <c r="D176" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E176" s="5"/>
-      <c r="F176" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F176" s="5"/>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" ht="15.75">
-      <c r="A177" s="17"/>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A177" s="18"/>
       <c r="B177" s="4" t="s">
-        <v>155</v>
+        <v>101</v>
       </c>
       <c r="C177" s="5"/>
-      <c r="D177" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D177" s="5"/>
       <c r="E177" s="5"/>
-      <c r="F177" s="5"/>
+      <c r="F177" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75">
-      <c r="A178" s="17"/>
-      <c r="B178" s="7" t="s">
-        <v>112</v>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A178" s="18"/>
+      <c r="B178" s="4" t="s">
+        <v>163</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
+      <c r="F178" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75">
-      <c r="A179" s="17"/>
-      <c r="B179" s="7" t="s">
-        <v>111</v>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A179" s="18"/>
+      <c r="B179" s="4" t="s">
+        <v>141</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
       <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
+      <c r="F179" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:8" ht="15.75">
-      <c r="A180" s="17"/>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A180" s="18"/>
       <c r="B180" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C180" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D180" s="5"/>
+        <v>155</v>
+      </c>
+      <c r="C180" s="5"/>
+      <c r="D180" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" ht="15.75">
-      <c r="A181" s="17"/>
-      <c r="B181" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C181" s="5" t="s">
-        <v>67</v>
-      </c>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A181" s="18"/>
+      <c r="B181" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" ht="15.75">
-      <c r="A182" s="17"/>
-      <c r="B182" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>67</v>
-      </c>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A182" s="18"/>
+      <c r="B182" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C182" s="5"/>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75">
-      <c r="A183" s="17"/>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A183" s="18"/>
       <c r="B183" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C183" s="5" t="s">
         <v>67</v>
@@ -3701,10 +3713,10 @@
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" ht="15.75">
-      <c r="A184" s="17"/>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A184" s="18"/>
       <c r="B184" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C184" s="5" t="s">
         <v>67</v>
@@ -3715,10 +3727,10 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" ht="15.75">
-      <c r="A185" s="17"/>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A185" s="18"/>
       <c r="B185" s="4" t="s">
-        <v>115</v>
+        <v>90</v>
       </c>
       <c r="C185" s="5" t="s">
         <v>67</v>
@@ -3729,10 +3741,10 @@
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" ht="15.75">
-      <c r="A186" s="17"/>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A186" s="18"/>
       <c r="B186" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C186" s="5" t="s">
         <v>67</v>
@@ -3743,10 +3755,10 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" ht="15.75">
-      <c r="A187" s="17"/>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A187" s="18"/>
       <c r="B187" s="4" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="C187" s="5" t="s">
         <v>67</v>
@@ -3757,10 +3769,10 @@
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" ht="15.75">
-      <c r="A188" s="17"/>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A188" s="18"/>
       <c r="B188" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C188" s="5" t="s">
         <v>67</v>
@@ -3771,24 +3783,24 @@
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:8" ht="15.75">
-      <c r="A189" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B189" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C189" s="5"/>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A189" s="18"/>
+      <c r="B189" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D189" s="5"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:8" ht="15.75">
-      <c r="A190" s="12"/>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A190" s="18"/>
       <c r="B190" s="4" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="C190" s="5" t="s">
         <v>67</v>
@@ -3799,50 +3811,52 @@
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="191" spans="1:8" ht="15.75">
-      <c r="A191" s="12"/>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A191" s="18"/>
       <c r="B191" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C191" s="5"/>
+        <v>117</v>
+      </c>
+      <c r="C191" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D191" s="5"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="6"/>
       <c r="H191" s="6"/>
     </row>
-    <row r="192" spans="1:8" ht="15.75">
-      <c r="A192" s="12"/>
-      <c r="B192" s="4" t="s">
-        <v>54</v>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A192" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="C192" s="5"/>
-      <c r="D192" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D192" s="5"/>
       <c r="E192" s="5"/>
-      <c r="F192" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F192" s="5"/>
       <c r="G192" s="6"/>
       <c r="H192" s="6"/>
     </row>
-    <row r="193" spans="1:8" ht="15.75">
-      <c r="A193" s="12"/>
-      <c r="B193" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C193" s="5"/>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A193" s="13"/>
+      <c r="B193" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C193" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="D193" s="5"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="6"/>
       <c r="H193" s="6"/>
     </row>
-    <row r="194" spans="1:8" ht="15.75">
-      <c r="A194" s="12"/>
-      <c r="B194" s="7" t="s">
-        <v>36</v>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A194" s="13"/>
+      <c r="B194" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="C194" s="5"/>
       <c r="D194" s="5"/>
@@ -3851,15 +3865,15 @@
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
     </row>
-    <row r="195" spans="1:8" ht="15.75">
-      <c r="A195" s="12"/>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A195" s="13"/>
       <c r="B195" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C195" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D195" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="C195" s="5"/>
+      <c r="D195" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="E195" s="5"/>
       <c r="F195" s="5" t="s">
         <v>67</v>
@@ -3867,78 +3881,118 @@
       <c r="G195" s="6"/>
       <c r="H195" s="6"/>
     </row>
-    <row r="196" spans="1:8" ht="15.75">
-      <c r="A196" s="12"/>
-      <c r="B196" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C196" s="5" t="s">
-        <v>67</v>
-      </c>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A196" s="13"/>
+      <c r="B196" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C196" s="5"/>
       <c r="D196" s="5"/>
       <c r="E196" s="5"/>
-      <c r="F196" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F196" s="5"/>
       <c r="G196" s="6"/>
       <c r="H196" s="6"/>
     </row>
-    <row r="200" spans="1:8">
-      <c r="A200" s="8" t="s">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A197" s="13"/>
+      <c r="B197" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C197" s="5"/>
+      <c r="D197" s="5"/>
+      <c r="E197" s="5"/>
+      <c r="F197" s="5"/>
+      <c r="G197" s="6"/>
+      <c r="H197" s="6"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A198" s="13"/>
+      <c r="B198" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C198" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D198" s="5"/>
+      <c r="E198" s="5"/>
+      <c r="F198" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G198" s="6"/>
+      <c r="H198" s="6"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A199" s="13"/>
+      <c r="B199" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C199" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="D199" s="5"/>
+      <c r="E199" s="5"/>
+      <c r="F199" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G199" s="6"/>
+      <c r="H199" s="6"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A203" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B200" s="9" t="s">
+      <c r="B203" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="75">
-      <c r="A201" s="10" t="s">
+    <row r="204" spans="1:8" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A204" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B201" s="9">
+      <c r="B204" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="30">
-      <c r="A202" s="10" t="s">
+    <row r="205" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A205" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B202" s="11">
+      <c r="B205" s="11">
         <v>2</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="30">
-      <c r="A203" s="10" t="s">
+    <row r="206" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A206" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B203" s="11">
+      <c r="B206" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="30">
-      <c r="A204" s="10" t="s">
+    <row r="207" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A207" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B204" s="11">
+      <c r="B207" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="30">
-      <c r="A205" s="10" t="s">
+    <row r="208" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A208" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="B205" s="11">
+      <c r="B208" s="11">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A189:A196"/>
+    <mergeCell ref="A192:A199"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A58"/>
     <mergeCell ref="A59:A129"/>
-    <mergeCell ref="A130:A188"/>
+    <mergeCell ref="A133:A191"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D221921-112F-42D4-8B14-361A1595C96D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55937021-C4BB-4B8A-9F12-78AD472B5C86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="167">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Interface</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Component interface</t>
   </si>
   <si>
     <t xml:space="preserve">            Web Application Design</t>
@@ -620,6 +617,10 @@
   </si>
   <si>
     <t xml:space="preserve">        Draw Heatmap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Detect Face</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -786,7 +787,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -811,9 +812,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1113,10 +1111,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="G89" sqref="G89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1133,16 +1131,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1152,7 +1150,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1168,7 +1166,7 @@
       <c r="H2" s="6"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="14"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1182,7 +1180,7 @@
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="15"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
@@ -1196,7 +1194,7 @@
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="15"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -1210,13 +1208,13 @@
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="15"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1224,26 +1222,26 @@
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A7" s="15"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A8" s="15"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1252,61 +1250,61 @@
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A10" s="16"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A11" s="16"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A12" s="14"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
@@ -1314,25 +1312,25 @@
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
       </c>
@@ -1344,13 +1342,13 @@
       <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A15" s="17"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
@@ -1358,23 +1356,23 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A16" s="17"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A17" s="17"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
       </c>
@@ -1386,9 +1384,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A18" s="17"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1398,12 +1396,12 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A19" s="17"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1412,9 +1410,9 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A20" s="17"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1424,12 +1422,12 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A21" s="17"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1438,12 +1436,12 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A22" s="17"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1452,12 +1450,12 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A23" s="17"/>
+      <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1466,12 +1464,12 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A24" s="17"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="5"/>
@@ -1480,7 +1478,7 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A25" s="17"/>
+      <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
       </c>
@@ -1492,13 +1490,13 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A26" s="17"/>
+      <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
@@ -1506,13 +1504,13 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A27" s="17"/>
+      <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
@@ -1520,13 +1518,13 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
@@ -1534,13 +1532,13 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A29" s="17"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
@@ -1548,13 +1546,13 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A30" s="17"/>
+      <c r="A30" s="16"/>
       <c r="B30" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1562,13 +1560,13 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A31" s="17"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
@@ -1576,13 +1574,13 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A32" s="17"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
@@ -1590,13 +1588,13 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A33" s="17"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1604,177 +1602,177 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A34" s="17"/>
+      <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A35" s="17"/>
+      <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A36" s="17"/>
+      <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A37" s="17"/>
+      <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A38" s="17"/>
+      <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="17"/>
+      <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="17"/>
+      <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="17"/>
+      <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="17"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="17"/>
+      <c r="A46" s="16"/>
       <c r="B46" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1784,12 +1782,12 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1798,133 +1796,133 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="17"/>
+      <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A50" s="17"/>
+      <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A52" s="17"/>
+      <c r="A52" s="16"/>
       <c r="B52" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A53" s="17"/>
+      <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A54" s="17"/>
+      <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A55" s="17"/>
+      <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A56" s="17"/>
+      <c r="A56" s="16"/>
       <c r="B56" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A57" s="17"/>
+      <c r="A57" s="16"/>
       <c r="B57" s="4" t="s">
         <v>25</v>
       </c>
@@ -1932,18 +1930,18 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A58" s="17"/>
+      <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1951,8 +1949,8 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A59" s="13" t="s">
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A59" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -1962,13 +1960,13 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A60" s="13"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="7" t="s">
         <v>29</v>
       </c>
@@ -1980,13 +1978,13 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A61" s="13"/>
+      <c r="A61" s="17"/>
       <c r="B61" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
@@ -1994,12 +1992,12 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A62" s="13"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -2008,7 +2006,7 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A63" s="13"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="4" t="s">
         <v>31</v>
       </c>
@@ -2022,7 +2020,7 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A64" s="13"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="7" t="s">
         <v>32</v>
       </c>
@@ -2034,13 +2032,13 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A65" s="13"/>
+      <c r="A65" s="17"/>
       <c r="B65" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
@@ -2048,13 +2046,13 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A66" s="13"/>
+      <c r="A66" s="17"/>
       <c r="B66" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
@@ -2062,7 +2060,7 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A67" s="13"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="7" t="s">
         <v>35</v>
       </c>
@@ -2074,9 +2072,9 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A68" s="13"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2086,9 +2084,9 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A69" s="13"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2098,13 +2096,13 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A70" s="13"/>
+      <c r="A70" s="17"/>
       <c r="B70" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
@@ -2112,9 +2110,9 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A71" s="13"/>
+      <c r="A71" s="17"/>
       <c r="B71" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2124,13 +2122,13 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A72" s="13"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
@@ -2138,13 +2136,13 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A73" s="13"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
@@ -2152,13 +2150,13 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A74" s="13"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
@@ -2166,13 +2164,13 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A75" s="13"/>
+      <c r="A75" s="17"/>
       <c r="B75" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
@@ -2180,9 +2178,9 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A76" s="13"/>
+      <c r="A76" s="17"/>
       <c r="B76" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -2192,140 +2190,140 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A77" s="13"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A78" s="13"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A79" s="13"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A80" s="13"/>
+      <c r="A80" s="17"/>
       <c r="B80" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A81" s="13"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A82" s="13"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A83" s="13"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A84" s="13"/>
+      <c r="A84" s="17"/>
       <c r="B84" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A85" s="13"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -2334,23 +2332,23 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A86" s="13"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A87" s="13"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -2360,329 +2358,329 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A88" s="13"/>
+      <c r="A88" s="17"/>
       <c r="B88" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A89" s="13"/>
+      <c r="A89" s="17"/>
       <c r="B89" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E89" s="5"/>
       <c r="F89" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A90" s="13"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A91" s="13"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A92" s="13"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A93" s="13"/>
+      <c r="A93" s="17"/>
       <c r="B93" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A94" s="13"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A95" s="13"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A96" s="13"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A97" s="13"/>
+      <c r="A97" s="17"/>
       <c r="B97" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A98" s="13"/>
+      <c r="A98" s="17"/>
       <c r="B98" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A99" s="13"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A100" s="13"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A101" s="13"/>
+      <c r="A101" s="17"/>
       <c r="B101" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A102" s="13"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A103" s="13"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A104" s="13"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A105" s="13"/>
+      <c r="A105" s="17"/>
       <c r="B105" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A106" s="13"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A107" s="13"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A108" s="13"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -2692,12 +2690,12 @@
       <c r="H108" s="6"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A109" s="13"/>
+      <c r="A109" s="17"/>
       <c r="B109" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -2706,12 +2704,12 @@
       <c r="H109" s="6"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A110" s="13"/>
+      <c r="A110" s="17"/>
       <c r="B110" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -2720,26 +2718,26 @@
       <c r="H110" s="6"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A111" s="13"/>
+      <c r="A111" s="17"/>
       <c r="B111" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A112" s="13"/>
+      <c r="A112" s="17"/>
       <c r="B112" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -2748,12 +2746,12 @@
       <c r="H112" s="6"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A113" s="13"/>
+      <c r="A113" s="17"/>
       <c r="B113" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -2762,12 +2760,12 @@
       <c r="H113" s="6"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A114" s="13"/>
+      <c r="A114" s="17"/>
       <c r="B114" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -2776,12 +2774,12 @@
       <c r="H114" s="6"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A115" s="13"/>
+      <c r="A115" s="17"/>
       <c r="B115" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -2790,12 +2788,12 @@
       <c r="H115" s="6"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A116" s="13"/>
+      <c r="A116" s="17"/>
       <c r="B116" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -2804,21 +2802,21 @@
       <c r="H116" s="6"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A117" s="13"/>
+      <c r="A117" s="17"/>
       <c r="B117" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A118" s="13"/>
+      <c r="A118" s="17"/>
       <c r="B118" s="7" t="s">
         <v>37</v>
       </c>
@@ -2830,9 +2828,9 @@
       <c r="H118" s="6"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A119" s="13"/>
-      <c r="B119" s="4" t="s">
-        <v>38</v>
+      <c r="A119" s="17"/>
+      <c r="B119" s="7" t="s">
+        <v>115</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -2842,43 +2840,45 @@
       <c r="H119" s="6"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A120" s="13"/>
-      <c r="B120" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C120" s="5"/>
-      <c r="D120" s="5"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
+      <c r="F120" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A121" s="13"/>
+      <c r="A121" s="17"/>
       <c r="B121" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C121" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="C121" s="5"/>
       <c r="D121" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E121" s="5"/>
-      <c r="F121" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F121" s="5"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A122" s="13"/>
+      <c r="A122" s="17"/>
       <c r="B122" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C122" s="5"/>
       <c r="D122" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
@@ -2886,13 +2886,13 @@
       <c r="H122" s="6"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A123" s="13"/>
+      <c r="A123" s="17"/>
       <c r="B123" s="4" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C123" s="5"/>
       <c r="D123" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
@@ -2900,13 +2900,13 @@
       <c r="H123" s="6"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A124" s="13"/>
+      <c r="A124" s="17"/>
       <c r="B124" s="4" t="s">
-        <v>69</v>
+        <v>24</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -2914,25 +2914,25 @@
       <c r="H124" s="6"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A125" s="13"/>
-      <c r="B125" s="4" t="s">
-        <v>24</v>
+      <c r="A125" s="17"/>
+      <c r="B125" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D125" s="5"/>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A126" s="13"/>
-      <c r="B126" s="7" t="s">
+      <c r="A126" s="17"/>
+      <c r="B126" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C126" s="5"/>
+      <c r="C126" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
@@ -2940,12 +2940,12 @@
       <c r="H126" s="6"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A127" s="13"/>
+      <c r="A127" s="17"/>
       <c r="B127" s="4" t="s">
-        <v>41</v>
+        <v>163</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -2954,13 +2954,11 @@
       <c r="H127" s="6"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A128" s="13"/>
-      <c r="B128" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C128" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="A128" s="17"/>
+      <c r="B128" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
@@ -2968,11 +2966,13 @@
       <c r="H128" s="6"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A129" s="13"/>
-      <c r="B129" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C129" s="5"/>
+      <c r="A129" s="17"/>
+      <c r="B129" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
@@ -2980,12 +2980,12 @@
       <c r="H129" s="6"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A130" s="12"/>
+      <c r="A130" s="17"/>
       <c r="B130" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -2994,67 +2994,71 @@
       <c r="H130" s="6"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A131" s="12"/>
+      <c r="A131" s="17"/>
       <c r="B131" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="C131" s="5"/>
       <c r="D131" s="5"/>
-      <c r="E131" s="5"/>
+      <c r="E131" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A132" s="12"/>
-      <c r="B132" s="7"/>
-      <c r="C132" s="5"/>
+    <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A132" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D132" s="5"/>
-      <c r="E132" s="5"/>
+      <c r="E132" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A133" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="5" t="s">
-        <v>67</v>
-      </c>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A133" s="17"/>
+      <c r="B133" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C133" s="5"/>
       <c r="D133" s="5"/>
-      <c r="E133" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A134" s="18"/>
-      <c r="B134" s="7" t="s">
+      <c r="A134" s="17"/>
+      <c r="B134" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C134" s="5"/>
-      <c r="D134" s="5"/>
+      <c r="D134" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A135" s="18"/>
+      <c r="A135" s="17"/>
       <c r="B135" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
@@ -3062,25 +3066,25 @@
       <c r="H135" s="6"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A136" s="18"/>
-      <c r="B136" s="4" t="s">
-        <v>42</v>
+      <c r="A136" s="17"/>
+      <c r="B136" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="C136" s="5"/>
-      <c r="D136" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D136" s="5"/>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A137" s="18"/>
-      <c r="B137" s="7" t="s">
+      <c r="A137" s="17"/>
+      <c r="B137" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C137" s="5"/>
+      <c r="C137" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
@@ -3088,13 +3092,11 @@
       <c r="H137" s="6"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A138" s="18"/>
-      <c r="B138" s="4" t="s">
+      <c r="A138" s="17"/>
+      <c r="B138" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
@@ -3102,7 +3104,7 @@
       <c r="H138" s="6"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A139" s="18"/>
+      <c r="A139" s="17"/>
       <c r="B139" s="7" t="s">
         <v>48</v>
       </c>
@@ -3114,9 +3116,9 @@
       <c r="H139" s="6"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A140" s="18"/>
+      <c r="A140" s="17"/>
       <c r="B140" s="7" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3126,9 +3128,9 @@
       <c r="H140" s="6"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A141" s="18"/>
+      <c r="A141" s="17"/>
       <c r="B141" s="7" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -3138,11 +3140,13 @@
       <c r="H141" s="6"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A142" s="18"/>
-      <c r="B142" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C142" s="5"/>
+      <c r="A142" s="17"/>
+      <c r="B142" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
@@ -3150,253 +3154,253 @@
       <c r="H142" s="6"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A143" s="18"/>
-      <c r="B143" s="4" t="s">
-        <v>156</v>
+      <c r="A143" s="17"/>
+      <c r="B143" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="C143" s="5"/>
-      <c r="D143" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D143" s="5"/>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A144" s="18"/>
-      <c r="B144" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="C144" s="5"/>
+      <c r="A144" s="17"/>
+      <c r="B144" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D144" s="5"/>
-      <c r="E144" s="5"/>
+      <c r="E144" s="11"/>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A145" s="18"/>
+      <c r="A145" s="17"/>
       <c r="B145" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C145" s="5"/>
-      <c r="D145" s="5" t="s">
-        <v>67</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D145" s="5"/>
       <c r="E145" s="11"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A146" s="18"/>
+      <c r="A146" s="17"/>
       <c r="B146" s="4" t="s">
         <v>147</v>
       </c>
       <c r="C146" s="5"/>
-      <c r="D146" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E146" s="11"/>
-      <c r="F146" s="5"/>
+      <c r="D146" s="11"/>
+      <c r="E146" s="5"/>
+      <c r="F146" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A147" s="18"/>
+      <c r="A147" s="17"/>
       <c r="B147" s="4" t="s">
         <v>148</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="11"/>
-      <c r="E147" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F147" s="5"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A148" s="18"/>
-      <c r="B148" s="4" t="s">
-        <v>149</v>
+      <c r="A148" s="17"/>
+      <c r="B148" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C148" s="5"/>
-      <c r="D148" s="11"/>
-      <c r="E148" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D148" s="5"/>
+      <c r="E148" s="5"/>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A149" s="18"/>
-      <c r="B149" s="7" t="s">
-        <v>69</v>
+      <c r="A149" s="17"/>
+      <c r="B149" s="4" t="s">
+        <v>102</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
-      <c r="E149" s="5"/>
+      <c r="E149" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="F149" s="5"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A150" s="18"/>
+      <c r="A150" s="17"/>
       <c r="B150" s="4" t="s">
         <v>103</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F150" s="5"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A151" s="18"/>
+      <c r="A151" s="17"/>
       <c r="B151" s="4" t="s">
         <v>104</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A152" s="18"/>
+      <c r="A152" s="17"/>
       <c r="B152" s="4" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A153" s="18"/>
+      <c r="A153" s="17"/>
       <c r="B153" s="4" t="s">
-        <v>133</v>
+        <v>105</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A154" s="18"/>
+      <c r="A154" s="17"/>
       <c r="B154" s="4" t="s">
         <v>106</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A155" s="18"/>
+      <c r="A155" s="17"/>
       <c r="B155" s="4" t="s">
         <v>107</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A156" s="18"/>
+      <c r="A156" s="17"/>
       <c r="B156" s="4" t="s">
-        <v>108</v>
+        <v>133</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A157" s="18"/>
+      <c r="A157" s="17"/>
       <c r="B157" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A158" s="18"/>
+      <c r="A158" s="17"/>
       <c r="B158" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A159" s="18"/>
-      <c r="B159" s="4" t="s">
-        <v>136</v>
+      <c r="A159" s="17"/>
+      <c r="B159" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="E159" s="5"/>
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A160" s="18"/>
-      <c r="B160" s="7" t="s">
-        <v>86</v>
+      <c r="A160" s="17"/>
+      <c r="B160" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
       <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
+      <c r="F160" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A161" s="18"/>
+      <c r="A161" s="17"/>
       <c r="B161" s="4" t="s">
         <v>94</v>
       </c>
@@ -3404,47 +3408,47 @@
       <c r="D161" s="5"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A162" s="18"/>
+      <c r="A162" s="17"/>
       <c r="B162" s="4" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
       <c r="F162" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A163" s="18"/>
+      <c r="A163" s="17"/>
       <c r="B163" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="C163" s="5"/>
-      <c r="D163" s="5"/>
+      <c r="D163" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E163" s="5"/>
-      <c r="F163" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F163" s="5"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A164" s="18"/>
+      <c r="A164" s="17"/>
       <c r="B164" s="4" t="s">
-        <v>150</v>
+        <v>86</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
@@ -3452,55 +3456,55 @@
       <c r="H164" s="6"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A165" s="18"/>
+      <c r="A165" s="17"/>
       <c r="B165" s="4" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A166" s="18"/>
+      <c r="A166" s="17"/>
       <c r="B166" s="4" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
       <c r="E166" s="5"/>
       <c r="F166" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A167" s="18"/>
+      <c r="A167" s="17"/>
       <c r="B167" s="4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="C167" s="5"/>
-      <c r="D167" s="5"/>
+      <c r="D167" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E167" s="5"/>
-      <c r="F167" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F167" s="5"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A168" s="18"/>
+      <c r="A168" s="17"/>
       <c r="B168" s="4" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E168" s="5"/>
       <c r="F168" s="5"/>
@@ -3508,7 +3512,7 @@
       <c r="H168" s="6"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A169" s="18"/>
+      <c r="A169" s="17"/>
       <c r="B169" s="4" t="s">
         <v>97</v>
       </c>
@@ -3516,47 +3520,47 @@
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A170" s="18"/>
+      <c r="A170" s="17"/>
       <c r="B170" s="4" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
       <c r="E170" s="5"/>
       <c r="F170" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A171" s="18"/>
+      <c r="A171" s="17"/>
       <c r="B171" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C171" s="5"/>
-      <c r="D171" s="5"/>
+      <c r="D171" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E171" s="5"/>
-      <c r="F171" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F171" s="5"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A172" s="18"/>
+      <c r="A172" s="17"/>
       <c r="B172" s="4" t="s">
-        <v>152</v>
+        <v>98</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E172" s="5"/>
       <c r="F172" s="5"/>
@@ -3564,7 +3568,7 @@
       <c r="H172" s="6"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A173" s="18"/>
+      <c r="A173" s="17"/>
       <c r="B173" s="4" t="s">
         <v>99</v>
       </c>
@@ -3572,47 +3576,47 @@
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A174" s="18"/>
+      <c r="A174" s="17"/>
       <c r="B174" s="4" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
       <c r="E174" s="5"/>
       <c r="F174" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A175" s="18"/>
+      <c r="A175" s="17"/>
       <c r="B175" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="C175" s="5"/>
-      <c r="D175" s="5"/>
+      <c r="D175" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E175" s="5"/>
-      <c r="F175" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F175" s="5"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A176" s="18"/>
+      <c r="A176" s="17"/>
       <c r="B176" s="4" t="s">
-        <v>153</v>
+        <v>100</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E176" s="5"/>
       <c r="F176" s="5"/>
@@ -3620,65 +3624,65 @@
       <c r="H176" s="6"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A177" s="18"/>
+      <c r="A177" s="17"/>
       <c r="B177" s="4" t="s">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A178" s="18"/>
+      <c r="A178" s="17"/>
       <c r="B178" s="4" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A179" s="18"/>
+      <c r="A179" s="17"/>
       <c r="B179" s="4" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="C179" s="5"/>
-      <c r="D179" s="5"/>
+      <c r="D179" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E179" s="5"/>
-      <c r="F179" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="F179" s="5"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A180" s="18"/>
-      <c r="B180" s="4" t="s">
-        <v>155</v>
+      <c r="A180" s="17"/>
+      <c r="B180" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="C180" s="5"/>
-      <c r="D180" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="D180" s="5"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A181" s="18"/>
+      <c r="A181" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="B181" s="7" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
@@ -3688,11 +3692,13 @@
       <c r="H181" s="6"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A182" s="18"/>
-      <c r="B182" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C182" s="5"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C182" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D182" s="5"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
@@ -3700,41 +3706,41 @@
       <c r="H182" s="6"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A183" s="18"/>
+      <c r="A183" s="12"/>
       <c r="B183" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C183" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D183" s="5"/>
+        <v>52</v>
+      </c>
+      <c r="C183" s="5"/>
+      <c r="D183" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A184" s="18"/>
+      <c r="A184" s="12"/>
       <c r="B184" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C184" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D184" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="E184" s="5"/>
-      <c r="F184" s="5"/>
+      <c r="F184" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A185" s="18"/>
-      <c r="B185" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C185" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="A185" s="12"/>
+      <c r="B185" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="5"/>
       <c r="D185" s="5"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
@@ -3742,13 +3748,11 @@
       <c r="H185" s="6"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A186" s="18"/>
-      <c r="B186" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C186" s="5" t="s">
-        <v>67</v>
-      </c>
+      <c r="A186" s="12"/>
+      <c r="B186" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C186" s="5"/>
       <c r="D186" s="5"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
@@ -3756,243 +3760,93 @@
       <c r="H186" s="6"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A187" s="18"/>
+      <c r="A187" s="12"/>
       <c r="B187" s="4" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="F187" s="5"/>
+      <c r="F187" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A188" s="18"/>
+      <c r="A188" s="12"/>
       <c r="B188" s="4" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
+      <c r="F188" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A189" s="18"/>
-      <c r="B189" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C189" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A190" s="18"/>
-      <c r="B190" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C190" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D190" s="5"/>
-      <c r="E190" s="5"/>
-      <c r="F190" s="5"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A191" s="18"/>
-      <c r="B191" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C191" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D191" s="5"/>
-      <c r="E191" s="5"/>
-      <c r="F191" s="5"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-    </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A192" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B192" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C192" s="5"/>
-      <c r="D192" s="5"/>
-      <c r="E192" s="5"/>
-      <c r="F192" s="5"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A193" s="13"/>
-      <c r="B193" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C193" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D193" s="5"/>
-      <c r="E193" s="5"/>
-      <c r="F193" s="5"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A194" s="13"/>
-      <c r="B194" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C194" s="5"/>
-      <c r="D194" s="5"/>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A195" s="13"/>
-      <c r="B195" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="C195" s="5"/>
-      <c r="D195" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E195" s="5"/>
-      <c r="F195" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A196" s="13"/>
-      <c r="B196" s="7" t="s">
+      <c r="A192" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C196" s="5"/>
-      <c r="D196" s="5"/>
-      <c r="E196" s="5"/>
-      <c r="F196" s="5"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A197" s="13"/>
-      <c r="B197" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A198" s="13"/>
-      <c r="B198" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C198" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D198" s="5"/>
-      <c r="E198" s="5"/>
-      <c r="F198" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A199" s="13"/>
-      <c r="B199" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C199" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D199" s="5"/>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A203" s="8" t="s">
+      <c r="B192" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B203" s="9" t="s">
+    </row>
+    <row r="193" spans="1:2" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A193" s="10" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" ht="55.2" x14ac:dyDescent="0.45">
-      <c r="A204" s="10" t="s">
+      <c r="B193" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A194" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B204" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A205" s="10" t="s">
+      <c r="B194" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A195" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B205" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A206" s="10" t="s">
+      <c r="B195" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A196" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="B206" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A207" s="10" t="s">
+      <c r="B196" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A197" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="B207" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="27.6" x14ac:dyDescent="0.45">
-      <c r="A208" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B208" s="11">
+      <c r="B197" s="11">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A192:A199"/>
+    <mergeCell ref="A181:A188"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A58"/>
-    <mergeCell ref="A59:A129"/>
-    <mergeCell ref="A133:A191"/>
+    <mergeCell ref="A132:A180"/>
+    <mergeCell ref="A59:A131"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55937021-C4BB-4B8A-9F12-78AD472B5C86}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557ECFCF-D227-45BF-862F-EC40AEA09575}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="167">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -1113,8 +1113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
-      <selection activeCell="G89" sqref="G89"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="E193" sqref="E193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1226,11 +1226,11 @@
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -1302,7 +1302,9 @@
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>66</v>
+      </c>
       <c r="D12" s="5" t="s">
         <v>66</v>
       </c>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557ECFCF-D227-45BF-862F-EC40AEA09575}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22305" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,66 +257,6 @@
     <t xml:space="preserve">            User</t>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Company (UC_04)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Company (UC_05)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Account (UC_09)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Store (UC_12)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Store (UC_13)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Area (UC_16)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Area (UC_17)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Camera (UC_20)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera (UC_21)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Store (UC_25)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Area (UC_26)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Camera (UC_27)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Object Detection (UC_29)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Count People (UC_30)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Report (UC_31)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">            User</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -465,50 +404,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password (UC_02)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile (UC_02)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile (UC_02)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Company (UC_06)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Account (UC_10)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Store (UC_14)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Camera (UC_22)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera (UC_28)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap (UC_32)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time (UC_32)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Face Detection (UC_32)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;User&gt; View Streaming Camera</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -552,9 +447,6 @@
     <t xml:space="preserve">                &lt;Admin&gt; Add Company</t>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Account (UC_08)</t>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Authorized User&gt; Logout </t>
   </si>
   <si>
@@ -591,24 +483,6 @@
     <t xml:space="preserve">                &lt;Unauthorized User&gt; Login </t>
   </si>
   <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Company (UC_07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Account (UC_10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Area (UC_18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Store (UC_15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Area (UC_19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera (UC_23)</t>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Admin&gt; Edit Camera</t>
   </si>
   <si>
@@ -626,17 +500,116 @@
   <si>
     <t xml:space="preserve">        Faster RCNN</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password (UC_03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile (UC_04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile (UC_05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Company (UC_06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Company (UC_07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Company (UC_08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Company (UC_09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Account (UC_10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Account (UC_11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Account (UC_12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Account (UC_13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Store (UC_14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Store (UC_15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Store (UC_16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Store (UC_17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Area (UC_18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Area (UC_19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Area (UC_20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Area (UC_21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Camera (UC_22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera (UC_23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Camera (UC_24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera (UC_25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Store (UC_26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Area (UC_27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Camera (UC_28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera (UC_29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Object Detection (UC_30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Count People (UC_31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Report (UC_32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap (UC_33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time (UC_34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Face Detection (UC_35)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -649,7 +622,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -833,7 +806,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1110,20 +1083,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="E193" sqref="E193"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="105.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="114">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -1165,7 +1138,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1179,7 +1152,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -1193,7 +1166,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1207,7 +1180,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -1221,7 +1194,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1235,7 +1208,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -1249,7 +1222,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1267,7 +1240,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>67</v>
@@ -1281,7 +1254,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -1297,7 +1270,7 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
@@ -1313,7 +1286,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1304,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -1343,7 +1316,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -1357,7 +1330,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
@@ -1373,7 +1346,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
@@ -1385,10 +1358,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1397,10 +1370,10 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>66</v>
@@ -1411,10 +1384,10 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1423,10 +1396,10 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>66</v>
@@ -1437,10 +1410,10 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>66</v>
@@ -1451,10 +1424,10 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>66</v>
@@ -1465,10 +1438,10 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>66</v>
@@ -1479,7 +1452,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
@@ -1491,10 +1464,10 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
@@ -1505,10 +1478,10 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
@@ -1519,10 +1492,10 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
@@ -1533,10 +1506,10 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
@@ -1547,10 +1520,10 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="16"/>
       <c r="B30" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
@@ -1561,10 +1534,10 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
-        <v>71</v>
+        <v>142</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
@@ -1575,10 +1548,10 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
@@ -1589,10 +1562,10 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
@@ -1603,10 +1576,10 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
-        <v>72</v>
+        <v>145</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1617,10 +1590,10 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1631,10 +1604,10 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1645,10 +1618,10 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1659,10 +1632,10 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1673,10 +1646,10 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1687,10 +1660,10 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1701,10 +1674,10 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="16"/>
       <c r="B41" s="4" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1715,10 +1688,10 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1729,10 +1702,10 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1743,10 +1716,10 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
-        <v>127</v>
+        <v>155</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1757,10 +1730,10 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1771,10 +1744,10 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="16"/>
       <c r="B46" s="7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1783,10 +1756,10 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="16"/>
       <c r="B47" s="4" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>66</v>
@@ -1797,10 +1770,10 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
-        <v>79</v>
+        <v>158</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1811,10 +1784,10 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="16"/>
       <c r="B49" s="4" t="s">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1825,10 +1798,10 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
-        <v>128</v>
+        <v>160</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1839,10 +1812,10 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
-        <v>81</v>
+        <v>161</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1853,10 +1826,10 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="16"/>
       <c r="B52" s="4" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1867,10 +1840,10 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
-        <v>83</v>
+        <v>163</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1881,10 +1854,10 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1895,10 +1868,10 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
-        <v>130</v>
+        <v>165</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1909,10 +1882,10 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="16"/>
       <c r="B56" s="4" t="s">
-        <v>131</v>
+        <v>166</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -1923,7 +1896,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="16"/>
       <c r="B57" s="4" t="s">
         <v>25</v>
@@ -1937,7 +1910,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
         <v>26</v>
@@ -1951,7 +1924,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="18" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>27</v>
       </c>
@@ -1967,7 +1940,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="17"/>
       <c r="B60" s="7" t="s">
         <v>29</v>
@@ -1979,7 +1952,7 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="17"/>
       <c r="B61" s="4" t="s">
         <v>30</v>
@@ -1993,10 +1966,10 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="17"/>
       <c r="B62" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>66</v>
@@ -2007,7 +1980,7 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="17"/>
       <c r="B63" s="4" t="s">
         <v>31</v>
@@ -2021,7 +1994,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="15.75">
       <c r="A64" s="17"/>
       <c r="B64" s="7" t="s">
         <v>32</v>
@@ -2033,7 +2006,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="17"/>
       <c r="B65" s="4" t="s">
         <v>33</v>
@@ -2047,7 +2020,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="15.75">
       <c r="A66" s="17"/>
       <c r="B66" s="4" t="s">
         <v>34</v>
@@ -2061,7 +2034,7 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="17"/>
       <c r="B67" s="7" t="s">
         <v>35</v>
@@ -2073,10 +2046,10 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="17"/>
       <c r="B68" s="7" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -2085,10 +2058,10 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="17"/>
       <c r="B69" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -2097,10 +2070,10 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="17"/>
       <c r="B70" s="4" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5" t="s">
@@ -2111,10 +2084,10 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="17"/>
       <c r="B71" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2123,10 +2096,10 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="17"/>
       <c r="B72" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
@@ -2137,10 +2110,10 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="17"/>
       <c r="B73" s="4" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
@@ -2151,10 +2124,10 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="4" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5" t="s">
@@ -2165,10 +2138,10 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="4" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
@@ -2179,7 +2152,7 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="7" t="s">
         <v>68</v>
@@ -2191,10 +2164,10 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="17"/>
       <c r="B77" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
@@ -2207,10 +2180,10 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="17"/>
       <c r="B78" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
@@ -2223,10 +2196,10 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="15.75">
       <c r="A79" s="17"/>
       <c r="B79" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5" t="s">
@@ -2239,10 +2212,10 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="4" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
@@ -2255,10 +2228,10 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
@@ -2271,10 +2244,10 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
@@ -2287,10 +2260,10 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
@@ -2303,10 +2276,10 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="4" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
@@ -2319,10 +2292,10 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="15.75">
       <c r="A85" s="17"/>
       <c r="B85" s="4" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>66</v>
@@ -2333,10 +2306,10 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="17"/>
       <c r="B86" s="4" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
@@ -2347,10 +2320,10 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="17"/>
       <c r="B87" s="7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
@@ -2359,10 +2332,10 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="15.75">
       <c r="A88" s="17"/>
       <c r="B88" s="4" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C88" s="5"/>
       <c r="D88" s="5" t="s">
@@ -2375,10 +2348,10 @@
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="15.75">
       <c r="A89" s="17"/>
       <c r="B89" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5" t="s">
@@ -2391,10 +2364,10 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="17"/>
       <c r="B90" s="4" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5" t="s">
@@ -2407,10 +2380,10 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="17"/>
       <c r="B91" s="4" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
@@ -2423,10 +2396,10 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
@@ -2439,10 +2412,10 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="17"/>
       <c r="B93" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
@@ -2455,10 +2428,10 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="17"/>
       <c r="B94" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
@@ -2471,10 +2444,10 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="17"/>
       <c r="B95" s="4" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
@@ -2487,10 +2460,10 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="17"/>
       <c r="B96" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
@@ -2503,10 +2476,10 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="17"/>
       <c r="B97" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
@@ -2519,10 +2492,10 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="4" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
@@ -2535,10 +2508,10 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="17"/>
       <c r="B99" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
@@ -2551,10 +2524,10 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="17"/>
       <c r="B100" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
@@ -2567,10 +2540,10 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="17"/>
       <c r="B101" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
@@ -2583,10 +2556,10 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="17"/>
       <c r="B102" s="4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
@@ -2599,10 +2572,10 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="17"/>
       <c r="B103" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
@@ -2615,10 +2588,10 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="17"/>
       <c r="B104" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
@@ -2631,10 +2604,10 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="17"/>
       <c r="B105" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
@@ -2647,10 +2620,10 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="17"/>
       <c r="B106" s="4" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
@@ -2663,10 +2636,10 @@
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="17"/>
       <c r="B107" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
@@ -2679,10 +2652,10 @@
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="17"/>
       <c r="B108" s="7" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
@@ -2691,10 +2664,10 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="17"/>
       <c r="B109" s="4" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="C109" s="5" t="s">
         <v>66</v>
@@ -2705,10 +2678,10 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="17"/>
       <c r="B110" s="4" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="C110" s="5" t="s">
         <v>66</v>
@@ -2719,10 +2692,10 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="17"/>
       <c r="B111" s="4" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -2733,10 +2706,10 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="17"/>
       <c r="B112" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="C112" s="5" t="s">
         <v>66</v>
@@ -2747,10 +2720,10 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="17"/>
       <c r="B113" s="4" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="C113" s="5" t="s">
         <v>66</v>
@@ -2761,10 +2734,10 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="17"/>
       <c r="B114" s="4" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C114" s="5" t="s">
         <v>66</v>
@@ -2775,10 +2748,10 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="17"/>
       <c r="B115" s="4" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="C115" s="5" t="s">
         <v>66</v>
@@ -2789,10 +2762,10 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="17"/>
       <c r="B116" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C116" s="5" t="s">
         <v>66</v>
@@ -2803,10 +2776,10 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="17"/>
       <c r="B117" s="4" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -2817,7 +2790,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="17"/>
       <c r="B118" s="7" t="s">
         <v>37</v>
@@ -2829,10 +2802,10 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="17"/>
       <c r="B119" s="7" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
@@ -2841,7 +2814,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="17"/>
       <c r="B120" s="4" t="s">
         <v>38</v>
@@ -2859,7 +2832,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="17"/>
       <c r="B121" s="4" t="s">
         <v>22</v>
@@ -2873,7 +2846,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="15.75">
       <c r="A122" s="17"/>
       <c r="B122" s="4" t="s">
         <v>23</v>
@@ -2887,7 +2860,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="15.75">
       <c r="A123" s="17"/>
       <c r="B123" s="4" t="s">
         <v>68</v>
@@ -2901,7 +2874,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="15.75">
       <c r="A124" s="17"/>
       <c r="B124" s="4" t="s">
         <v>24</v>
@@ -2915,7 +2888,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="15.75">
       <c r="A125" s="17"/>
       <c r="B125" s="7" t="s">
         <v>39</v>
@@ -2927,7 +2900,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" ht="15.75">
       <c r="A126" s="17"/>
       <c r="B126" s="4" t="s">
         <v>40</v>
@@ -2941,10 +2914,10 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="17"/>
       <c r="B127" s="4" t="s">
-        <v>163</v>
+        <v>130</v>
       </c>
       <c r="C127" s="5" t="s">
         <v>66</v>
@@ -2955,7 +2928,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="17"/>
       <c r="B128" s="7" t="s">
         <v>42</v>
@@ -2967,10 +2940,10 @@
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="17"/>
       <c r="B129" s="4" t="s">
-        <v>166</v>
+        <v>133</v>
       </c>
       <c r="C129" s="5" t="s">
         <v>66</v>
@@ -2981,10 +2954,10 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="17"/>
       <c r="B130" s="4" t="s">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>66</v>
@@ -2995,10 +2968,10 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="4" t="s">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
@@ -3009,9 +2982,9 @@
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" ht="18" customHeight="1">
       <c r="A132" s="17" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>7</v>
@@ -3027,7 +3000,7 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="17"/>
       <c r="B133" s="7" t="s">
         <v>43</v>
@@ -3039,7 +3012,7 @@
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="17"/>
       <c r="B134" s="4" t="s">
         <v>44</v>
@@ -3053,7 +3026,7 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" ht="15.75">
       <c r="A135" s="17"/>
       <c r="B135" s="4" t="s">
         <v>41</v>
@@ -3067,7 +3040,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="17"/>
       <c r="B136" s="7" t="s">
         <v>45</v>
@@ -3079,7 +3052,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="17"/>
       <c r="B137" s="4" t="s">
         <v>46</v>
@@ -3093,7 +3066,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="17"/>
       <c r="B138" s="7" t="s">
         <v>47</v>
@@ -3105,7 +3078,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="17"/>
       <c r="B139" s="7" t="s">
         <v>48</v>
@@ -3117,10 +3090,10 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="17"/>
       <c r="B140" s="7" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
@@ -3129,10 +3102,10 @@
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="17"/>
       <c r="B141" s="7" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -3141,10 +3114,10 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="4" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="C142" s="5" t="s">
         <v>66</v>
@@ -3155,10 +3128,10 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="7" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -3167,10 +3140,10 @@
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="4" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C144" s="5" t="s">
         <v>66</v>
@@ -3181,10 +3154,10 @@
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="4" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>66</v>
@@ -3195,10 +3168,10 @@
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="17"/>
       <c r="B146" s="4" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="C146" s="5"/>
       <c r="D146" s="11"/>
@@ -3209,10 +3182,10 @@
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="4" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="11"/>
@@ -3223,7 +3196,7 @@
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="7" t="s">
         <v>68</v>
@@ -3235,10 +3208,10 @@
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -3249,10 +3222,10 @@
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="4" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -3263,10 +3236,10 @@
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" ht="15.75">
       <c r="A151" s="17"/>
       <c r="B151" s="4" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
@@ -3277,10 +3250,10 @@
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="4" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
@@ -3291,10 +3264,10 @@
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" ht="15.75">
       <c r="A153" s="17"/>
       <c r="B153" s="4" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
@@ -3305,10 +3278,10 @@
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="4" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
@@ -3319,10 +3292,10 @@
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="4" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
@@ -3333,10 +3306,10 @@
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" ht="15.75">
       <c r="A156" s="17"/>
       <c r="B156" s="4" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
@@ -3347,10 +3320,10 @@
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" ht="15.75">
       <c r="A157" s="17"/>
       <c r="B157" s="4" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
@@ -3361,10 +3334,10 @@
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="4" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
@@ -3375,10 +3348,10 @@
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -3387,10 +3360,10 @@
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="4" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -3401,10 +3374,10 @@
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="4" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -3415,10 +3388,10 @@
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="4" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
@@ -3429,10 +3402,10 @@
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="4" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5" t="s">
@@ -3443,10 +3416,10 @@
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="4" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5" t="s">
@@ -3457,10 +3430,10 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="4" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -3471,10 +3444,10 @@
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="4" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -3485,10 +3458,10 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" ht="15.75">
       <c r="A167" s="17"/>
       <c r="B167" s="4" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
@@ -3499,10 +3472,10 @@
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="C168" s="5"/>
       <c r="D168" s="5" t="s">
@@ -3513,10 +3486,10 @@
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="4" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
@@ -3527,10 +3500,10 @@
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="4" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5"/>
@@ -3541,10 +3514,10 @@
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="4" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
@@ -3555,10 +3528,10 @@
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="C172" s="5"/>
       <c r="D172" s="5" t="s">
@@ -3569,10 +3542,10 @@
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" ht="15.75">
       <c r="A173" s="17"/>
       <c r="B173" s="4" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -3583,10 +3556,10 @@
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" ht="15.75">
       <c r="A174" s="17"/>
       <c r="B174" s="4" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -3597,10 +3570,10 @@
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="4" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="s">
@@ -3611,10 +3584,10 @@
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="4" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5" t="s">
@@ -3625,10 +3598,10 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="4" t="s">
-        <v>162</v>
+        <v>129</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -3639,10 +3612,10 @@
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="17"/>
       <c r="B178" s="4" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -3653,10 +3626,10 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="17"/>
       <c r="B179" s="4" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5" t="s">
@@ -3667,10 +3640,10 @@
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="7" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -3679,7 +3652,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" ht="15.75">
       <c r="A181" s="12" t="s">
         <v>49</v>
       </c>
@@ -3693,7 +3666,7 @@
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="12"/>
       <c r="B182" s="4" t="s">
         <v>51</v>
@@ -3707,7 +3680,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="12"/>
       <c r="B183" s="4" t="s">
         <v>52</v>
@@ -3721,7 +3694,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="12"/>
       <c r="B184" s="4" t="s">
         <v>53</v>
@@ -3737,7 +3710,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="12"/>
       <c r="B185" s="7" t="s">
         <v>54</v>
@@ -3749,7 +3722,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" ht="15.75">
       <c r="A186" s="12"/>
       <c r="B186" s="7" t="s">
         <v>36</v>
@@ -3761,7 +3734,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="12"/>
       <c r="B187" s="4" t="s">
         <v>68</v>
@@ -3777,7 +3750,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" ht="15.75">
       <c r="A188" s="12"/>
       <c r="B188" s="4" t="s">
         <v>24</v>
@@ -3793,7 +3766,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:8">
       <c r="A192" s="8" t="s">
         <v>55</v>
       </c>
@@ -3801,7 +3774,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="55.2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" ht="75">
       <c r="A193" s="10" t="s">
         <v>57</v>
       </c>
@@ -3809,7 +3782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" ht="30">
       <c r="A194" s="10" t="s">
         <v>58</v>
       </c>
@@ -3817,7 +3790,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" ht="30">
       <c r="A195" s="10" t="s">
         <v>59</v>
       </c>
@@ -3825,7 +3798,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" ht="30">
       <c r="A196" s="10" t="s">
         <v>60</v>
       </c>
@@ -3833,7 +3806,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" ht="30">
       <c r="A197" s="10" t="s">
         <v>61</v>
       </c>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FDF8DB-8B1C-4233-A013-F278D9DBF70B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="22305" windowHeight="13170"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="169">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -111,16 +112,10 @@
     <t xml:space="preserve">    System Architectural Design</t>
   </si>
   <si>
-    <t xml:space="preserve">        Web Application Architecture Description</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Component Diagram</t>
   </si>
   <si>
     <t xml:space="preserve">    Detailed Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Class Diagram</t>
   </si>
   <si>
     <t xml:space="preserve">        Class Diagram Explanation</t>
@@ -364,10 +359,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve">            Server Test Cases</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve">                &lt;Server&gt; Connect to web</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -599,17 +590,37 @@
   </si>
   <si>
     <t xml:space="preserve">                &lt;User&gt; See Face Detection (UC_35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Web Application Architecture Description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Web Application Architecture Design</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Server Architecture Design</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Class Diagram</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Interaction Diagram</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -622,7 +633,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -806,7 +817,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1"/>
+    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1083,20 +1094,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H197"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="114">
+    <row r="1" spans="1:8" ht="105.6" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,16 +1115,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>63</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>2</v>
@@ -1122,7 +1133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -1138,7 +1149,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1152,7 +1163,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -1166,7 +1177,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" ht="15.75">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1180,27 +1191,27 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" ht="15.75">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1208,13 +1219,13 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="15.75">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -1222,7 +1233,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="15.75">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1230,63 +1241,63 @@
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="15.75">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="15.75">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="15.75">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="15.75">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -1294,17 +1305,17 @@
         <v>17</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="15.75">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -1316,37 +1327,37 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="15.75">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" ht="15.75">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="15.75">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
@@ -1358,10 +1369,10 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" ht="15.75">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -1370,13 +1381,13 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" ht="15.75">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1384,10 +1395,10 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1396,13 +1407,13 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="15.75">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
@@ -1410,13 +1421,13 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" ht="15.75">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1424,13 +1435,13 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="15.75">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1438,13 +1449,13 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="15.75">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" s="11"/>
       <c r="E24" s="5"/>
@@ -1452,7 +1463,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="15.75">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
@@ -1464,290 +1475,290 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" ht="15.75">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" ht="15.75">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="15.75">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" ht="15.75">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" ht="15.75">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="16"/>
       <c r="B30" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" ht="15.75">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" ht="15.75">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" ht="15.75">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" ht="15.75">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" ht="15.75">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
       <c r="F35" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" ht="15.75">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" ht="15.75">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" ht="15.75">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
       <c r="F38" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" ht="15.75">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
       <c r="F39" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" ht="15.75">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
       <c r="F40" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" ht="15.75">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="16"/>
       <c r="B41" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
       <c r="F41" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" ht="15.75">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
       <c r="F42" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" ht="15.75">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="15.75">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
       <c r="F44" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" ht="15.75">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
       <c r="F45" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" ht="15.75">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="16"/>
       <c r="B46" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
@@ -1756,13 +1767,13 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" ht="15.75">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="16"/>
       <c r="B47" s="4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1770,133 +1781,133 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" ht="15.75">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F48" s="5"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" ht="15.75">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="16"/>
       <c r="B49" s="4" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F49" s="5"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" ht="15.75">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F50" s="5"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" ht="15.75">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F51" s="5"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" ht="15.75">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A52" s="16"/>
       <c r="B52" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F52" s="5"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" ht="15.75">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F53" s="5"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" ht="15.75">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F54" s="5"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" ht="15.75">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F55" s="5"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" ht="15.75">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A56" s="16"/>
       <c r="B56" s="4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="5"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" ht="15.75">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A57" s="16"/>
       <c r="B57" s="4" t="s">
         <v>25</v>
@@ -1905,18 +1916,18 @@
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
       <c r="F57" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" ht="15.75">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1924,7 +1935,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="18" customHeight="1">
+    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="17" t="s">
         <v>27</v>
       </c>
@@ -1935,12 +1946,12 @@
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" ht="15.75">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A60" s="17"/>
       <c r="B60" s="7" t="s">
         <v>29</v>
@@ -1952,27 +1963,27 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" ht="15.75">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A61" s="17"/>
       <c r="B61" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="5"/>
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" ht="15.75">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A62" s="17"/>
       <c r="B62" s="4" t="s">
-        <v>98</v>
+        <v>164</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1980,114 +1991,122 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" ht="15.75">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A63" s="17"/>
       <c r="B63" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
-        <v>6</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D63" s="5"/>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" ht="15.75">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A64" s="17"/>
-      <c r="B64" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C64" s="5"/>
+      <c r="B64" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" ht="15.75">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A65" s="17"/>
       <c r="B65" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="E65" s="5"/>
       <c r="F65" s="5"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" ht="15.75">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A66" s="17"/>
-      <c r="B66" s="4" t="s">
-        <v>34</v>
+      <c r="B66" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D66" s="5"/>
       <c r="E66" s="5"/>
       <c r="F66" s="5"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" ht="15.75">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A67" s="17"/>
-      <c r="B67" s="7" t="s">
-        <v>35</v>
+      <c r="B67" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
+      <c r="D67" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" ht="15.75">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A68" s="17"/>
-      <c r="B68" s="7" t="s">
-        <v>94</v>
+      <c r="B68" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
+      <c r="D68" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" ht="15.75">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A69" s="17"/>
-      <c r="B69" s="7" t="s">
-        <v>102</v>
+      <c r="B69" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5"/>
-      <c r="F69" s="5"/>
+      <c r="D69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" ht="15.75">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A70" s="17"/>
-      <c r="B70" s="4" t="s">
-        <v>118</v>
+      <c r="B70" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C70" s="5"/>
-      <c r="D70" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D70" s="5"/>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" ht="15.75">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A71" s="17"/>
       <c r="B71" s="7" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -2096,623 +2115,619 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" ht="15.75">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A72" s="17"/>
-      <c r="B72" s="4" t="s">
-        <v>117</v>
+      <c r="B72" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D72" s="5"/>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" ht="15.75">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A73" s="17"/>
       <c r="B73" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" ht="15.75">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A74" s="17"/>
-      <c r="B74" s="4" t="s">
-        <v>120</v>
+      <c r="B74" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C74" s="5"/>
-      <c r="D74" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D74" s="5"/>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" ht="15.75">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A75" s="17"/>
       <c r="B75" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" ht="15.75">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A76" s="17"/>
-      <c r="B76" s="7" t="s">
-        <v>68</v>
+      <c r="B76" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
+      <c r="D76" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" ht="15.75">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A77" s="17"/>
       <c r="B77" s="4" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E77" s="5"/>
       <c r="F77" s="5"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" ht="15.75">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A78" s="17"/>
       <c r="B78" s="4" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="E78" s="5"/>
       <c r="F78" s="5"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" ht="15.75">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A79" s="17"/>
-      <c r="B79" s="4" t="s">
-        <v>89</v>
+      <c r="B79" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C79" s="5"/>
-      <c r="D79" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
       <c r="F79" s="5"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" ht="15.75">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A80" s="17"/>
       <c r="B80" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F80" s="5"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" ht="15.75">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A81" s="17"/>
       <c r="B81" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F81" s="5"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" ht="15.75">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A82" s="17"/>
       <c r="B82" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F82" s="5"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" ht="15.75">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A83" s="17"/>
       <c r="B83" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F83" s="5"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" ht="15.75">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A84" s="17"/>
       <c r="B84" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F84" s="5"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" ht="15.75">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A85" s="17"/>
       <c r="B85" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C85" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
+        <v>89</v>
+      </c>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F85" s="5"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" ht="15.75">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A86" s="17"/>
       <c r="B86" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C86" s="5"/>
-      <c r="D86" s="5"/>
+      <c r="D86" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E86" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F86" s="5"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" ht="15.75">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A87" s="17"/>
-      <c r="B87" s="7" t="s">
-        <v>70</v>
+      <c r="B87" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C87" s="5"/>
-      <c r="D87" s="5"/>
-      <c r="E87" s="5"/>
+      <c r="D87" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F87" s="5"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" ht="15.75">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A88" s="17"/>
       <c r="B88" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" ht="15.75">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A89" s="17"/>
       <c r="B89" s="4" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C89" s="5"/>
-      <c r="D89" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E89" s="5"/>
-      <c r="F89" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F89" s="5"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" ht="15.75">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A90" s="17"/>
-      <c r="B90" s="4" t="s">
-        <v>110</v>
+      <c r="B90" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C90" s="5"/>
-      <c r="D90" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F90" s="5"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" ht="15.75">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A91" s="17"/>
       <c r="B91" s="4" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" ht="15.75">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A92" s="17"/>
       <c r="B92" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C92" s="5"/>
       <c r="D92" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" ht="15.75">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A93" s="17"/>
       <c r="B93" s="4" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C93" s="5"/>
       <c r="D93" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E93" s="5"/>
       <c r="F93" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" ht="15.75">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A94" s="17"/>
       <c r="B94" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" ht="15.75">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A95" s="17"/>
       <c r="B95" s="4" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" ht="15.75">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A96" s="17"/>
       <c r="B96" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C96" s="5"/>
       <c r="D96" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" ht="15.75">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A97" s="17"/>
       <c r="B97" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C97" s="5"/>
       <c r="D97" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" ht="15.75">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A98" s="17"/>
       <c r="B98" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E98" s="5"/>
       <c r="F98" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" ht="15.75">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A99" s="17"/>
       <c r="B99" s="4" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" ht="15.75">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A100" s="17"/>
       <c r="B100" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E100" s="5"/>
       <c r="F100" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" ht="15.75">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A101" s="17"/>
       <c r="B101" s="4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C101" s="5"/>
       <c r="D101" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" ht="15.75">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A102" s="17"/>
       <c r="B102" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" ht="15.75">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A103" s="17"/>
       <c r="B103" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E103" s="5"/>
       <c r="F103" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" ht="15.75">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A104" s="17"/>
       <c r="B104" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" ht="15.75">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A105" s="17"/>
       <c r="B105" s="4" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E105" s="5"/>
       <c r="F105" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" ht="15.75">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A106" s="17"/>
       <c r="B106" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E106" s="5"/>
       <c r="F106" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" ht="15.75">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A107" s="17"/>
       <c r="B107" s="4" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C107" s="5"/>
       <c r="D107" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" ht="15.75">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A108" s="17"/>
-      <c r="B108" s="7" t="s">
-        <v>95</v>
+      <c r="B108" s="4" t="s">
+        <v>84</v>
       </c>
       <c r="C108" s="5"/>
-      <c r="D108" s="5"/>
+      <c r="D108" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E108" s="5"/>
-      <c r="F108" s="5"/>
+      <c r="F108" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" ht="15.75">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A109" s="17"/>
       <c r="B109" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C109" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D109" s="5"/>
+        <v>123</v>
+      </c>
+      <c r="C109" s="5"/>
+      <c r="D109" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" ht="15.75">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A110" s="17"/>
       <c r="B110" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C110" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D110" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E110" s="5"/>
-      <c r="F110" s="5"/>
+      <c r="F110" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" ht="15.75">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A111" s="17"/>
-      <c r="B111" s="4" t="s">
-        <v>74</v>
+      <c r="B111" s="7" t="s">
+        <v>93</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
-      <c r="E111" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="E111" s="5"/>
       <c r="F111" s="5"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" ht="15.75">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A112" s="17"/>
       <c r="B112" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -2720,13 +2735,13 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" ht="15.75">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A113" s="17"/>
       <c r="B113" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -2734,27 +2749,27 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" ht="15.75">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A114" s="17"/>
       <c r="B114" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C114" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C114" s="5"/>
       <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
+      <c r="E114" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F114" s="5"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" ht="15.75">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A115" s="17"/>
       <c r="B115" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -2762,13 +2777,13 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" ht="15.75">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A116" s="17"/>
       <c r="B116" s="4" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -2776,162 +2791,164 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" ht="15.75">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A117" s="17"/>
       <c r="B117" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C117" s="5"/>
+        <v>96</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D117" s="5"/>
-      <c r="E117" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="E117" s="5"/>
       <c r="F117" s="5"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" ht="15.75">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A118" s="17"/>
-      <c r="B118" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C118" s="5"/>
+      <c r="B118" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" ht="15.75">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A119" s="17"/>
-      <c r="B119" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C119" s="5"/>
+      <c r="B119" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" ht="15.75">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A120" s="17"/>
       <c r="B120" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C120" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E120" s="5"/>
-      <c r="F120" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="C120" s="5"/>
+      <c r="D120" s="5"/>
+      <c r="E120" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F120" s="5"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" ht="15.75">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A121" s="17"/>
-      <c r="B121" s="4" t="s">
-        <v>22</v>
+      <c r="B121" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="C121" s="5"/>
-      <c r="D121" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D121" s="5"/>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" ht="15.75">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A122" s="17"/>
-      <c r="B122" s="4" t="s">
-        <v>23</v>
+      <c r="B122" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C122" s="5"/>
-      <c r="D122" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D122" s="5"/>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" ht="15.75">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A123" s="17"/>
       <c r="B123" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C123" s="5"/>
+        <v>36</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D123" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
+      <c r="F123" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" ht="15.75">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A124" s="17"/>
       <c r="B124" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C124" s="5"/>
       <c r="D124" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" ht="15.75">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A125" s="17"/>
-      <c r="B125" s="7" t="s">
-        <v>39</v>
+      <c r="B125" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C125" s="5"/>
-      <c r="D125" s="5"/>
+      <c r="D125" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" ht="15.75">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A126" s="17"/>
       <c r="B126" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C126" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D126" s="5"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" ht="15.75">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A127" s="17"/>
       <c r="B127" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C127" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D127" s="5"/>
+        <v>24</v>
+      </c>
+      <c r="C127" s="5"/>
+      <c r="D127" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" ht="15.75">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A128" s="17"/>
       <c r="B128" s="7" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -2940,13 +2957,13 @@
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" ht="15.75">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A129" s="17"/>
       <c r="B129" s="4" t="s">
-        <v>133</v>
+        <v>38</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -2954,13 +2971,13 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" ht="15.75">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A130" s="17"/>
       <c r="B130" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -2968,82 +2985,82 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" ht="15.75">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A131" s="17"/>
-      <c r="B131" s="4" t="s">
-        <v>132</v>
+      <c r="B131" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
-      <c r="E131" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="E131" s="5"/>
       <c r="F131" s="5"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" ht="18" customHeight="1">
-      <c r="A132" s="17" t="s">
-        <v>115</v>
-      </c>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A132" s="17"/>
       <c r="B132" s="4" t="s">
-        <v>7</v>
+        <v>130</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D132" s="5"/>
-      <c r="E132" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="E132" s="5"/>
       <c r="F132" s="5"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" ht="15.75">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A133" s="17"/>
-      <c r="B133" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C133" s="5"/>
+      <c r="B133" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
       <c r="F133" s="5"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" ht="15.75">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A134" s="17"/>
       <c r="B134" s="4" t="s">
-        <v>44</v>
+        <v>129</v>
       </c>
       <c r="C134" s="5"/>
-      <c r="D134" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E134" s="5"/>
+      <c r="D134" s="5"/>
+      <c r="E134" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F134" s="5"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" ht="15.75">
-      <c r="A135" s="17"/>
+    <row r="135" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A135" s="17" t="s">
+        <v>112</v>
+      </c>
       <c r="B135" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C135" s="5"/>
-      <c r="D135" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E135" s="5"/>
+        <v>7</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F135" s="5"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" ht="15.75">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A136" s="17"/>
       <c r="B136" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
@@ -3052,36 +3069,38 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" ht="15.75">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A137" s="17"/>
       <c r="B137" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C137" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D137" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="C137" s="5"/>
+      <c r="D137" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E137" s="5"/>
       <c r="F137" s="5"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" ht="15.75">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A138" s="17"/>
-      <c r="B138" s="7" t="s">
-        <v>47</v>
+      <c r="B138" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C138" s="5"/>
-      <c r="D138" s="5"/>
+      <c r="D138" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" ht="15.75">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A139" s="17"/>
       <c r="B139" s="7" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
@@ -3090,22 +3109,24 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" ht="15.75">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A140" s="17"/>
-      <c r="B140" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C140" s="5"/>
+      <c r="B140" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" ht="15.75">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A141" s="17"/>
       <c r="B141" s="7" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
@@ -3114,24 +3135,22 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" ht="15.75">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A142" s="17"/>
-      <c r="B142" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="C142" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="B142" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" ht="15.75">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A143" s="17"/>
       <c r="B143" s="7" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
@@ -3140,688 +3159,714 @@
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" ht="15.75">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A144" s="17"/>
-      <c r="B144" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="C144" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="B144" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C144" s="5"/>
       <c r="D144" s="5"/>
-      <c r="E144" s="11"/>
+      <c r="E144" s="5"/>
       <c r="F144" s="5"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" ht="15.75">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A145" s="17"/>
       <c r="B145" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D145" s="5"/>
-      <c r="E145" s="11"/>
+      <c r="E145" s="5"/>
       <c r="F145" s="5"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" ht="15.75">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A146" s="17"/>
-      <c r="B146" s="4" t="s">
-        <v>120</v>
+      <c r="B146" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C146" s="5"/>
-      <c r="D146" s="11"/>
+      <c r="D146" s="5"/>
       <c r="E146" s="5"/>
-      <c r="F146" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F146" s="5"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" ht="15.75">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A147" s="17"/>
       <c r="B147" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C147" s="5"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D147" s="5"/>
+      <c r="E147" s="11"/>
+      <c r="F147" s="5"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" ht="15.75">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A148" s="17"/>
-      <c r="B148" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C148" s="5"/>
+      <c r="B148" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="D148" s="5"/>
-      <c r="E148" s="5"/>
+      <c r="E148" s="11"/>
       <c r="F148" s="5"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" ht="15.75">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A149" s="17"/>
       <c r="B149" s="4" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="C149" s="5"/>
-      <c r="D149" s="5"/>
-      <c r="E149" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F149" s="5"/>
+      <c r="D149" s="11"/>
+      <c r="E149" s="5"/>
+      <c r="F149" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" ht="15.75">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A150" s="17"/>
       <c r="B150" s="4" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="C150" s="5"/>
-      <c r="D150" s="5"/>
-      <c r="E150" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F150" s="5"/>
+      <c r="D150" s="11"/>
+      <c r="E150" s="5"/>
+      <c r="F150" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" ht="15.75">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A151" s="17"/>
-      <c r="B151" s="4" t="s">
-        <v>89</v>
+      <c r="B151" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
-      <c r="E151" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="E151" s="5"/>
       <c r="F151" s="5"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" ht="15.75">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A152" s="17"/>
       <c r="B152" s="4" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F152" s="5"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" ht="15.75">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A153" s="17"/>
       <c r="B153" s="4" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F153" s="5"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" ht="15.75">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A154" s="17"/>
       <c r="B154" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F154" s="5"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" ht="15.75">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A155" s="17"/>
       <c r="B155" s="4" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F155" s="5"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" ht="15.75">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A156" s="17"/>
       <c r="B156" s="4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F156" s="5"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" ht="15.75">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A157" s="17"/>
       <c r="B157" s="4" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F157" s="5"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" ht="15.75">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A158" s="17"/>
       <c r="B158" s="4" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="C158" s="5"/>
       <c r="D158" s="5"/>
       <c r="E158" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F158" s="5"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" ht="15.75">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A159" s="17"/>
-      <c r="B159" s="7" t="s">
-        <v>70</v>
+      <c r="B159" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
-      <c r="E159" s="5"/>
+      <c r="E159" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="F159" s="5"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" ht="15.75">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A160" s="17"/>
       <c r="B160" s="4" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="E160" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F160" s="5"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" ht="15.75">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A161" s="17"/>
       <c r="B161" s="4" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
-      <c r="E161" s="5"/>
-      <c r="F161" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="E161" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F161" s="5"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" ht="15.75">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A162" s="17"/>
-      <c r="B162" s="4" t="s">
-        <v>110</v>
+      <c r="B162" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="5"/>
       <c r="E162" s="5"/>
-      <c r="F162" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F162" s="5"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" ht="15.75">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A163" s="17"/>
       <c r="B163" s="4" t="s">
-        <v>122</v>
+        <v>76</v>
       </c>
       <c r="C163" s="5"/>
-      <c r="D163" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D163" s="5"/>
       <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
+      <c r="F163" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" ht="15.75">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A164" s="17"/>
       <c r="B164" s="4" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="C164" s="5"/>
-      <c r="D164" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D164" s="5"/>
       <c r="E164" s="5"/>
-      <c r="F164" s="5"/>
+      <c r="F164" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" ht="15.75">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A165" s="17"/>
       <c r="B165" s="4" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
       <c r="E165" s="5"/>
       <c r="F165" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" ht="15.75">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A166" s="17"/>
       <c r="B166" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="C166" s="5"/>
-      <c r="D166" s="5"/>
+      <c r="D166" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E166" s="5"/>
-      <c r="F166" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F166" s="5"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" ht="15.75">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A167" s="17"/>
       <c r="B167" s="4" t="s">
-        <v>123</v>
+        <v>69</v>
       </c>
       <c r="C167" s="5"/>
       <c r="D167" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="5"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" ht="15.75">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A168" s="17"/>
       <c r="B168" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C168" s="5"/>
-      <c r="D168" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D168" s="5"/>
       <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
+      <c r="F168" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" ht="15.75">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A169" s="17"/>
       <c r="B169" s="4" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="C169" s="5"/>
       <c r="D169" s="5"/>
       <c r="E169" s="5"/>
       <c r="F169" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" ht="15.75">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A170" s="17"/>
       <c r="B170" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="C170" s="5"/>
-      <c r="D170" s="5"/>
+      <c r="D170" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E170" s="5"/>
-      <c r="F170" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F170" s="5"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" ht="15.75">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A171" s="17"/>
       <c r="B171" s="4" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="C171" s="5"/>
       <c r="D171" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="5"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" ht="15.75">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A172" s="17"/>
       <c r="B172" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C172" s="5"/>
-      <c r="D172" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D172" s="5"/>
       <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
+      <c r="F172" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" ht="15.75">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A173" s="17"/>
       <c r="B173" s="4" t="s">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
       <c r="E173" s="5"/>
       <c r="F173" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
-    <row r="174" spans="1:8" ht="15.75">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A174" s="17"/>
       <c r="B174" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="C174" s="5"/>
-      <c r="D174" s="5"/>
+      <c r="D174" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E174" s="5"/>
-      <c r="F174" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F174" s="5"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" spans="1:8" ht="15.75">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A175" s="17"/>
       <c r="B175" s="4" t="s">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="C175" s="5"/>
       <c r="D175" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" ht="15.75">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A176" s="17"/>
       <c r="B176" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C176" s="5"/>
-      <c r="D176" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D176" s="5"/>
       <c r="E176" s="5"/>
-      <c r="F176" s="5"/>
+      <c r="F176" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" ht="15.75">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A177" s="17"/>
       <c r="B177" s="4" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
       <c r="E177" s="5"/>
       <c r="F177" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" ht="15.75">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A178" s="17"/>
       <c r="B178" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="C178" s="5"/>
-      <c r="D178" s="5"/>
+      <c r="D178" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E178" s="5"/>
-      <c r="F178" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F178" s="5"/>
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:8" ht="15.75">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A179" s="17"/>
       <c r="B179" s="4" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:8" ht="15.75">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A180" s="17"/>
-      <c r="B180" s="7" t="s">
-        <v>96</v>
+      <c r="B180" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
       <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
+      <c r="F180" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" ht="15.75">
-      <c r="A181" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B181" s="7" t="s">
-        <v>50</v>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A181" s="17"/>
+      <c r="B181" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C181" s="5"/>
       <c r="D181" s="5"/>
       <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
+      <c r="F181" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" ht="15.75">
-      <c r="A182" s="12"/>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A182" s="17"/>
       <c r="B182" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C182" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="D182" s="5"/>
+        <v>124</v>
+      </c>
+      <c r="C182" s="5"/>
+      <c r="D182" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" spans="1:8" ht="15.75">
-      <c r="A183" s="12"/>
-      <c r="B183" s="4" t="s">
-        <v>52</v>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A183" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C183" s="5"/>
-      <c r="D183" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="D183" s="5"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" ht="15.75">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A184" s="12"/>
       <c r="B184" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5" t="s">
-        <v>66</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="C184" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D184" s="5"/>
       <c r="E184" s="5"/>
-      <c r="F184" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F184" s="5"/>
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" ht="15.75">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A185" s="12"/>
-      <c r="B185" s="7" t="s">
-        <v>54</v>
+      <c r="B185" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C185" s="5"/>
-      <c r="D185" s="5"/>
+      <c r="D185" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" ht="15.75">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A186" s="12"/>
-      <c r="B186" s="7" t="s">
-        <v>36</v>
+      <c r="B186" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="C186" s="5"/>
-      <c r="D186" s="5"/>
+      <c r="D186" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
+      <c r="F186" s="5" t="s">
+        <v>64</v>
+      </c>
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" ht="15.75">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A187" s="12"/>
-      <c r="B187" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C187" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="B187" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C187" s="5"/>
       <c r="D187" s="5"/>
       <c r="E187" s="5"/>
-      <c r="F187" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F187" s="5"/>
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" ht="15.75">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A188" s="12"/>
-      <c r="B188" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C188" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="B188" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C188" s="5"/>
       <c r="D188" s="5"/>
       <c r="E188" s="5"/>
-      <c r="F188" s="5" t="s">
-        <v>66</v>
-      </c>
+      <c r="F188" s="5"/>
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="192" spans="1:8">
-      <c r="A192" s="8" t="s">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A189" s="12"/>
+      <c r="B189" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C189" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D189" s="5"/>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G189" s="6"/>
+      <c r="H189" s="6"/>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A190" s="12"/>
+      <c r="B190" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C190" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D190" s="5"/>
+      <c r="E190" s="5"/>
+      <c r="F190" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B194" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="55.2" x14ac:dyDescent="0.45">
+      <c r="A195" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B192" s="9" t="s">
+      <c r="B195" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A196" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" ht="75">
-      <c r="A193" s="10" t="s">
+      <c r="B196" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A197" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B193" s="9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" ht="30">
-      <c r="A194" s="10" t="s">
+      <c r="B197" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A198" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B194" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" ht="30">
-      <c r="A195" s="10" t="s">
+      <c r="B198" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+      <c r="A199" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="B195" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" ht="30">
-      <c r="A196" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B196" s="11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" ht="30">
-      <c r="A197" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="B197" s="11">
+      <c r="B199" s="11">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A181:A188"/>
+    <mergeCell ref="A183:A190"/>
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A13:A58"/>
-    <mergeCell ref="A132:A180"/>
-    <mergeCell ref="A59:A131"/>
+    <mergeCell ref="A135:A182"/>
+    <mergeCell ref="A59:A134"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Document/Tasksheet.xlsx
+++ b/Document/Tasksheet.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FDF8DB-8B1C-4233-A013-F278D9DBF70B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="22305" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="170">
   <si>
     <t>Product Deliverables</t>
   </si>
@@ -431,196 +430,198 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Logout </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Unauthorized User&gt; Login</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Company</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Store</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Unauthorized User&gt; Login </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Data Dictionary</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Draw Heatmap</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Detect Face</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Faster RCNN</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password (UC_03)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile (UC_04)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile (UC_05)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Company (UC_06)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Company (UC_07)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Company (UC_08)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Company (UC_09)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Account (UC_10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Account (UC_11)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Account (UC_12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Account (UC_13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Store (UC_14)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Store (UC_15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Store (UC_16)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Store (UC_17)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Area (UC_18)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Area (UC_19)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Area (UC_20)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Area (UC_21)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Add Camera (UC_22)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera (UC_23)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Search Camera (UC_24)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera (UC_25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Store (UC_26)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Area (UC_27)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Camera (UC_28)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera (UC_29)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Object Detection (UC_30)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Count People (UC_31)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Report (UC_32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap (UC_33)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time (UC_34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; See Face Detection (UC_35)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Web Application Architecture Description</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Web Application Architecture Design</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Server Architecture Design</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Class Diagram</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        Interaction Diagram</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>Report 5 - Software Implementation and Test Document</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Logout </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Unauthorized User&gt; Login</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Company</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Store</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Area</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Unauthorized User&gt; Login </t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Data Dictionary</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Draw Heatmap</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Detect Face</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Faster RCNN</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Change Password (UC_03)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; View Profile (UC_04)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Authorized User&gt; Update Profile (UC_05)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Company (UC_06)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Company (UC_07)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Company (UC_08)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Company (UC_09)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Account (UC_10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Account (UC_11)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Account (UC_12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Account (UC_13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Store (UC_14)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Store (UC_15)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Store (UC_16)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Store (UC_17)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Area (UC_18)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Area (UC_19)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Area (UC_20)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Area (UC_21)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Add Camera (UC_22)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Edit Camera (UC_23)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Search Camera (UC_24)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;Admin&gt; Delete Camera (UC_25)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Store (UC_26)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Area (UC_27)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Camera (UC_28)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera (UC_29)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Object Detection (UC_30)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Count People (UC_31)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Report (UC_32)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; View Stream Heatmap (UC_33)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; Preview Heatmap in Time (UC_34)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                &lt;User&gt; See Face Detection (UC_35)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        Web Application Architecture Description</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Web Application Architecture Design</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Server Architecture Design</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Class Diagram</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">        Interaction Diagram</t>
-    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">                &lt;User&gt; View Streaming Camera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -633,7 +634,7 @@
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -817,7 +818,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Template_UnitTest Case_v0.9" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1094,20 +1095,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B120" sqref="B112:B120"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.69921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="105.6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="114">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1133,7 +1134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" ht="15.75">
       <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
@@ -1149,7 +1150,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" ht="15.75">
       <c r="A3" s="13"/>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -1163,7 +1164,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" ht="15.75">
       <c r="A4" s="14"/>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -1177,7 +1178,7 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" ht="15.75">
       <c r="A5" s="14"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
@@ -1191,7 +1192,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" ht="15.75">
       <c r="A6" s="14"/>
       <c r="B6" s="4" t="s">
         <v>10</v>
@@ -1205,7 +1206,7 @@
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" ht="15.75">
       <c r="A7" s="14"/>
       <c r="B7" s="4" t="s">
         <v>11</v>
@@ -1219,7 +1220,7 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" ht="15.75">
       <c r="A8" s="14"/>
       <c r="B8" s="4" t="s">
         <v>12</v>
@@ -1233,7 +1234,7 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" ht="15.75">
       <c r="A9" s="15" t="s">
         <v>13</v>
       </c>
@@ -1251,7 +1252,7 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" ht="15.75">
       <c r="A10" s="15"/>
       <c r="B10" s="4" t="s">
         <v>65</v>
@@ -1265,7 +1266,7 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" ht="15.75">
       <c r="A11" s="15"/>
       <c r="B11" s="4" t="s">
         <v>14</v>
@@ -1281,14 +1282,12 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" ht="15.75">
       <c r="A12" s="13"/>
       <c r="B12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>64</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
         <v>64</v>
       </c>
@@ -1297,7 +1296,7 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" ht="15.75">
       <c r="A13" s="16" t="s">
         <v>16</v>
       </c>
@@ -1315,7 +1314,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" ht="15.75">
       <c r="A14" s="16"/>
       <c r="B14" s="7" t="s">
         <v>18</v>
@@ -1327,7 +1326,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" ht="15.75">
       <c r="A15" s="16"/>
       <c r="B15" s="4" t="s">
         <v>19</v>
@@ -1341,7 +1340,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" ht="15.75">
       <c r="A16" s="16"/>
       <c r="B16" s="4" t="s">
         <v>20</v>
@@ -1357,7 +1356,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" ht="15.75">
       <c r="A17" s="16"/>
       <c r="B17" s="7" t="s">
         <v>21</v>
@@ -1369,7 +1368,7 @@
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:8" ht="15.75">
       <c r="A18" s="16"/>
       <c r="B18" s="7" t="s">
         <v>99</v>
@@ -1381,7 +1380,7 @@
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:8" ht="15.75">
       <c r="A19" s="16"/>
       <c r="B19" s="4" t="s">
         <v>100</v>
@@ -1395,7 +1394,7 @@
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" ht="15.75">
       <c r="A20" s="16"/>
       <c r="B20" s="7" t="s">
         <v>101</v>
@@ -1407,7 +1406,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" ht="15.75">
       <c r="A21" s="16"/>
       <c r="B21" s="4" t="s">
         <v>102</v>
@@ -1421,10 +1420,10 @@
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" ht="15.75">
       <c r="A22" s="16"/>
       <c r="B22" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>64</v>
@@ -1435,10 +1434,10 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" ht="15.75">
       <c r="A23" s="16"/>
       <c r="B23" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>64</v>
@@ -1449,10 +1448,10 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" ht="15.75">
       <c r="A24" s="16"/>
       <c r="B24" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>64</v>
@@ -1463,7 +1462,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" ht="15.75">
       <c r="A25" s="16"/>
       <c r="B25" s="7" t="s">
         <v>24</v>
@@ -1475,10 +1474,10 @@
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" ht="15.75">
       <c r="A26" s="16"/>
       <c r="B26" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
@@ -1489,10 +1488,10 @@
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" ht="15.75">
       <c r="A27" s="16"/>
       <c r="B27" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5" t="s">
@@ -1503,10 +1502,10 @@
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" ht="15.75">
       <c r="A28" s="16"/>
       <c r="B28" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5" t="s">
@@ -1517,10 +1516,10 @@
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" ht="15.75">
       <c r="A29" s="16"/>
       <c r="B29" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5" t="s">
@@ -1531,10 +1530,10 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" ht="15.75">
       <c r="A30" s="16"/>
       <c r="B30" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="5" t="s">
@@ -1545,10 +1544,10 @@
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" ht="15.75">
       <c r="A31" s="16"/>
       <c r="B31" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5" t="s">
@@ -1559,10 +1558,10 @@
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" ht="15.75">
       <c r="A32" s="16"/>
       <c r="B32" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5" t="s">
@@ -1573,10 +1572,10 @@
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" ht="15.75">
       <c r="A33" s="16"/>
       <c r="B33" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5" t="s">
@@ -1587,10 +1586,10 @@
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" ht="15.75">
       <c r="A34" s="16"/>
       <c r="B34" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
@@ -1601,10 +1600,10 @@
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:8" ht="15.75">
       <c r="A35" s="16"/>
       <c r="B35" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
@@ -1615,10 +1614,10 @@
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:8" ht="15.75">
       <c r="A36" s="16"/>
       <c r="B36" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -1629,10 +1628,10 @@
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" ht="15.75">
       <c r="A37" s="16"/>
       <c r="B37" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -1643,10 +1642,10 @@
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" ht="15.75">
       <c r="A38" s="16"/>
       <c r="B38" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -1657,10 +1656,10 @@
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" ht="15.75">
       <c r="A39" s="16"/>
       <c r="B39" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
@@ -1671,10 +1670,10 @@
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" ht="15.75">
       <c r="A40" s="16"/>
       <c r="B40" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
@@ -1685,10 +1684,10 @@
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" ht="15.75">
       <c r="A41" s="16"/>
       <c r="B41" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
@@ -1699,10 +1698,10 @@
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" ht="15.75">
       <c r="A42" s="16"/>
       <c r="B42" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
@@ -1713,10 +1712,10 @@
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" ht="15.75">
       <c r="A43" s="16"/>
       <c r="B43" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
@@ -1727,10 +1726,10 @@
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" ht="15.75">
       <c r="A44" s="16"/>
       <c r="B44" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
@@ -1741,10 +1740,10 @@
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" ht="15.75">
       <c r="A45" s="16"/>
       <c r="B45" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
@@ -1755,7 +1754,7 @@
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" ht="15.75">
       <c r="A46" s="16"/>
       <c r="B46" s="7" t="s">
         <v>67</v>
@@ -1767,10 +1766,10 @@
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" ht="15.75">
       <c r="A47" s="16"/>
       <c r="B47" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>64</v>
@@ -1781,10 +1780,10 @@
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" ht="15.75">
       <c r="A48" s="16"/>
       <c r="B48" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
@@ -1795,10 +1794,10 @@
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" ht="15.75">
       <c r="A49" s="16"/>
       <c r="B49" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
@@ -1809,10 +1808,10 @@
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" ht="15.75">
       <c r="A50" s="16"/>
       <c r="B50" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
@@ -1823,10 +1822,10 @@
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" ht="15.75">
       <c r="A51" s="16"/>
       <c r="B51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
@@ -1837,10 +1836,10 @@
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:8" ht="15.75">
       <c r="A52" s="16"/>
       <c r="B52" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
@@ -1851,10 +1850,10 @@
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:8" ht="15.75">
       <c r="A53" s="16"/>
       <c r="B53" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -1865,10 +1864,10 @@
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:8" ht="15.75">
       <c r="A54" s="16"/>
       <c r="B54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
@@ -1879,10 +1878,10 @@
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:8" ht="15.75">
       <c r="A55" s="16"/>
       <c r="B55" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
@@ -1893,10 +1892,10 @@
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:8" ht="15.75">
       <c r="A56" s="16"/>
       <c r="B56" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -1907,7 +1906,7 @@
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:8" ht="15.75">
       <c r="A57" s="16"/>
       <c r="B57" s="4" t="s">
         <v>25</v>
@@ -1921,7 +1920,7 @@
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:8" ht="15.75">
       <c r="A58" s="16"/>
       <c r="B58" s="4" t="s">
         <v>26</v>
@@ -1935,7 +1934,7 @@
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:8" ht="18" customHeight="1">
       <c r="A59" s="17" t="s">
         <v>27</v>
       </c>
@@ -1951,7 +1950,7 @@
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:8" ht="15.75">
       <c r="A60" s="17"/>
       <c r="B60" s="7" t="s">
         <v>29</v>
@@ -1963,10 +1962,10 @@
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:8" ht="15.75">
       <c r="A61" s="17"/>
       <c r="B61" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>64</v>
@@ -1977,10 +1976,10 @@
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:8" ht="15.75">
       <c r="A62" s="17"/>
       <c r="B62" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>64</v>
@@ -1991,10 +1990,10 @@
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:8" ht="15.75">
       <c r="A63" s="17"/>
       <c r="B63" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>64</v>
@@ -2005,7 +2004,7 @@
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:8" ht="15.75">
       <c r="A64" s="17"/>
       <c r="B64" s="4" t="s">
         <v>95</v>
@@ -2019,7 +2018,7 @@
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:8" ht="15.75">
       <c r="A65" s="17"/>
       <c r="B65" s="4" t="s">
         <v>30</v>
@@ -2033,7 +2032,7 @@
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:8" ht="15.75">
       <c r="A66" s="17"/>
       <c r="B66" s="7" t="s">
         <v>31</v>
@@ -2045,10 +2044,10 @@
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:8" ht="15.75">
       <c r="A67" s="17"/>
       <c r="B67" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
@@ -2059,7 +2058,7 @@
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:8" ht="15.75">
       <c r="A68" s="17"/>
       <c r="B68" s="4" t="s">
         <v>32</v>
@@ -2073,10 +2072,10 @@
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:8" ht="15.75">
       <c r="A69" s="17"/>
       <c r="B69" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
@@ -2091,7 +2090,7 @@
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:8" ht="15.75">
       <c r="A70" s="17"/>
       <c r="B70" s="7" t="s">
         <v>33</v>
@@ -2103,7 +2102,7 @@
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:8" ht="15.75">
       <c r="A71" s="17"/>
       <c r="B71" s="7" t="s">
         <v>92</v>
@@ -2115,7 +2114,7 @@
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:8" ht="15.75">
       <c r="A72" s="17"/>
       <c r="B72" s="7" t="s">
         <v>99</v>
@@ -2127,10 +2126,10 @@
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:8" ht="15.75">
       <c r="A73" s="17"/>
       <c r="B73" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5" t="s">
@@ -2141,7 +2140,7 @@
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:8" ht="15.75">
       <c r="A74" s="17"/>
       <c r="B74" s="7" t="s">
         <v>101</v>
@@ -2153,10 +2152,10 @@
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:8" ht="15.75">
       <c r="A75" s="17"/>
       <c r="B75" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C75" s="5"/>
       <c r="D75" s="5" t="s">
@@ -2167,10 +2166,10 @@
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:8" ht="15.75">
       <c r="A76" s="17"/>
       <c r="B76" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5" t="s">
@@ -2181,10 +2180,10 @@
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:8" ht="15.75">
       <c r="A77" s="17"/>
       <c r="B77" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5" t="s">
@@ -2195,10 +2194,10 @@
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:8" ht="15.75">
       <c r="A78" s="17"/>
       <c r="B78" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5" t="s">
@@ -2209,7 +2208,7 @@
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:8" ht="15.75">
       <c r="A79" s="17"/>
       <c r="B79" s="7" t="s">
         <v>66</v>
@@ -2221,7 +2220,7 @@
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:8" ht="15.75">
       <c r="A80" s="17"/>
       <c r="B80" s="4" t="s">
         <v>85</v>
@@ -2237,7 +2236,7 @@
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:8" ht="15.75">
       <c r="A81" s="17"/>
       <c r="B81" s="4" t="s">
         <v>86</v>
@@ -2253,7 +2252,7 @@
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:8" ht="15.75">
       <c r="A82" s="17"/>
       <c r="B82" s="4" t="s">
         <v>87</v>
@@ -2269,10 +2268,10 @@
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:8" ht="15.75">
       <c r="A83" s="17"/>
       <c r="B83" s="4" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5" t="s">
@@ -2285,7 +2284,7 @@
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:8" ht="15.75">
       <c r="A84" s="17"/>
       <c r="B84" s="4" t="s">
         <v>88</v>
@@ -2301,7 +2300,7 @@
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:8" ht="15.75">
       <c r="A85" s="17"/>
       <c r="B85" s="4" t="s">
         <v>89</v>
@@ -2317,7 +2316,7 @@
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:8" ht="15.75">
       <c r="A86" s="17"/>
       <c r="B86" s="4" t="s">
         <v>90</v>
@@ -2333,7 +2332,7 @@
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:8" ht="15.75">
       <c r="A87" s="17"/>
       <c r="B87" s="4" t="s">
         <v>104</v>
@@ -2349,21 +2348,21 @@
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:8" ht="15.75">
       <c r="A88" s="17"/>
       <c r="B88" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:8" ht="15.75">
       <c r="A89" s="17"/>
       <c r="B89" s="4" t="s">
         <v>106</v>
@@ -2377,7 +2376,7 @@
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:8" ht="15.75">
       <c r="A90" s="17"/>
       <c r="B90" s="7" t="s">
         <v>68</v>
@@ -2389,10 +2388,10 @@
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:8" ht="15.75">
       <c r="A91" s="17"/>
       <c r="B91" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5" t="s">
@@ -2405,7 +2404,7 @@
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:8" ht="15.75">
       <c r="A92" s="17"/>
       <c r="B92" s="4" t="s">
         <v>77</v>
@@ -2421,7 +2420,7 @@
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:8" ht="15.75">
       <c r="A93" s="17"/>
       <c r="B93" s="4" t="s">
         <v>107</v>
@@ -2437,10 +2436,10 @@
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:8" ht="15.75">
       <c r="A94" s="17"/>
       <c r="B94" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5" t="s">
@@ -2453,7 +2452,7 @@
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:8" ht="15.75">
       <c r="A95" s="17"/>
       <c r="B95" s="4" t="s">
         <v>69</v>
@@ -2469,7 +2468,7 @@
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:8" ht="15.75">
       <c r="A96" s="17"/>
       <c r="B96" s="4" t="s">
         <v>78</v>
@@ -2485,7 +2484,7 @@
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:8" ht="15.75">
       <c r="A97" s="17"/>
       <c r="B97" s="4" t="s">
         <v>108</v>
@@ -2501,10 +2500,10 @@
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:8" ht="15.75">
       <c r="A98" s="17"/>
       <c r="B98" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5" t="s">
@@ -2517,7 +2516,7 @@
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:8" ht="15.75">
       <c r="A99" s="17"/>
       <c r="B99" s="4" t="s">
         <v>79</v>
@@ -2533,7 +2532,7 @@
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:8" ht="15.75">
       <c r="A100" s="17"/>
       <c r="B100" s="4" t="s">
         <v>80</v>
@@ -2549,7 +2548,7 @@
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:8" ht="15.75">
       <c r="A101" s="17"/>
       <c r="B101" s="4" t="s">
         <v>109</v>
@@ -2565,10 +2564,10 @@
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:8" ht="15.75">
       <c r="A102" s="17"/>
       <c r="B102" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5" t="s">
@@ -2581,7 +2580,7 @@
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:8" ht="15.75">
       <c r="A103" s="17"/>
       <c r="B103" s="4" t="s">
         <v>81</v>
@@ -2597,7 +2596,7 @@
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:8" ht="15.75">
       <c r="A104" s="17"/>
       <c r="B104" s="4" t="s">
         <v>82</v>
@@ -2613,7 +2612,7 @@
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:8" ht="15.75">
       <c r="A105" s="17"/>
       <c r="B105" s="4" t="s">
         <v>110</v>
@@ -2629,10 +2628,10 @@
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:8" ht="15.75">
       <c r="A106" s="17"/>
       <c r="B106" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C106" s="5"/>
       <c r="D106" s="5" t="s">
@@ -2645,7 +2644,7 @@
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:8" ht="15.75">
       <c r="A107" s="17"/>
       <c r="B107" s="4" t="s">
         <v>83</v>
@@ -2661,7 +2660,7 @@
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:8" ht="15.75">
       <c r="A108" s="17"/>
       <c r="B108" s="4" t="s">
         <v>84</v>
@@ -2677,10 +2676,10 @@
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:8" ht="15.75">
       <c r="A109" s="17"/>
       <c r="B109" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C109" s="5"/>
       <c r="D109" s="5" t="s">
@@ -2693,10 +2692,10 @@
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:8" ht="15.75">
       <c r="A110" s="17"/>
       <c r="B110" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C110" s="5"/>
       <c r="D110" s="5" t="s">
@@ -2709,7 +2708,7 @@
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:8" ht="15.75">
       <c r="A111" s="17"/>
       <c r="B111" s="7" t="s">
         <v>93</v>
@@ -2721,7 +2720,7 @@
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:8" ht="15.75">
       <c r="A112" s="17"/>
       <c r="B112" s="4" t="s">
         <v>70</v>
@@ -2735,7 +2734,7 @@
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:8" ht="15.75">
       <c r="A113" s="17"/>
       <c r="B113" s="4" t="s">
         <v>71</v>
@@ -2749,7 +2748,7 @@
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:8" ht="15.75">
       <c r="A114" s="17"/>
       <c r="B114" s="4" t="s">
         <v>72</v>
@@ -2763,7 +2762,7 @@
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:8" ht="15.75">
       <c r="A115" s="17"/>
       <c r="B115" s="4" t="s">
         <v>73</v>
@@ -2777,7 +2776,7 @@
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:8" ht="15.75">
       <c r="A116" s="17"/>
       <c r="B116" s="4" t="s">
         <v>74</v>
@@ -2791,7 +2790,7 @@
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:8" ht="15.75">
       <c r="A117" s="17"/>
       <c r="B117" s="4" t="s">
         <v>96</v>
@@ -2805,7 +2804,7 @@
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:8" ht="15.75">
       <c r="A118" s="17"/>
       <c r="B118" s="4" t="s">
         <v>75</v>
@@ -2819,7 +2818,7 @@
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:8" ht="15.75">
       <c r="A119" s="17"/>
       <c r="B119" s="4" t="s">
         <v>94</v>
@@ -2833,7 +2832,7 @@
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:8" ht="15.75">
       <c r="A120" s="17"/>
       <c r="B120" s="4" t="s">
         <v>98</v>
@@ -2847,7 +2846,7 @@
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:8" ht="15.75">
       <c r="A121" s="17"/>
       <c r="B121" s="7" t="s">
         <v>35</v>
@@ -2859,7 +2858,7 @@
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:8" ht="15.75">
       <c r="A122" s="17"/>
       <c r="B122" s="7" t="s">
         <v>97</v>
@@ -2871,7 +2870,7 @@
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:8" ht="15.75">
       <c r="A123" s="17"/>
       <c r="B123" s="4" t="s">
         <v>36</v>
@@ -2889,7 +2888,7 @@
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:8" ht="15.75">
       <c r="A124" s="17"/>
       <c r="B124" s="4" t="s">
         <v>22</v>
@@ -2903,7 +2902,7 @@
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:8" ht="15.75">
       <c r="A125" s="17"/>
       <c r="B125" s="4" t="s">
         <v>23</v>
@@ -2917,7 +2916,7 @@
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:8" ht="15.75">
       <c r="A126" s="17"/>
       <c r="B126" s="4" t="s">
         <v>66</v>
@@ -2931,7 +2930,7 @@
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:8" ht="15.75">
       <c r="A127" s="17"/>
       <c r="B127" s="4" t="s">
         <v>24</v>
@@ -2945,7 +2944,7 @@
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:8" ht="15.75">
       <c r="A128" s="17"/>
       <c r="B128" s="7" t="s">
         <v>37</v>
@@ -2957,7 +2956,7 @@
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:8" ht="15.75">
       <c r="A129" s="17"/>
       <c r="B129" s="4" t="s">
         <v>38</v>
@@ -2971,10 +2970,10 @@
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:8" ht="15.75">
       <c r="A130" s="17"/>
       <c r="B130" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C130" s="5" t="s">
         <v>64</v>
@@ -2985,7 +2984,7 @@
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:8" ht="15.75">
       <c r="A131" s="17"/>
       <c r="B131" s="7" t="s">
         <v>40</v>
@@ -2997,10 +2996,10 @@
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:8" ht="15.75">
       <c r="A132" s="17"/>
       <c r="B132" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C132" s="5" t="s">
         <v>64</v>
@@ -3011,10 +3010,10 @@
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:8" ht="15.75">
       <c r="A133" s="17"/>
       <c r="B133" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>64</v>
@@ -3025,10 +3024,10 @@
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:8" ht="15.75">
       <c r="A134" s="17"/>
       <c r="B134" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -3039,9 +3038,9 @@
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
     </row>
-    <row r="135" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:8" ht="18" customHeight="1">
       <c r="A135" s="17" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>7</v>
@@ -3057,7 +3056,7 @@
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:8" ht="15.75">
       <c r="A136" s="17"/>
       <c r="B136" s="7" t="s">
         <v>41</v>
@@ -3069,7 +3068,7 @@
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:8" ht="15.75">
       <c r="A137" s="17"/>
       <c r="B137" s="4" t="s">
         <v>42</v>
@@ -3083,7 +3082,7 @@
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:8" ht="15.75">
       <c r="A138" s="17"/>
       <c r="B138" s="4" t="s">
         <v>39</v>
@@ -3097,7 +3096,7 @@
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:8" ht="15.75">
       <c r="A139" s="17"/>
       <c r="B139" s="7" t="s">
         <v>43</v>
@@ -3109,7 +3108,7 @@
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:8" ht="15.75">
       <c r="A140" s="17"/>
       <c r="B140" s="4" t="s">
         <v>44</v>
@@ -3123,7 +3122,7 @@
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:8" ht="15.75">
       <c r="A141" s="17"/>
       <c r="B141" s="7" t="s">
         <v>45</v>
@@ -3135,7 +3134,7 @@
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:8" ht="15.75">
       <c r="A142" s="17"/>
       <c r="B142" s="7" t="s">
         <v>46</v>
@@ -3147,7 +3146,7 @@
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:8" ht="15.75">
       <c r="A143" s="17"/>
       <c r="B143" s="7" t="s">
         <v>91</v>
@@ -3159,7 +3158,7 @@
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:8" ht="15.75">
       <c r="A144" s="17"/>
       <c r="B144" s="7" t="s">
         <v>99</v>
@@ -3171,10 +3170,10 @@
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:8" ht="15.75">
       <c r="A145" s="17"/>
       <c r="B145" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C145" s="5" t="s">
         <v>64</v>
@@ -3185,7 +3184,7 @@
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:8" ht="15.75">
       <c r="A146" s="17"/>
       <c r="B146" s="7" t="s">
         <v>101</v>
@@ -3197,10 +3196,10 @@
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:8" ht="15.75">
       <c r="A147" s="17"/>
       <c r="B147" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C147" s="5" t="s">
         <v>64</v>
@@ -3211,10 +3210,10 @@
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:8" ht="15.75">
       <c r="A148" s="17"/>
       <c r="B148" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C148" s="5" t="s">
         <v>64</v>
@@ -3225,10 +3224,10 @@
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:8" ht="15.75">
       <c r="A149" s="17"/>
       <c r="B149" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="11"/>
@@ -3239,10 +3238,10 @@
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:8" ht="15.75">
       <c r="A150" s="17"/>
       <c r="B150" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="11"/>
@@ -3253,7 +3252,7 @@
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:8" ht="15.75">
       <c r="A151" s="17"/>
       <c r="B151" s="7" t="s">
         <v>66</v>
@@ -3265,7 +3264,7 @@
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:8" ht="15.75">
       <c r="A152" s="17"/>
       <c r="B152" s="4" t="s">
         <v>85</v>
@@ -3279,7 +3278,7 @@
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:8" ht="15.75">
       <c r="A153" s="17"/>
       <c r="B153" s="4" t="s">
         <v>86</v>
@@ -3293,7 +3292,7 @@
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:8" ht="15.75">
       <c r="A154" s="17"/>
       <c r="B154" s="4" t="s">
         <v>87</v>
@@ -3307,7 +3306,7 @@
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:8" ht="15.75">
       <c r="A155" s="17"/>
       <c r="B155" s="4" t="s">
         <v>103</v>
@@ -3321,7 +3320,7 @@
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:8" ht="15.75">
       <c r="A156" s="17"/>
       <c r="B156" s="4" t="s">
         <v>88</v>
@@ -3335,7 +3334,7 @@
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:8" ht="15.75">
       <c r="A157" s="17"/>
       <c r="B157" s="4" t="s">
         <v>89</v>
@@ -3349,7 +3348,7 @@
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:8" ht="15.75">
       <c r="A158" s="17"/>
       <c r="B158" s="4" t="s">
         <v>90</v>
@@ -3363,7 +3362,7 @@
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:8" ht="15.75">
       <c r="A159" s="17"/>
       <c r="B159" s="4" t="s">
         <v>104</v>
@@ -3377,7 +3376,7 @@
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:8" ht="15.75">
       <c r="A160" s="17"/>
       <c r="B160" s="4" t="s">
         <v>105</v>
@@ -3391,7 +3390,7 @@
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:8" ht="15.75">
       <c r="A161" s="17"/>
       <c r="B161" s="4" t="s">
         <v>106</v>
@@ -3405,7 +3404,7 @@
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:8" ht="15.75">
       <c r="A162" s="17"/>
       <c r="B162" s="7" t="s">
         <v>68</v>
@@ -3417,7 +3416,7 @@
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:8" ht="15.75">
       <c r="A163" s="17"/>
       <c r="B163" s="4" t="s">
         <v>76</v>
@@ -3431,7 +3430,7 @@
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:8" ht="15.75">
       <c r="A164" s="17"/>
       <c r="B164" s="4" t="s">
         <v>77</v>
@@ -3445,7 +3444,7 @@
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:8" ht="15.75">
       <c r="A165" s="17"/>
       <c r="B165" s="4" t="s">
         <v>107</v>
@@ -3459,10 +3458,10 @@
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:8" ht="15.75">
       <c r="A166" s="17"/>
       <c r="B166" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5" t="s">
@@ -3473,7 +3472,7 @@
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:8" ht="15.75">
       <c r="A167" s="17"/>
       <c r="B167" s="4" t="s">
         <v>69</v>
@@ -3487,7 +3486,7 @@
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:8" ht="15.75">
       <c r="A168" s="17"/>
       <c r="B168" s="4" t="s">
         <v>78</v>
@@ -3501,7 +3500,7 @@
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:8" ht="15.75">
       <c r="A169" s="17"/>
       <c r="B169" s="4" t="s">
         <v>108</v>
@@ -3515,10 +3514,10 @@
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:8" ht="15.75">
       <c r="A170" s="17"/>
       <c r="B170" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C170" s="5"/>
       <c r="D170" s="5" t="s">
@@ -3529,7 +3528,7 @@
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:8" ht="15.75">
       <c r="A171" s="17"/>
       <c r="B171" s="4" t="s">
         <v>79</v>
@@ -3543,7 +3542,7 @@
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:8" ht="15.75">
       <c r="A172" s="17"/>
       <c r="B172" s="4" t="s">
         <v>80</v>
@@ -3557,7 +3556,7 @@
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:8" ht="15.75">
       <c r="A173" s="17"/>
       <c r="B173" s="4" t="s">
         <v>109</v>
@@ -3571,10 +3570,10 @@
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:8" ht="15.75">
       <c r="A174" s="17"/>
       <c r="B174" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5" t="s">
@@ -3585,7 +3584,7 @@
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:8" ht="15.75">
       <c r="A175" s="17"/>
       <c r="B175" s="4" t="s">
         <v>81</v>
@@ -3599,7 +3598,7 @@
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:8" ht="15.75">
       <c r="A176" s="17"/>
       <c r="B176" s="4" t="s">
         <v>82</v>
@@ -3613,7 +3612,7 @@
       <c r="G176" s="6"/>
       <c r="H176" s="6"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:8" ht="15.75">
       <c r="A177" s="17"/>
       <c r="B177" s="4" t="s">
         <v>110</v>
@@ -3627,10 +3626,10 @@
       <c r="G177" s="6"/>
       <c r="H177" s="6"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:8" ht="15.75">
       <c r="A178" s="17"/>
       <c r="B178" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5" t="s">
@@ -3641,7 +3640,7 @@
       <c r="G178" s="6"/>
       <c r="H178" s="6"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:8" ht="15.75">
       <c r="A179" s="17"/>
       <c r="B179" s="4" t="s">
         <v>83</v>
@@ -3655,10 +3654,10 @@
       <c r="G179" s="6"/>
       <c r="H179" s="6"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:8" ht="15.75">
       <c r="A180" s="17"/>
       <c r="B180" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C180" s="5"/>
       <c r="D180" s="5"/>
@@ -3669,7 +3668,7 @@
       <c r="G180" s="6"/>
       <c r="H180" s="6"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:8" ht="15.75">
       <c r="A181" s="17"/>
       <c r="B181" s="4" t="s">
         <v>111</v>
@@ -3683,10 +3682,10 @@
       <c r="G181" s="6"/>
       <c r="H181" s="6"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:8" ht="15.75">
       <c r="A182" s="17"/>
       <c r="B182" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C182" s="5"/>
       <c r="D182" s="5" t="s">
@@ -3697,7 +3696,7 @@
       <c r="G182" s="6"/>
       <c r="H182" s="6"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:8" ht="15.75">
       <c r="A183" s="12" t="s">
         <v>47</v>
       </c>
@@ -3711,7 +3710,7 @@
       <c r="G183" s="6"/>
       <c r="H183" s="6"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:8" ht="15.75">
       <c r="A184" s="12"/>
       <c r="B184" s="4" t="s">
         <v>49</v>
@@ -3725,7 +3724,7 @@
       <c r="G184" s="6"/>
       <c r="H184" s="6"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:8" ht="15.75">
       <c r="A185" s="12"/>
       <c r="B185" s="4" t="s">
         <v>50</v>
@@ -3739,7 +3738,7 @@
       <c r="G185" s="6"/>
       <c r="H185" s="6"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:8" ht="15.75">
       <c r="A186" s="12"/>
       <c r="B186" s="4" t="s">
         <v>51</v>
@@ -3755,7 +3754,7 @@
       <c r="G186" s="6"/>
       <c r="H186" s="6"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:8" ht="15.75">
       <c r="A187" s="12"/>
       <c r="B187" s="7" t="s">
         <v>52</v>
@@ -3767,7 +3766,7 @@
       <c r="G187" s="6"/>
       <c r="H187" s="6"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:8" ht="15.75">
       <c r="A188" s="12"/>
       <c r="B188" s="7" t="s">
         <v>34</v>
@@ -3779,7 +3778,7 @@
       <c r="G188" s="6"/>
       <c r="H188" s="6"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:8" ht="15.75">
       <c r="A189" s="12"/>
       <c r="B189" s="4" t="s">
         <v>66</v>
@@ -3795,7 +3794,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="6"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:8" ht="15.75">
       <c r="A190" s="12"/>
       <c r="B190" s="4" t="s">
         <v>24</v>
@@ -3811,7 +3810,7 @@
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2">
       <c r="A194" s="8" t="s">
         <v>53</v>
       </c>
@@ -3819,7 +3818,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="55.2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" ht="75">
       <c r="A195" s="10" t="s">
         <v>55</v>
       </c>
@@ -3827,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" ht="30">
       <c r="A196" s="10" t="s">
         <v>56</v>
       </c>
@@ -3835,7 +3834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" ht="30">
       <c r="A197" s="10" t="s">
         <v>57</v>
       </c>
@@ -3843,7 +3842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" ht="30">
       <c r="A198" s="10" t="s">
         <v>58</v>
       </c>
@@ -3851,7 +3850,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="27.6" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" ht="30">
       <c r="A199" s="10" t="s">
         <v>59</v>
       </c>
